--- a/[SLDE004]11_作業工程表_LibreOffice用.xlsx
+++ b/[SLDE004]11_作業工程表_LibreOffice用.xlsx
@@ -1053,7 +1053,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1094,6 +1094,20 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFC9211E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1227,10 +1241,10 @@
   </sheetPr>
   <dimension ref="A1:AR1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="V5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="S10" activeCellId="0" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -1894,7 +1908,9 @@
       <c r="T7" s="33"/>
       <c r="U7" s="34"/>
       <c r="V7" s="25"/>
-      <c r="W7" s="26"/>
+      <c r="W7" s="26" t="n">
+        <v>4</v>
+      </c>
       <c r="X7" s="26"/>
       <c r="Y7" s="26"/>
       <c r="Z7" s="26"/>
@@ -1965,7 +1981,9 @@
       <c r="T8" s="33"/>
       <c r="U8" s="34"/>
       <c r="V8" s="25"/>
-      <c r="W8" s="26"/>
+      <c r="W8" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="X8" s="26"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="26"/>
@@ -2098,7 +2116,9 @@
         <f aca="false">IF($L10&lt;&gt;"",NETWORKDAYS($L10,$M10,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
-      <c r="Q10" s="30"/>
+      <c r="Q10" s="30" t="n">
+        <v>50</v>
+      </c>
       <c r="R10" s="32" t="str">
         <f aca="false">IF(OR(AND($N10="",$L10&lt;&gt;"",$L10&lt;=$U$1),AND($M10&lt;&gt;"",Q10&lt;100,$M10&lt;=$U$1)),"遅延","")</f>
         <v/>
@@ -2109,11 +2129,13 @@
       </c>
       <c r="T10" s="33" t="n">
         <f aca="false">SUM($V10:$AR10)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U10" s="34"/>
       <c r="V10" s="25"/>
-      <c r="W10" s="26"/>
+      <c r="W10" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="X10" s="26"/>
       <c r="Y10" s="26"/>
       <c r="Z10" s="26"/>
@@ -2536,7 +2558,9 @@
         <f aca="false">IF($L16&lt;&gt;"",NETWORKDAYS($L16,$M16,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
-      <c r="Q16" s="30"/>
+      <c r="Q16" s="30" t="n">
+        <v>50</v>
+      </c>
       <c r="R16" s="32"/>
       <c r="S16" s="33" t="n">
         <f aca="false">7*P16</f>
@@ -2545,7 +2569,9 @@
       <c r="T16" s="33"/>
       <c r="U16" s="34"/>
       <c r="V16" s="25"/>
-      <c r="W16" s="26"/>
+      <c r="W16" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="X16" s="26"/>
       <c r="Y16" s="26"/>
       <c r="Z16" s="26"/>
@@ -2869,7 +2895,9 @@
         <f aca="false">IF($L21&lt;&gt;"",NETWORKDAYS($L21,$M21,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
-      <c r="Q21" s="30"/>
+      <c r="Q21" s="30" t="n">
+        <v>50</v>
+      </c>
       <c r="R21" s="32"/>
       <c r="S21" s="33" t="n">
         <f aca="false">7*P21</f>
@@ -2878,7 +2906,9 @@
       <c r="T21" s="33"/>
       <c r="U21" s="34"/>
       <c r="V21" s="25"/>
-      <c r="W21" s="26"/>
+      <c r="W21" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="X21" s="26"/>
       <c r="Y21" s="26"/>
       <c r="Z21" s="26"/>
@@ -3135,7 +3165,9 @@
         <f aca="false">IF($L25&lt;&gt;"",NETWORKDAYS($L25,$M25,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
-      <c r="Q25" s="30"/>
+      <c r="Q25" s="30" t="n">
+        <v>50</v>
+      </c>
       <c r="R25" s="32"/>
       <c r="S25" s="33" t="n">
         <f aca="false">7*P25</f>
@@ -3144,7 +3176,9 @@
       <c r="T25" s="33"/>
       <c r="U25" s="34"/>
       <c r="V25" s="25"/>
-      <c r="W25" s="26"/>
+      <c r="W25" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="26"/>
@@ -31559,15 +31593,15 @@
   </sheetData>
   <autoFilter ref="C4:U81"/>
   <conditionalFormatting sqref="W2:AR4">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>ROUNDDOWN($U$1,0)=W$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V76:AR81">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>AND(V76&lt;&gt;0,V76&lt;8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31582,12 +31616,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:AR74">
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>AND(#ref!="○",#ref!&lt;=V$1,V$1&lt;=#ref!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:AR74">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>AND(#ref!&lt;&gt;"○",#ref!&lt;=V$1,V$1&lt;=#ref!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31654,7 +31688,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{14D9613D-2065-4E64-A9FA-419529B64D53}">
+          <x14:cfRule type="expression" priority="7" id="{BC748E4B-5EE1-41F3-996F-53AC5B68FF96}">
             <xm:f>COUNTIF(休日!$B:$B,V$1)&gt;0</xm:f>
             <x14:dxf>
               <font>
@@ -31686,7 +31720,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>

--- a/[SLDE004]11_作業工程表_LibreOffice用.xlsx
+++ b/[SLDE004]11_作業工程表_LibreOffice用.xlsx
@@ -1053,7 +1053,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1101,6 +1101,20 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF57BB8A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF81CCA8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC0E6D4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1241,10 +1255,10 @@
   </sheetPr>
   <dimension ref="A1:AR1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="V5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="S10" activeCellId="0" sqref="S10"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="Z14" activeCellId="0" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -1280,7 +1294,7 @@
       <c r="T1" s="4"/>
       <c r="U1" s="5" t="n">
         <f aca="true">TODAY()</f>
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="V1" s="6" t="n">
         <f aca="false">R1</f>
@@ -1762,10 +1776,7 @@
         <v/>
       </c>
       <c r="S5" s="21"/>
-      <c r="T5" s="21" t="n">
-        <f aca="false">SUM($V5:$AR5)</f>
-        <v>0</v>
-      </c>
+      <c r="T5" s="21"/>
       <c r="U5" s="24"/>
       <c r="V5" s="25"/>
       <c r="W5" s="26"/>
@@ -1831,10 +1842,7 @@
         <v/>
       </c>
       <c r="S6" s="33"/>
-      <c r="T6" s="33" t="n">
-        <f aca="false">SUM($V6:$AR6)</f>
-        <v>0</v>
-      </c>
+      <c r="T6" s="33"/>
       <c r="U6" s="34"/>
       <c r="V6" s="25"/>
       <c r="W6" s="26"/>
@@ -1905,7 +1913,10 @@
         <f aca="false">7*P7</f>
         <v>14</v>
       </c>
-      <c r="T7" s="33"/>
+      <c r="T7" s="33" t="n">
+        <f aca="false">SUM($V7:$AR7)</f>
+        <v>4</v>
+      </c>
       <c r="U7" s="34"/>
       <c r="V7" s="25"/>
       <c r="W7" s="26" t="n">
@@ -1978,7 +1989,10 @@
         <f aca="false">7*P8</f>
         <v>14</v>
       </c>
-      <c r="T8" s="33"/>
+      <c r="T8" s="33" t="n">
+        <f aca="false">SUM($V8:$AR8)</f>
+        <v>3</v>
+      </c>
       <c r="U8" s="34"/>
       <c r="V8" s="25"/>
       <c r="W8" s="26" t="n">
@@ -2046,10 +2060,7 @@
         <v/>
       </c>
       <c r="S9" s="33"/>
-      <c r="T9" s="33" t="n">
-        <f aca="false">SUM($V9:$AR9)</f>
-        <v>0</v>
-      </c>
+      <c r="T9" s="33"/>
       <c r="U9" s="34"/>
       <c r="V9" s="25"/>
       <c r="W9" s="26"/>
@@ -2121,7 +2132,7 @@
       </c>
       <c r="R10" s="32" t="str">
         <f aca="false">IF(OR(AND($N10="",$L10&lt;&gt;"",$L10&lt;=$U$1),AND($M10&lt;&gt;"",Q10&lt;100,$M10&lt;=$U$1)),"遅延","")</f>
-        <v/>
+        <v>遅延</v>
       </c>
       <c r="S10" s="33" t="n">
         <f aca="false">7*P10</f>
@@ -2129,7 +2140,7 @@
       </c>
       <c r="T10" s="33" t="n">
         <f aca="false">SUM($V10:$AR10)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="U10" s="34"/>
       <c r="V10" s="25"/>
@@ -2138,7 +2149,9 @@
       </c>
       <c r="X10" s="26"/>
       <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
+      <c r="Z10" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="AA10" s="26"/>
       <c r="AB10" s="26"/>
       <c r="AC10" s="26"/>
@@ -2413,7 +2426,7 @@
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K14" s="30"/>
       <c r="L14" s="31" t="n">
@@ -2422,19 +2435,37 @@
       <c r="M14" s="31" t="n">
         <v>45000</v>
       </c>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
+      <c r="N14" s="31" t="n">
+        <v>44998</v>
+      </c>
+      <c r="O14" s="31" t="n">
+        <v>44998</v>
+      </c>
+      <c r="P14" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="R14" s="32" t="str">
+        <f aca="false">IF(OR(AND($N14="",$L14&lt;&gt;"",$L14&lt;=$U$1),AND($M14&lt;&gt;"",Q14&lt;100,$M14&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
+      <c r="S14" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="T14" s="33" t="n">
+        <f aca="false">SUM($V14:$AR14)</f>
+        <v>7</v>
+      </c>
       <c r="U14" s="34"/>
       <c r="V14" s="25"/>
       <c r="W14" s="26"/>
       <c r="X14" s="26"/>
       <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
+      <c r="Z14" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="AA14" s="26"/>
       <c r="AB14" s="26"/>
       <c r="AC14" s="26"/>
@@ -2494,10 +2525,7 @@
         <v/>
       </c>
       <c r="S15" s="33"/>
-      <c r="T15" s="33" t="n">
-        <f aca="false">SUM($V15:$AR15)</f>
-        <v>0</v>
-      </c>
+      <c r="T15" s="33"/>
       <c r="U15" s="34"/>
       <c r="V15" s="25"/>
       <c r="W15" s="26"/>
@@ -2561,12 +2589,18 @@
       <c r="Q16" s="30" t="n">
         <v>50</v>
       </c>
-      <c r="R16" s="32"/>
+      <c r="R16" s="32" t="str">
+        <f aca="false">IF(OR(AND($N16="",$L16&lt;&gt;"",$L16&lt;=$U$1),AND($M16&lt;&gt;"",Q16&lt;100,$M16&lt;=$U$1)),"遅延","")</f>
+        <v>遅延</v>
+      </c>
       <c r="S16" s="33" t="n">
         <f aca="false">7*P16</f>
         <v>14</v>
       </c>
-      <c r="T16" s="33"/>
+      <c r="T16" s="33" t="n">
+        <f aca="false">SUM($V16:$AR16)</f>
+        <v>10</v>
+      </c>
       <c r="U16" s="34"/>
       <c r="V16" s="25"/>
       <c r="W16" s="26" t="n">
@@ -2574,7 +2608,9 @@
       </c>
       <c r="X16" s="26"/>
       <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
+      <c r="Z16" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="AA16" s="26"/>
       <c r="AB16" s="26"/>
       <c r="AC16" s="26"/>
@@ -2621,25 +2657,37 @@
       <c r="M17" s="31" t="n">
         <v>45000</v>
       </c>
-      <c r="N17" s="31"/>
+      <c r="N17" s="31" t="n">
+        <v>44998</v>
+      </c>
       <c r="O17" s="31"/>
       <c r="P17" s="30" t="n">
         <f aca="false">IF($L17&lt;&gt;"",NETWORKDAYS($L17,$M17,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="32"/>
+      <c r="Q17" s="30" t="n">
+        <v>50</v>
+      </c>
+      <c r="R17" s="32" t="str">
+        <f aca="false">IF(OR(AND($N17="",$L17&lt;&gt;"",$L17&lt;=$U$1),AND($M17&lt;&gt;"",Q17&lt;100,$M17&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
       <c r="S17" s="33" t="n">
         <f aca="false">7*P17</f>
         <v>14</v>
       </c>
-      <c r="T17" s="33"/>
+      <c r="T17" s="33" t="n">
+        <f aca="false">SUM($V17:$AR17)</f>
+        <v>4</v>
+      </c>
       <c r="U17" s="34"/>
       <c r="V17" s="25"/>
       <c r="W17" s="26"/>
       <c r="X17" s="26"/>
       <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
+      <c r="Z17" s="26" t="n">
+        <v>4</v>
+      </c>
       <c r="AA17" s="26"/>
       <c r="AB17" s="26"/>
       <c r="AC17" s="26"/>
@@ -2693,12 +2741,18 @@
         <v>2</v>
       </c>
       <c r="Q18" s="30"/>
-      <c r="R18" s="32"/>
+      <c r="R18" s="32" t="str">
+        <f aca="false">IF(OR(AND($N18="",$L18&lt;&gt;"",$L18&lt;=$U$1),AND($M18&lt;&gt;"",Q18&lt;100,$M18&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
       <c r="S18" s="33" t="n">
         <f aca="false">7*P18</f>
         <v>14</v>
       </c>
-      <c r="T18" s="33"/>
+      <c r="T18" s="33" t="n">
+        <f aca="false">SUM($V18:$AR18)</f>
+        <v>0</v>
+      </c>
       <c r="U18" s="34"/>
       <c r="V18" s="25"/>
       <c r="W18" s="26"/>
@@ -2758,12 +2812,18 @@
         <v>2</v>
       </c>
       <c r="Q19" s="30"/>
-      <c r="R19" s="32"/>
+      <c r="R19" s="32" t="str">
+        <f aca="false">IF(OR(AND($N19="",$L19&lt;&gt;"",$L19&lt;=$U$1),AND($M19&lt;&gt;"",Q19&lt;100,$M19&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
       <c r="S19" s="33" t="n">
         <f aca="false">7*P19</f>
         <v>14</v>
       </c>
-      <c r="T19" s="33"/>
+      <c r="T19" s="33" t="n">
+        <f aca="false">SUM($V19:$AR19)</f>
+        <v>0</v>
+      </c>
       <c r="U19" s="34" t="s">
         <v>39</v>
       </c>
@@ -2831,10 +2891,7 @@
         <v/>
       </c>
       <c r="S20" s="33"/>
-      <c r="T20" s="33" t="n">
-        <f aca="false">SUM($V20:$AR20)</f>
-        <v>0</v>
-      </c>
+      <c r="T20" s="33"/>
       <c r="U20" s="34"/>
       <c r="V20" s="25"/>
       <c r="W20" s="26"/>
@@ -2898,12 +2955,18 @@
       <c r="Q21" s="30" t="n">
         <v>50</v>
       </c>
-      <c r="R21" s="32"/>
+      <c r="R21" s="32" t="str">
+        <f aca="false">IF(OR(AND($N21="",$L21&lt;&gt;"",$L21&lt;=$U$1),AND($M21&lt;&gt;"",Q21&lt;100,$M21&lt;=$U$1)),"遅延","")</f>
+        <v>遅延</v>
+      </c>
       <c r="S21" s="33" t="n">
         <f aca="false">7*P21</f>
         <v>14</v>
       </c>
-      <c r="T21" s="33"/>
+      <c r="T21" s="33" t="n">
+        <f aca="false">SUM($V21:$AR21)</f>
+        <v>7</v>
+      </c>
       <c r="U21" s="34"/>
       <c r="V21" s="25"/>
       <c r="W21" s="26" t="n">
@@ -2958,25 +3021,37 @@
       <c r="M22" s="31" t="n">
         <v>45000</v>
       </c>
-      <c r="N22" s="31"/>
+      <c r="N22" s="31" t="n">
+        <v>44998</v>
+      </c>
       <c r="O22" s="31"/>
       <c r="P22" s="30" t="n">
         <f aca="false">IF($L22&lt;&gt;"",NETWORKDAYS($L22,$M22,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="32"/>
+      <c r="Q22" s="30" t="n">
+        <v>50</v>
+      </c>
+      <c r="R22" s="32" t="str">
+        <f aca="false">IF(OR(AND($N22="",$L22&lt;&gt;"",$L22&lt;=$U$1),AND($M22&lt;&gt;"",Q22&lt;100,$M22&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
       <c r="S22" s="33" t="n">
         <f aca="false">7*P22</f>
         <v>14</v>
       </c>
-      <c r="T22" s="33"/>
+      <c r="T22" s="33" t="n">
+        <f aca="false">SUM($V22:$AR22)</f>
+        <v>3</v>
+      </c>
       <c r="U22" s="34"/>
       <c r="V22" s="25"/>
       <c r="W22" s="26"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
+      <c r="Z22" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="AA22" s="26"/>
       <c r="AB22" s="26"/>
       <c r="AC22" s="26"/>
@@ -3023,25 +3098,37 @@
       <c r="M23" s="31" t="n">
         <v>45002</v>
       </c>
-      <c r="N23" s="31"/>
+      <c r="N23" s="31" t="n">
+        <v>44998</v>
+      </c>
       <c r="O23" s="31"/>
       <c r="P23" s="30" t="n">
         <f aca="false">IF($L23&lt;&gt;"",NETWORKDAYS($L23,$M23,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="32"/>
+      <c r="Q23" s="30" t="n">
+        <v>20</v>
+      </c>
+      <c r="R23" s="32" t="str">
+        <f aca="false">IF(OR(AND($N23="",$L23&lt;&gt;"",$L23&lt;=$U$1),AND($M23&lt;&gt;"",Q23&lt;100,$M23&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
       <c r="S23" s="33" t="n">
         <f aca="false">7*P23</f>
         <v>14</v>
       </c>
-      <c r="T23" s="33"/>
+      <c r="T23" s="33" t="n">
+        <f aca="false">SUM($V23:$AR23)</f>
+        <v>4</v>
+      </c>
       <c r="U23" s="34"/>
       <c r="V23" s="25"/>
       <c r="W23" s="26"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
+      <c r="Z23" s="26" t="n">
+        <v>4</v>
+      </c>
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
       <c r="AC23" s="26"/>
@@ -3101,10 +3188,7 @@
         <v/>
       </c>
       <c r="S24" s="33"/>
-      <c r="T24" s="33" t="n">
-        <f aca="false">SUM($V24:$AR24)</f>
-        <v>0</v>
-      </c>
+      <c r="T24" s="33"/>
       <c r="U24" s="34"/>
       <c r="V24" s="25"/>
       <c r="W24" s="26"/>
@@ -3160,20 +3244,28 @@
       <c r="N25" s="31" t="n">
         <v>44995</v>
       </c>
-      <c r="O25" s="31"/>
+      <c r="O25" s="31" t="n">
+        <v>44998</v>
+      </c>
       <c r="P25" s="30" t="n">
         <f aca="false">IF($L25&lt;&gt;"",NETWORKDAYS($L25,$M25,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
       <c r="Q25" s="30" t="n">
-        <v>50</v>
-      </c>
-      <c r="R25" s="32"/>
+        <v>100</v>
+      </c>
+      <c r="R25" s="32" t="str">
+        <f aca="false">IF(OR(AND($N25="",$L25&lt;&gt;"",$L25&lt;=$U$1),AND($M25&lt;&gt;"",Q25&lt;100,$M25&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
       <c r="S25" s="33" t="n">
         <f aca="false">7*P25</f>
         <v>14</v>
       </c>
-      <c r="T25" s="33"/>
+      <c r="T25" s="33" t="n">
+        <f aca="false">SUM($V25:$AR25)</f>
+        <v>8</v>
+      </c>
       <c r="U25" s="34"/>
       <c r="V25" s="25"/>
       <c r="W25" s="26" t="n">
@@ -3181,7 +3273,9 @@
       </c>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
+      <c r="Z25" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="AA25" s="26"/>
       <c r="AB25" s="26"/>
       <c r="AC25" s="26"/>
@@ -3228,25 +3322,39 @@
       <c r="M26" s="31" t="n">
         <v>45000</v>
       </c>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
+      <c r="N26" s="31" t="n">
+        <v>44998</v>
+      </c>
+      <c r="O26" s="31" t="n">
+        <v>44998</v>
+      </c>
       <c r="P26" s="30" t="n">
         <f aca="false">IF($L26&lt;&gt;"",NETWORKDAYS($L26,$M26,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="32"/>
+      <c r="Q26" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="R26" s="32" t="str">
+        <f aca="false">IF(OR(AND($N26="",$L26&lt;&gt;"",$L26&lt;=$U$1),AND($M26&lt;&gt;"",Q26&lt;100,$M26&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
       <c r="S26" s="33" t="n">
         <f aca="false">7*P26</f>
         <v>14</v>
       </c>
-      <c r="T26" s="33"/>
+      <c r="T26" s="33" t="n">
+        <f aca="false">SUM($V26:$AR26)</f>
+        <v>2</v>
+      </c>
       <c r="U26" s="34"/>
       <c r="V26" s="25"/>
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
+      <c r="Z26" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="AA26" s="26"/>
       <c r="AB26" s="26"/>
       <c r="AC26" s="26"/>
@@ -3293,25 +3401,39 @@
       <c r="M27" s="31" t="n">
         <v>45001</v>
       </c>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
+      <c r="N27" s="31" t="n">
+        <v>44998</v>
+      </c>
+      <c r="O27" s="31" t="n">
+        <v>44998</v>
+      </c>
       <c r="P27" s="30" t="n">
         <f aca="false">IF($L27&lt;&gt;"",NETWORKDAYS($L27,$M27,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="32"/>
+      <c r="Q27" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="R27" s="32" t="str">
+        <f aca="false">IF(OR(AND($N27="",$L27&lt;&gt;"",$L27&lt;=$U$1),AND($M27&lt;&gt;"",Q27&lt;100,$M27&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
       <c r="S27" s="33" t="n">
         <f aca="false">7*P27</f>
         <v>14</v>
       </c>
-      <c r="T27" s="33"/>
+      <c r="T27" s="33" t="n">
+        <f aca="false">SUM($V27:$AR27)</f>
+        <v>3</v>
+      </c>
       <c r="U27" s="34"/>
       <c r="V27" s="25"/>
       <c r="W27" s="26"/>
       <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
+      <c r="Z27" s="26" t="n">
+        <v>3</v>
+      </c>
       <c r="AA27" s="26"/>
       <c r="AB27" s="26"/>
       <c r="AC27" s="26"/>
@@ -3358,25 +3480,34 @@
       <c r="M28" s="31" t="n">
         <v>45002</v>
       </c>
-      <c r="N28" s="31"/>
+      <c r="N28" s="31" t="n">
+        <v>44998</v>
+      </c>
       <c r="O28" s="31"/>
       <c r="P28" s="30" t="n">
         <f aca="false">IF($L28&lt;&gt;"",NETWORKDAYS($L28,$M28,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
-      <c r="Q28" s="30"/>
+      <c r="Q28" s="30" t="n">
+        <v>80</v>
+      </c>
       <c r="R28" s="32"/>
       <c r="S28" s="33" t="n">
         <f aca="false">7*P28</f>
         <v>14</v>
       </c>
-      <c r="T28" s="33"/>
+      <c r="T28" s="33" t="n">
+        <f aca="false">SUM($V28:$AR28)</f>
+        <v>1</v>
+      </c>
       <c r="U28" s="34"/>
       <c r="V28" s="25"/>
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
+      <c r="Z28" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="AA28" s="26"/>
       <c r="AB28" s="26"/>
       <c r="AC28" s="26"/>
@@ -3431,10 +3562,7 @@
         <v/>
       </c>
       <c r="S29" s="33"/>
-      <c r="T29" s="33" t="n">
-        <f aca="false">SUM($V29:$AR29)</f>
-        <v>0</v>
-      </c>
+      <c r="T29" s="33"/>
       <c r="U29" s="34"/>
       <c r="V29" s="25"/>
       <c r="W29" s="26"/>
@@ -3500,10 +3628,7 @@
         <v/>
       </c>
       <c r="S30" s="21"/>
-      <c r="T30" s="21" t="n">
-        <f aca="false">SUM($V30:$AR30)</f>
-        <v>0</v>
-      </c>
+      <c r="T30" s="21"/>
       <c r="U30" s="24"/>
       <c r="V30" s="25"/>
       <c r="W30" s="26"/>
@@ -3569,10 +3694,7 @@
         <v/>
       </c>
       <c r="S31" s="33"/>
-      <c r="T31" s="33" t="n">
-        <f aca="false">SUM($V31:$AR31)</f>
-        <v>0</v>
-      </c>
+      <c r="T31" s="33"/>
       <c r="U31" s="34"/>
       <c r="V31" s="25"/>
       <c r="W31" s="26"/>
@@ -31593,15 +31715,15 @@
   </sheetData>
   <autoFilter ref="C4:U81"/>
   <conditionalFormatting sqref="W2:AR4">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>ROUNDDOWN($U$1,0)=W$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V76:AR81">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>AND(V76&lt;&gt;0,V76&lt;8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31616,12 +31738,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:AR74">
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>AND(#ref!="○",#ref!&lt;=V$1,V$1&lt;=#ref!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5:AR74">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>AND(#ref!&lt;&gt;"○",#ref!&lt;=V$1,V$1&lt;=#ref!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31688,7 +31810,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{BC748E4B-5EE1-41F3-996F-53AC5B68FF96}">
+          <x14:cfRule type="expression" priority="7" id="{A9B8C5EA-A058-425E-8B18-EA54E078F600}">
             <xm:f>COUNTIF(休日!$B:$B,V$1)&gt;0</xm:f>
             <x14:dxf>
               <font>
@@ -31716,11 +31838,11 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>

--- a/[SLDE004]11_作業工程表_LibreOffice用.xlsx
+++ b/[SLDE004]11_作業工程表_LibreOffice用.xlsx
@@ -12,7 +12,7 @@
     <sheet name="休日" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">WBS!$C$4:$U$81</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">WBS!$C$4:$U$82</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="102">
   <si>
     <t xml:space="preserve">月</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t xml:space="preserve">ログアウト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トップ画面</t>
   </si>
   <si>
     <t xml:space="preserve">商品管理</t>
@@ -1053,7 +1056,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1107,14 +1110,28 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF81CCA8"/>
+          <fgColor rgb="FF84CEAA"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFC0E6D4"/>
+          <fgColor rgb="FF9BD7B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB1E0C9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC7E9D8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1255,10 +1272,10 @@
   </sheetPr>
   <dimension ref="A1:AR1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="V5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="Z14" activeCellId="0" sqref="Z14"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="Q25" activeCellId="0" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -1294,7 +1311,7 @@
       <c r="T1" s="4"/>
       <c r="U1" s="5" t="n">
         <f aca="true">TODAY()</f>
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="V1" s="6" t="n">
         <f aca="false">R1</f>
@@ -2022,43 +2039,37 @@
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="18"/>
-      <c r="B9" s="19" t="str">
-        <f aca="false">IF(AND($D9&lt;&gt;"",$F9=""),"E"&amp;ROW(),$B6)</f>
-        <v>E5</v>
-      </c>
-      <c r="C9" s="27" t="n">
-        <f aca="false">IF(AND($D9&lt;&gt;"",$D9&lt;&gt;"○"),MAX($C$3:$C8)+1,$C8)</f>
-        <v>1</v>
-      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="28"/>
-      <c r="E9" s="29" t="n">
-        <f aca="true">IF(AND($F9&lt;&gt;"",$D6&lt;&gt;""),1,IF($F9&lt;&gt;"",MAX(INDIRECT($B9):$E6)+1,""))</f>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31" t="n">
+        <v>44999</v>
+      </c>
+      <c r="M9" s="31" t="n">
+        <v>45000</v>
+      </c>
+      <c r="N9" s="31" t="n">
+        <v>44999</v>
+      </c>
+      <c r="O9" s="31"/>
+      <c r="P9" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="30" t="str">
-        <f aca="false">IF($H9="","",IF($G6="",1,$G6+1))</f>
-        <v/>
-      </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="30" t="str">
-        <f aca="false">IF($L9&lt;&gt;"",NETWORKDAYS($L9,$M9,休日!$B$4:$B$306),"")</f>
-        <v/>
-      </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="32" t="str">
-        <f aca="false">IF(OR(AND($N9="",$L9&lt;&gt;"",$L9&lt;=$U$1),AND($M9&lt;&gt;"",Q9&lt;100,$M9&lt;=$U$1)),"遅延","")</f>
-        <v/>
-      </c>
+      <c r="Q9" s="30" t="n">
+        <v>50</v>
+      </c>
+      <c r="R9" s="32"/>
       <c r="S9" s="33"/>
       <c r="T9" s="33"/>
       <c r="U9" s="34"/>
@@ -2067,7 +2078,9 @@
       <c r="X9" s="26"/>
       <c r="Y9" s="26"/>
       <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
+      <c r="AA9" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="AB9" s="26"/>
       <c r="AC9" s="26"/>
       <c r="AD9" s="26"/>
@@ -2089,69 +2102,50 @@
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="str">
-        <f aca="false">IF(AND($D10&lt;&gt;"",$F10=""),"E"&amp;ROW(),$B9)</f>
+        <f aca="false">IF(AND($D10&lt;&gt;"",$F10=""),"E"&amp;ROW(),$B6)</f>
         <v>E5</v>
       </c>
       <c r="C10" s="27" t="n">
-        <f aca="false">IF(AND($D10&lt;&gt;"",$D10&lt;&gt;"○"),MAX($C$3:$C9)+1,$C9)</f>
+        <f aca="false">IF(AND($D10&lt;&gt;"",$D10&lt;&gt;"○"),MAX($C$3:$C8)+1,$C8)</f>
         <v>1</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="29" t="str">
-        <f aca="true">IF(AND($F10&lt;&gt;"",$D9&lt;&gt;""),1,IF($F10&lt;&gt;"",MAX(INDIRECT($B10):$E9)+1,""))</f>
+      <c r="E10" s="29" t="n">
+        <f aca="true">IF(AND($F10&lt;&gt;"",$D6&lt;&gt;""),1,IF($F10&lt;&gt;"",MAX(INDIRECT($B10):$E6)+1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="30" t="str">
+        <f aca="false">IF($H10="","",IF($G6="",1,$G6+1))</f>
         <v/>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>26</v>
-      </c>
+      <c r="H10" s="30"/>
       <c r="I10" s="30"/>
-      <c r="J10" s="30" t="s">
-        <v>27</v>
-      </c>
+      <c r="J10" s="30"/>
       <c r="K10" s="30"/>
-      <c r="L10" s="31" t="n">
-        <v>44995</v>
-      </c>
-      <c r="M10" s="31" t="n">
-        <v>44998</v>
-      </c>
-      <c r="N10" s="31" t="n">
-        <v>44995</v>
-      </c>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
       <c r="O10" s="31"/>
-      <c r="P10" s="30" t="n">
+      <c r="P10" s="30" t="str">
         <f aca="false">IF($L10&lt;&gt;"",NETWORKDAYS($L10,$M10,休日!$B$4:$B$306),"")</f>
-        <v>2</v>
-      </c>
-      <c r="Q10" s="30" t="n">
-        <v>50</v>
-      </c>
+        <v/>
+      </c>
+      <c r="Q10" s="30"/>
       <c r="R10" s="32" t="str">
         <f aca="false">IF(OR(AND($N10="",$L10&lt;&gt;"",$L10&lt;=$U$1),AND($M10&lt;&gt;"",Q10&lt;100,$M10&lt;=$U$1)),"遅延","")</f>
-        <v>遅延</v>
-      </c>
-      <c r="S10" s="33" t="n">
-        <f aca="false">7*P10</f>
-        <v>14</v>
-      </c>
-      <c r="T10" s="33" t="n">
-        <f aca="false">SUM($V10:$AR10)</f>
-        <v>14</v>
-      </c>
+        <v/>
+      </c>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
       <c r="U10" s="34"/>
       <c r="V10" s="25"/>
-      <c r="W10" s="26" t="n">
-        <v>7</v>
-      </c>
+      <c r="W10" s="26"/>
       <c r="X10" s="26"/>
       <c r="Y10" s="26"/>
-      <c r="Z10" s="26" t="n">
-        <v>7</v>
-      </c>
+      <c r="Z10" s="26"/>
       <c r="AA10" s="26"/>
       <c r="AB10" s="26"/>
       <c r="AC10" s="26"/>
@@ -2187,51 +2181,61 @@
         <v/>
       </c>
       <c r="F11" s="30"/>
-      <c r="G11" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>28</v>
+      <c r="G11" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="31" t="n">
-        <v>45001</v>
+        <v>44995</v>
       </c>
       <c r="M11" s="31" t="n">
-        <v>45001</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+        <v>44998</v>
+      </c>
+      <c r="N11" s="31" t="n">
+        <v>44995</v>
+      </c>
+      <c r="O11" s="31" t="n">
+        <v>44999</v>
+      </c>
       <c r="P11" s="30" t="n">
         <f aca="false">IF($L11&lt;&gt;"",NETWORKDAYS($L11,$M11,休日!$B$4:$B$306),"")</f>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="30"/>
+        <v>2</v>
+      </c>
+      <c r="Q11" s="30" t="n">
+        <v>100</v>
+      </c>
       <c r="R11" s="32" t="str">
         <f aca="false">IF(OR(AND($N11="",$L11&lt;&gt;"",$L11&lt;=$U$1),AND($M11&lt;&gt;"",Q11&lt;100,$M11&lt;=$U$1)),"遅延","")</f>
         <v/>
       </c>
       <c r="S11" s="33" t="n">
         <f aca="false">7*P11</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T11" s="33" t="n">
         <f aca="false">SUM($V11:$AR11)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="36" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="U11" s="34"/>
       <c r="V11" s="25"/>
-      <c r="W11" s="26"/>
+      <c r="W11" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="X11" s="26"/>
       <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
+      <c r="Z11" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="AB11" s="26"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
@@ -2267,10 +2271,10 @@
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="30" t="s">
@@ -2278,10 +2282,10 @@
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="31" t="n">
-        <v>45002</v>
+        <v>45001</v>
       </c>
       <c r="M12" s="31" t="n">
-        <v>45002</v>
+        <v>45001</v>
       </c>
       <c r="N12" s="31"/>
       <c r="O12" s="31"/>
@@ -2303,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V12" s="25"/>
       <c r="W12" s="26"/>
@@ -2346,18 +2350,18 @@
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="35" t="s">
         <v>31</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K13" s="30"/>
       <c r="L13" s="31" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="M13" s="31" t="n">
         <v>45002</v>
@@ -2366,7 +2370,7 @@
       <c r="O13" s="31"/>
       <c r="P13" s="30" t="n">
         <f aca="false">IF($L13&lt;&gt;"",NETWORKDAYS($L13,$M13,休日!$B$4:$B$306),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="30"/>
       <c r="R13" s="32" t="str">
@@ -2375,14 +2379,14 @@
       </c>
       <c r="S13" s="33" t="n">
         <f aca="false">7*P13</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="T13" s="33" t="n">
         <f aca="false">SUM($V13:$AR13)</f>
         <v>0</v>
       </c>
       <c r="U13" s="36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V13" s="25"/>
       <c r="W13" s="26"/>
@@ -2410,62 +2414,64 @@
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
+      <c r="B14" s="19" t="str">
+        <f aca="false">IF(AND($D14&lt;&gt;"",$F14=""),"E"&amp;ROW(),$B13)</f>
+        <v>E5</v>
+      </c>
       <c r="C14" s="27" t="n">
         <f aca="false">IF(AND($D14&lt;&gt;"",$D14&lt;&gt;"○"),MAX($C$3:$C13)+1,$C13)</f>
         <v>1</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
+      <c r="E14" s="29" t="str">
+        <f aca="true">IF(AND($F14&lt;&gt;"",$D13&lt;&gt;""),1,IF($F14&lt;&gt;"",MAX(INDIRECT($B14):$E13)+1,""))</f>
+        <v/>
+      </c>
       <c r="F14" s="30"/>
-      <c r="G14" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="H14" s="30" t="s">
+      <c r="G14" s="35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>32</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="30" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K14" s="30"/>
       <c r="L14" s="31" t="n">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="M14" s="31" t="n">
-        <v>45000</v>
-      </c>
-      <c r="N14" s="31" t="n">
-        <v>44998</v>
-      </c>
-      <c r="O14" s="31" t="n">
-        <v>44998</v>
-      </c>
+        <v>45002</v>
+      </c>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
       <c r="P14" s="30" t="n">
+        <f aca="false">IF($L14&lt;&gt;"",NETWORKDAYS($L14,$M14,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
-      <c r="Q14" s="30" t="n">
-        <v>100</v>
-      </c>
+      <c r="Q14" s="30"/>
       <c r="R14" s="32" t="str">
         <f aca="false">IF(OR(AND($N14="",$L14&lt;&gt;"",$L14&lt;=$U$1),AND($M14&lt;&gt;"",Q14&lt;100,$M14&lt;=$U$1)),"遅延","")</f>
         <v/>
       </c>
       <c r="S14" s="33" t="n">
+        <f aca="false">7*P14</f>
         <v>14</v>
       </c>
       <c r="T14" s="33" t="n">
         <f aca="false">SUM($V14:$AR14)</f>
-        <v>7</v>
-      </c>
-      <c r="U14" s="34"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="V14" s="25"/>
       <c r="W14" s="26"/>
       <c r="X14" s="26"/>
       <c r="Y14" s="26"/>
-      <c r="Z14" s="26" t="n">
-        <v>7</v>
-      </c>
+      <c r="Z14" s="26"/>
       <c r="AA14" s="26"/>
       <c r="AB14" s="26"/>
       <c r="AC14" s="26"/>
@@ -2487,51 +2493,62 @@
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18"/>
-      <c r="B15" s="19" t="str">
-        <f aca="false">IF(AND($D15&lt;&gt;"",$F15=""),"E"&amp;ROW(),$B13)</f>
-        <v>E5</v>
-      </c>
+      <c r="B15" s="19"/>
       <c r="C15" s="27" t="n">
         <f aca="false">IF(AND($D15&lt;&gt;"",$D15&lt;&gt;"○"),MAX($C$3:$C14)+1,$C14)</f>
         <v>1</v>
       </c>
       <c r="D15" s="28"/>
-      <c r="E15" s="29" t="n">
-        <f aca="true">IF(AND($F15&lt;&gt;"",$D13&lt;&gt;""),1,IF($F15&lt;&gt;"",MAX(INDIRECT($B15):$E13)+1,""))</f>
-        <v>3</v>
-      </c>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="30" t="str">
-        <f aca="false">IF($H15="","",IF($G13="",1,$G13+1))</f>
-        <v/>
-      </c>
-      <c r="H15" s="30"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="J15" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="30" t="str">
-        <f aca="false">IF($L15&lt;&gt;"",NETWORKDAYS($L15,$M15,休日!$B$4:$B$306),"")</f>
-        <v/>
-      </c>
-      <c r="Q15" s="30"/>
+      <c r="L15" s="31" t="n">
+        <v>44999</v>
+      </c>
+      <c r="M15" s="31" t="n">
+        <v>45000</v>
+      </c>
+      <c r="N15" s="31" t="n">
+        <v>44998</v>
+      </c>
+      <c r="O15" s="31" t="n">
+        <v>44998</v>
+      </c>
+      <c r="P15" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="30" t="n">
+        <v>100</v>
+      </c>
       <c r="R15" s="32" t="str">
         <f aca="false">IF(OR(AND($N15="",$L15&lt;&gt;"",$L15&lt;=$U$1),AND($M15&lt;&gt;"",Q15&lt;100,$M15&lt;=$U$1)),"遅延","")</f>
         <v/>
       </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
+      <c r="S15" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="T15" s="33" t="n">
+        <f aca="false">SUM($V15:$AR15)</f>
+        <v>7</v>
+      </c>
       <c r="U15" s="34"/>
       <c r="V15" s="25"/>
       <c r="W15" s="26"/>
       <c r="X15" s="26"/>
       <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
+      <c r="Z15" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="AA15" s="26"/>
       <c r="AB15" s="26"/>
       <c r="AC15" s="26"/>
@@ -2553,64 +2570,51 @@
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19" t="str">
+        <f aca="false">IF(AND($D16&lt;&gt;"",$F16=""),"E"&amp;ROW(),$B14)</f>
+        <v>E5</v>
+      </c>
       <c r="C16" s="27" t="n">
         <f aca="false">IF(AND($D16&lt;&gt;"",$D16&lt;&gt;"○"),MAX($C$3:$C15)+1,$C15)</f>
         <v>1</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="30" t="s">
+      <c r="E16" s="29" t="n">
+        <f aca="true">IF(AND($F16&lt;&gt;"",$D14&lt;&gt;""),1,IF($F16&lt;&gt;"",MAX(INDIRECT($B16):$E14)+1,""))</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>34</v>
       </c>
+      <c r="G16" s="30" t="str">
+        <f aca="false">IF($H16="","",IF($G14="",1,$G14+1))</f>
+        <v/>
+      </c>
+      <c r="H16" s="30"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="30" t="s">
-        <v>35</v>
-      </c>
+      <c r="J16" s="30"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="31" t="n">
-        <v>44995</v>
-      </c>
-      <c r="M16" s="31" t="n">
-        <v>44998</v>
-      </c>
-      <c r="N16" s="31" t="n">
-        <v>44995</v>
-      </c>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
       <c r="O16" s="31"/>
-      <c r="P16" s="30" t="n">
+      <c r="P16" s="30" t="str">
         <f aca="false">IF($L16&lt;&gt;"",NETWORKDAYS($L16,$M16,休日!$B$4:$B$306),"")</f>
-        <v>2</v>
-      </c>
-      <c r="Q16" s="30" t="n">
-        <v>50</v>
-      </c>
+        <v/>
+      </c>
+      <c r="Q16" s="30"/>
       <c r="R16" s="32" t="str">
         <f aca="false">IF(OR(AND($N16="",$L16&lt;&gt;"",$L16&lt;=$U$1),AND($M16&lt;&gt;"",Q16&lt;100,$M16&lt;=$U$1)),"遅延","")</f>
-        <v>遅延</v>
-      </c>
-      <c r="S16" s="33" t="n">
-        <f aca="false">7*P16</f>
-        <v>14</v>
-      </c>
-      <c r="T16" s="33" t="n">
-        <f aca="false">SUM($V16:$AR16)</f>
-        <v>10</v>
-      </c>
+        <v/>
+      </c>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
       <c r="U16" s="34"/>
       <c r="V16" s="25"/>
-      <c r="W16" s="26" t="n">
-        <v>7</v>
-      </c>
+      <c r="W16" s="26"/>
       <c r="X16" s="26"/>
       <c r="Y16" s="26"/>
-      <c r="Z16" s="26" t="n">
-        <v>3</v>
-      </c>
+      <c r="Z16" s="26"/>
       <c r="AA16" s="26"/>
       <c r="AB16" s="26"/>
       <c r="AC16" s="26"/>
@@ -2641,24 +2645,24 @@
       <c r="E17" s="29"/>
       <c r="F17" s="30"/>
       <c r="G17" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17" s="30"/>
       <c r="L17" s="31" t="n">
-        <v>44999</v>
+        <v>44995</v>
       </c>
       <c r="M17" s="31" t="n">
-        <v>45000</v>
+        <v>44998</v>
       </c>
       <c r="N17" s="31" t="n">
-        <v>44998</v>
+        <v>44995</v>
       </c>
       <c r="O17" s="31"/>
       <c r="P17" s="30" t="n">
@@ -2666,11 +2670,11 @@
         <v>2</v>
       </c>
       <c r="Q17" s="30" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R17" s="32" t="str">
         <f aca="false">IF(OR(AND($N17="",$L17&lt;&gt;"",$L17&lt;=$U$1),AND($M17&lt;&gt;"",Q17&lt;100,$M17&lt;=$U$1)),"遅延","")</f>
-        <v/>
+        <v>遅延</v>
       </c>
       <c r="S17" s="33" t="n">
         <f aca="false">7*P17</f>
@@ -2678,17 +2682,21 @@
       </c>
       <c r="T17" s="33" t="n">
         <f aca="false">SUM($V17:$AR17)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="U17" s="34"/>
       <c r="V17" s="25"/>
-      <c r="W17" s="26"/>
+      <c r="W17" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="X17" s="26"/>
       <c r="Y17" s="26"/>
       <c r="Z17" s="26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA17" s="26"/>
+        <v>3</v>
+      </c>
+      <c r="AA17" s="26" t="n">
+        <v>2</v>
+      </c>
       <c r="AB17" s="26"/>
       <c r="AC17" s="26"/>
       <c r="AD17" s="26"/>
@@ -2718,29 +2726,33 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>37</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="31" t="n">
+        <v>44999</v>
+      </c>
+      <c r="M18" s="31" t="n">
         <v>45000</v>
       </c>
-      <c r="M18" s="31" t="n">
-        <v>45001</v>
-      </c>
-      <c r="N18" s="31"/>
+      <c r="N18" s="31" t="n">
+        <v>44998</v>
+      </c>
       <c r="O18" s="31"/>
       <c r="P18" s="30" t="n">
         <f aca="false">IF($L18&lt;&gt;"",NETWORKDAYS($L18,$M18,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
-      <c r="Q18" s="30"/>
+      <c r="Q18" s="30" t="n">
+        <v>60</v>
+      </c>
       <c r="R18" s="32" t="str">
         <f aca="false">IF(OR(AND($N18="",$L18&lt;&gt;"",$L18&lt;=$U$1),AND($M18&lt;&gt;"",Q18&lt;100,$M18&lt;=$U$1)),"遅延","")</f>
         <v/>
@@ -2751,15 +2763,19 @@
       </c>
       <c r="T18" s="33" t="n">
         <f aca="false">SUM($V18:$AR18)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U18" s="34"/>
       <c r="V18" s="25"/>
       <c r="W18" s="26"/>
       <c r="X18" s="26"/>
       <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
+      <c r="Z18" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="26" t="n">
+        <v>4</v>
+      </c>
       <c r="AB18" s="26"/>
       <c r="AC18" s="26"/>
       <c r="AD18" s="26"/>
@@ -2789,29 +2805,33 @@
       <c r="E19" s="29"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="30"/>
       <c r="J19" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="31" t="n">
+        <v>45000</v>
+      </c>
+      <c r="M19" s="31" t="n">
         <v>45001</v>
       </c>
-      <c r="M19" s="31" t="n">
-        <v>45002</v>
-      </c>
-      <c r="N19" s="31"/>
+      <c r="N19" s="31" t="n">
+        <v>44999</v>
+      </c>
       <c r="O19" s="31"/>
       <c r="P19" s="30" t="n">
         <f aca="false">IF($L19&lt;&gt;"",NETWORKDAYS($L19,$M19,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
-      <c r="Q19" s="30"/>
+      <c r="Q19" s="30" t="n">
+        <v>50</v>
+      </c>
       <c r="R19" s="32" t="str">
         <f aca="false">IF(OR(AND($N19="",$L19&lt;&gt;"",$L19&lt;=$U$1),AND($M19&lt;&gt;"",Q19&lt;100,$M19&lt;=$U$1)),"遅延","")</f>
         <v/>
@@ -2822,17 +2842,17 @@
       </c>
       <c r="T19" s="33" t="n">
         <f aca="false">SUM($V19:$AR19)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="34" t="s">
-        <v>39</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="U19" s="34"/>
       <c r="V19" s="25"/>
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
+      <c r="AA19" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="AB19" s="26"/>
       <c r="AC19" s="26"/>
       <c r="AD19" s="26"/>
@@ -2853,46 +2873,53 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18"/>
-      <c r="B20" s="19" t="str">
-        <f aca="false">IF(AND($D20&lt;&gt;"",$F20=""),"E"&amp;ROW(),$B15)</f>
-        <v>E5</v>
-      </c>
+      <c r="B20" s="19"/>
       <c r="C20" s="27" t="n">
         <f aca="false">IF(AND($D20&lt;&gt;"",$D20&lt;&gt;"○"),MAX($C$3:$C19)+1,$C19)</f>
         <v>1</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="29" t="n">
-        <f aca="true">IF(AND($F20&lt;&gt;"",$D15&lt;&gt;""),1,IF($F20&lt;&gt;"",MAX(INDIRECT($B20):$E15)+1,""))</f>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="30" t="str">
-        <f aca="false">IF($H20="","",IF($G15="",1,$G15+1))</f>
-        <v/>
-      </c>
-      <c r="H20" s="30"/>
+      <c r="H20" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="J20" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
+      <c r="L20" s="31" t="n">
+        <v>45001</v>
+      </c>
+      <c r="M20" s="31" t="n">
+        <v>45002</v>
+      </c>
       <c r="N20" s="31"/>
       <c r="O20" s="31"/>
-      <c r="P20" s="30" t="str">
+      <c r="P20" s="30" t="n">
         <f aca="false">IF($L20&lt;&gt;"",NETWORKDAYS($L20,$M20,休日!$B$4:$B$306),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="Q20" s="30"/>
       <c r="R20" s="32" t="str">
         <f aca="false">IF(OR(AND($N20="",$L20&lt;&gt;"",$L20&lt;=$U$1),AND($M20&lt;&gt;"",Q20&lt;100,$M20&lt;=$U$1)),"遅延","")</f>
         <v/>
       </c>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="34"/>
+      <c r="S20" s="33" t="n">
+        <f aca="false">7*P20</f>
+        <v>14</v>
+      </c>
+      <c r="T20" s="33" t="n">
+        <f aca="false">SUM($V20:$AR20)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="V20" s="25"/>
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
@@ -2919,59 +2946,48 @@
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19" t="str">
+        <f aca="false">IF(AND($D21&lt;&gt;"",$F21=""),"E"&amp;ROW(),$B16)</f>
+        <v>E5</v>
+      </c>
       <c r="C21" s="27" t="n">
         <f aca="false">IF(AND($D21&lt;&gt;"",$D21&lt;&gt;"○"),MAX($C$3:$C20)+1,$C20)</f>
         <v>1</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="30" t="s">
+      <c r="E21" s="29" t="n">
+        <f aca="true">IF(AND($F21&lt;&gt;"",$D16&lt;&gt;""),1,IF($F21&lt;&gt;"",MAX(INDIRECT($B21):$E16)+1,""))</f>
+        <v>4</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>41</v>
       </c>
+      <c r="G21" s="30" t="str">
+        <f aca="false">IF($H21="","",IF($G16="",1,$G16+1))</f>
+        <v/>
+      </c>
+      <c r="H21" s="30"/>
       <c r="I21" s="30"/>
-      <c r="J21" s="30" t="s">
-        <v>42</v>
-      </c>
+      <c r="J21" s="30"/>
       <c r="K21" s="30"/>
-      <c r="L21" s="31" t="n">
-        <v>44995</v>
-      </c>
-      <c r="M21" s="31" t="n">
-        <v>44998</v>
-      </c>
-      <c r="N21" s="31" t="n">
-        <v>44995</v>
-      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
       <c r="O21" s="31"/>
-      <c r="P21" s="30" t="n">
+      <c r="P21" s="30" t="str">
         <f aca="false">IF($L21&lt;&gt;"",NETWORKDAYS($L21,$M21,休日!$B$4:$B$306),"")</f>
-        <v>2</v>
-      </c>
-      <c r="Q21" s="30" t="n">
-        <v>50</v>
-      </c>
+        <v/>
+      </c>
+      <c r="Q21" s="30"/>
       <c r="R21" s="32" t="str">
         <f aca="false">IF(OR(AND($N21="",$L21&lt;&gt;"",$L21&lt;=$U$1),AND($M21&lt;&gt;"",Q21&lt;100,$M21&lt;=$U$1)),"遅延","")</f>
-        <v>遅延</v>
-      </c>
-      <c r="S21" s="33" t="n">
-        <f aca="false">7*P21</f>
-        <v>14</v>
-      </c>
-      <c r="T21" s="33" t="n">
-        <f aca="false">SUM($V21:$AR21)</f>
-        <v>7</v>
-      </c>
+        <v/>
+      </c>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
       <c r="U21" s="34"/>
       <c r="V21" s="25"/>
-      <c r="W21" s="26" t="n">
-        <v>7</v>
-      </c>
+      <c r="W21" s="26"/>
       <c r="X21" s="26"/>
       <c r="Y21" s="26"/>
       <c r="Z21" s="26"/>
@@ -3005,32 +3021,34 @@
       <c r="E22" s="29"/>
       <c r="F22" s="30"/>
       <c r="G22" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="30"/>
       <c r="J22" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="31" t="n">
+        <v>44995</v>
+      </c>
+      <c r="M22" s="31" t="n">
+        <v>44998</v>
+      </c>
+      <c r="N22" s="31" t="n">
+        <v>44995</v>
+      </c>
+      <c r="O22" s="31" t="n">
         <v>44999</v>
       </c>
-      <c r="M22" s="31" t="n">
-        <v>45000</v>
-      </c>
-      <c r="N22" s="31" t="n">
-        <v>44998</v>
-      </c>
-      <c r="O22" s="31"/>
       <c r="P22" s="30" t="n">
         <f aca="false">IF($L22&lt;&gt;"",NETWORKDAYS($L22,$M22,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
       <c r="Q22" s="30" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R22" s="32" t="str">
         <f aca="false">IF(OR(AND($N22="",$L22&lt;&gt;"",$L22&lt;=$U$1),AND($M22&lt;&gt;"",Q22&lt;100,$M22&lt;=$U$1)),"遅延","")</f>
@@ -3042,17 +3060,19 @@
       </c>
       <c r="T22" s="33" t="n">
         <f aca="false">SUM($V22:$AR22)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U22" s="34"/>
       <c r="V22" s="25"/>
-      <c r="W22" s="26"/>
+      <c r="W22" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
-      <c r="Z22" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="AB22" s="26"/>
       <c r="AC22" s="26"/>
       <c r="AD22" s="26"/>
@@ -3082,32 +3102,34 @@
       <c r="E23" s="29"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="30" t="s">
         <v>44</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="31" t="n">
-        <v>45001</v>
+        <v>44999</v>
       </c>
       <c r="M23" s="31" t="n">
-        <v>45002</v>
+        <v>45000</v>
       </c>
       <c r="N23" s="31" t="n">
         <v>44998</v>
       </c>
-      <c r="O23" s="31"/>
+      <c r="O23" s="31" t="n">
+        <v>44999</v>
+      </c>
       <c r="P23" s="30" t="n">
         <f aca="false">IF($L23&lt;&gt;"",NETWORKDAYS($L23,$M23,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
       <c r="Q23" s="30" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="R23" s="32" t="str">
         <f aca="false">IF(OR(AND($N23="",$L23&lt;&gt;"",$L23&lt;=$U$1),AND($M23&lt;&gt;"",Q23&lt;100,$M23&lt;=$U$1)),"遅延","")</f>
@@ -3127,9 +3149,11 @@
       <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
       <c r="Z23" s="26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA23" s="26"/>
+        <v>3</v>
+      </c>
+      <c r="AA23" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="AB23" s="26"/>
       <c r="AC23" s="26"/>
       <c r="AD23" s="26"/>
@@ -3150,52 +3174,65 @@
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18"/>
-      <c r="B24" s="19" t="str">
-        <f aca="false">IF(AND($D24&lt;&gt;"",$F24=""),"E"&amp;ROW(),$B20)</f>
-        <v>E5</v>
-      </c>
+      <c r="B24" s="19"/>
       <c r="C24" s="27" t="n">
         <f aca="false">IF(AND($D24&lt;&gt;"",$D24&lt;&gt;"○"),MAX($C$3:$C23)+1,$C23)</f>
         <v>1</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="29" t="n">
-        <f aca="true">IF(AND($F24&lt;&gt;"",$D20&lt;&gt;""),1,IF($F24&lt;&gt;"",MAX(INDIRECT($B24):$E20)+1,""))</f>
-        <v>5</v>
-      </c>
-      <c r="F24" s="30" t="s">
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="30" t="str">
-        <f aca="false">IF($H24="","",IF($G20="",1,$G20+1))</f>
-        <v/>
-      </c>
-      <c r="H24" s="30"/>
       <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+      <c r="J24" s="30" t="s">
+        <v>43</v>
+      </c>
       <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
+      <c r="L24" s="31" t="n">
+        <v>45001</v>
+      </c>
+      <c r="M24" s="31" t="n">
+        <v>45002</v>
+      </c>
+      <c r="N24" s="31" t="n">
+        <v>44998</v>
+      </c>
       <c r="O24" s="31"/>
-      <c r="P24" s="30" t="str">
+      <c r="P24" s="30" t="n">
         <f aca="false">IF($L24&lt;&gt;"",NETWORKDAYS($L24,$M24,休日!$B$4:$B$306),"")</f>
-        <v/>
-      </c>
-      <c r="Q24" s="30"/>
+        <v>2</v>
+      </c>
+      <c r="Q24" s="30" t="n">
+        <v>25</v>
+      </c>
       <c r="R24" s="32" t="str">
         <f aca="false">IF(OR(AND($N24="",$L24&lt;&gt;"",$L24&lt;=$U$1),AND($M24&lt;&gt;"",Q24&lt;100,$M24&lt;=$U$1)),"遅延","")</f>
         <v/>
       </c>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
+      <c r="S24" s="33" t="n">
+        <f aca="false">7*P24</f>
+        <v>14</v>
+      </c>
+      <c r="T24" s="33" t="n">
+        <f aca="false">SUM($V24:$AR24)</f>
+        <v>9</v>
+      </c>
       <c r="U24" s="34"/>
       <c r="V24" s="25"/>
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
+      <c r="Z24" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="26" t="n">
+        <v>5</v>
+      </c>
       <c r="AB24" s="26"/>
       <c r="AC24" s="26"/>
       <c r="AD24" s="26"/>
@@ -3216,66 +3253,51 @@
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19" t="str">
+        <f aca="false">IF(AND($D25&lt;&gt;"",$F25=""),"E"&amp;ROW(),$B21)</f>
+        <v>E5</v>
+      </c>
       <c r="C25" s="27" t="n">
         <f aca="false">IF(AND($D25&lt;&gt;"",$D25&lt;&gt;"○"),MAX($C$3:$C24)+1,$C24)</f>
         <v>1</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="30" t="s">
+      <c r="E25" s="29" t="n">
+        <f aca="true">IF(AND($F25&lt;&gt;"",$D21&lt;&gt;""),1,IF($F25&lt;&gt;"",MAX(INDIRECT($B25):$E21)+1,""))</f>
+        <v>5</v>
+      </c>
+      <c r="F25" s="30" t="s">
         <v>46</v>
       </c>
+      <c r="G25" s="30" t="str">
+        <f aca="false">IF($H25="","",IF($G21="",1,$G21+1))</f>
+        <v/>
+      </c>
+      <c r="H25" s="30"/>
       <c r="I25" s="30"/>
-      <c r="J25" s="30" t="s">
-        <v>47</v>
-      </c>
+      <c r="J25" s="30"/>
       <c r="K25" s="30"/>
-      <c r="L25" s="31" t="n">
-        <v>44995</v>
-      </c>
-      <c r="M25" s="31" t="n">
-        <v>44998</v>
-      </c>
-      <c r="N25" s="31" t="n">
-        <v>44995</v>
-      </c>
-      <c r="O25" s="31" t="n">
-        <v>44998</v>
-      </c>
-      <c r="P25" s="30" t="n">
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="30" t="str">
         <f aca="false">IF($L25&lt;&gt;"",NETWORKDAYS($L25,$M25,休日!$B$4:$B$306),"")</f>
-        <v>2</v>
-      </c>
-      <c r="Q25" s="30" t="n">
-        <v>100</v>
-      </c>
+        <v/>
+      </c>
+      <c r="Q25" s="30"/>
       <c r="R25" s="32" t="str">
         <f aca="false">IF(OR(AND($N25="",$L25&lt;&gt;"",$L25&lt;=$U$1),AND($M25&lt;&gt;"",Q25&lt;100,$M25&lt;=$U$1)),"遅延","")</f>
         <v/>
       </c>
-      <c r="S25" s="33" t="n">
-        <f aca="false">7*P25</f>
-        <v>14</v>
-      </c>
-      <c r="T25" s="33" t="n">
-        <f aca="false">SUM($V25:$AR25)</f>
-        <v>8</v>
-      </c>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
       <c r="U25" s="34"/>
       <c r="V25" s="25"/>
-      <c r="W25" s="26" t="n">
-        <v>7</v>
-      </c>
+      <c r="W25" s="26"/>
       <c r="X25" s="26"/>
       <c r="Y25" s="26"/>
-      <c r="Z25" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z25" s="26"/>
       <c r="AA25" s="26"/>
       <c r="AB25" s="26"/>
       <c r="AC25" s="26"/>
@@ -3306,27 +3328,27 @@
       <c r="E26" s="29"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26" s="30"/>
       <c r="L26" s="31" t="n">
+        <v>44995</v>
+      </c>
+      <c r="M26" s="31" t="n">
+        <v>44998</v>
+      </c>
+      <c r="N26" s="31" t="n">
+        <v>44995</v>
+      </c>
+      <c r="O26" s="31" t="n">
         <v>44999</v>
-      </c>
-      <c r="M26" s="31" t="n">
-        <v>45000</v>
-      </c>
-      <c r="N26" s="31" t="n">
-        <v>44998</v>
-      </c>
-      <c r="O26" s="31" t="n">
-        <v>44998</v>
       </c>
       <c r="P26" s="30" t="n">
         <f aca="false">IF($L26&lt;&gt;"",NETWORKDAYS($L26,$M26,休日!$B$4:$B$306),"")</f>
@@ -3345,17 +3367,21 @@
       </c>
       <c r="T26" s="33" t="n">
         <f aca="false">SUM($V26:$AR26)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U26" s="34"/>
       <c r="V26" s="25"/>
-      <c r="W26" s="26"/>
+      <c r="W26" s="26" t="n">
+        <v>7</v>
+      </c>
       <c r="X26" s="26"/>
       <c r="Y26" s="26"/>
       <c r="Z26" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA26" s="26"/>
+        <v>1</v>
+      </c>
+      <c r="AA26" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="AB26" s="26"/>
       <c r="AC26" s="26"/>
       <c r="AD26" s="26"/>
@@ -3385,27 +3411,27 @@
       <c r="E27" s="29"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="30" t="s">
         <v>49</v>
       </c>
       <c r="I27" s="30"/>
       <c r="J27" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="31" t="n">
+        <v>44999</v>
+      </c>
+      <c r="M27" s="31" t="n">
         <v>45000</v>
-      </c>
-      <c r="M27" s="31" t="n">
-        <v>45001</v>
       </c>
       <c r="N27" s="31" t="n">
         <v>44998</v>
       </c>
       <c r="O27" s="31" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="P27" s="30" t="n">
         <f aca="false">IF($L27&lt;&gt;"",NETWORKDAYS($L27,$M27,休日!$B$4:$B$306),"")</f>
@@ -3432,9 +3458,11 @@
       <c r="X27" s="26"/>
       <c r="Y27" s="26"/>
       <c r="Z27" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA27" s="26"/>
+        <v>2</v>
+      </c>
+      <c r="AA27" s="26" t="n">
+        <v>1</v>
+      </c>
       <c r="AB27" s="26"/>
       <c r="AC27" s="26"/>
       <c r="AD27" s="26"/>
@@ -3464,41 +3492,46 @@
       <c r="E28" s="29"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H28" s="30" t="s">
         <v>50</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" s="30"/>
       <c r="L28" s="31" t="n">
+        <v>45000</v>
+      </c>
+      <c r="M28" s="31" t="n">
         <v>45001</v>
-      </c>
-      <c r="M28" s="31" t="n">
-        <v>45002</v>
       </c>
       <c r="N28" s="31" t="n">
         <v>44998</v>
       </c>
-      <c r="O28" s="31"/>
+      <c r="O28" s="31" t="n">
+        <v>44999</v>
+      </c>
       <c r="P28" s="30" t="n">
         <f aca="false">IF($L28&lt;&gt;"",NETWORKDAYS($L28,$M28,休日!$B$4:$B$306),"")</f>
         <v>2</v>
       </c>
       <c r="Q28" s="30" t="n">
-        <v>80</v>
-      </c>
-      <c r="R28" s="32"/>
+        <v>100</v>
+      </c>
+      <c r="R28" s="32" t="str">
+        <f aca="false">IF(OR(AND($N28="",$L28&lt;&gt;"",$L28&lt;=$U$1),AND($M28&lt;&gt;"",Q28&lt;100,$M28&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
       <c r="S28" s="33" t="n">
         <f aca="false">7*P28</f>
         <v>14</v>
       </c>
       <c r="T28" s="33" t="n">
         <f aca="false">SUM($V28:$AR28)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U28" s="34"/>
       <c r="V28" s="25"/>
@@ -3506,9 +3539,11 @@
       <c r="X28" s="26"/>
       <c r="Y28" s="26"/>
       <c r="Z28" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA28" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="AA28" s="26"/>
       <c r="AB28" s="26"/>
       <c r="AC28" s="26"/>
       <c r="AD28" s="26"/>
@@ -3529,10 +3564,7 @@
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="18"/>
-      <c r="B29" s="19" t="str">
-        <f aca="false">IF(AND($D29&lt;&gt;"",$F29=""),"E"&amp;ROW(),$B24)</f>
-        <v>E5</v>
-      </c>
+      <c r="B29" s="19"/>
       <c r="C29" s="27" t="n">
         <f aca="false">IF(AND($D29&lt;&gt;"",$D29&lt;&gt;"○"),MAX($C$3:$C28)+1,$C28)</f>
         <v>1</v>
@@ -3540,36 +3572,54 @@
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="30" t="str">
-        <f aca="false">IF($H29="","",IF($G24="",1,$G24+1))</f>
-        <v/>
-      </c>
-      <c r="H29" s="30"/>
+      <c r="G29" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
+      <c r="J29" s="30" t="s">
+        <v>48</v>
+      </c>
       <c r="K29" s="30"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
+      <c r="L29" s="31" t="n">
+        <v>45001</v>
+      </c>
+      <c r="M29" s="31" t="n">
+        <v>45002</v>
+      </c>
+      <c r="N29" s="31" t="n">
+        <v>44998</v>
+      </c>
       <c r="O29" s="31"/>
-      <c r="P29" s="30" t="str">
+      <c r="P29" s="30" t="n">
         <f aca="false">IF($L29&lt;&gt;"",NETWORKDAYS($L29,$M29,休日!$B$4:$B$306),"")</f>
-        <v/>
-      </c>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="32" t="str">
-        <f aca="false">IF(OR(AND($N29="",$L29&lt;&gt;"",$L29&lt;=$U$1),AND($M29&lt;&gt;"",Q29&lt;100,$M29&lt;=$U$1)),"遅延","")</f>
-        <v/>
-      </c>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="Q29" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="R29" s="32"/>
+      <c r="S29" s="33" t="n">
+        <f aca="false">7*P29</f>
+        <v>14</v>
+      </c>
+      <c r="T29" s="33" t="n">
+        <f aca="false">SUM($V29:$AR29)</f>
+        <v>5</v>
+      </c>
       <c r="U29" s="34"/>
       <c r="V29" s="25"/>
       <c r="W29" s="26"/>
       <c r="X29" s="26"/>
       <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
+      <c r="Z29" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="26" t="n">
+        <v>4</v>
+      </c>
       <c r="AB29" s="26"/>
       <c r="AC29" s="26"/>
       <c r="AD29" s="26"/>
@@ -3591,45 +3641,40 @@
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="18"/>
       <c r="B30" s="19" t="str">
-        <f aca="false">IF(AND($D30&lt;&gt;"",$F30=""),"E"&amp;ROW(),$B29)</f>
-        <v>E30</v>
-      </c>
-      <c r="C30" s="20" t="n">
+        <f aca="false">IF(AND($D30&lt;&gt;"",$F30=""),"E"&amp;ROW(),$B25)</f>
+        <v>E5</v>
+      </c>
+      <c r="C30" s="27" t="n">
         <f aca="false">IF(AND($D30&lt;&gt;"",$D30&lt;&gt;"○"),MAX($C$3:$C29)+1,$C29)</f>
-        <v>2</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="37" t="str">
-        <f aca="true">IF(AND($F30&lt;&gt;"",$D29&lt;&gt;""),1,IF($F30&lt;&gt;"",MAX(INDIRECT($B30):$E29)+1,""))</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30" t="str">
+        <f aca="false">IF($H30="","",IF($G25="",1,$G25+1))</f>
         <v/>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22" t="str">
-        <f aca="false">IF($H30="","",IF($G29="",1,$G29+1))</f>
-        <v/>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="21" t="str">
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="30" t="str">
         <f aca="false">IF($L30&lt;&gt;"",NETWORKDAYS($L30,$M30,休日!$B$4:$B$306),"")</f>
         <v/>
       </c>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21" t="str">
+      <c r="Q30" s="30"/>
+      <c r="R30" s="32" t="str">
         <f aca="false">IF(OR(AND($N30="",$L30&lt;&gt;"",$L30&lt;=$U$1),AND($M30&lt;&gt;"",Q30&lt;100,$M30&lt;=$U$1)),"遅延","")</f>
         <v/>
       </c>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="24"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="34"/>
       <c r="V30" s="25"/>
       <c r="W30" s="26"/>
       <c r="X30" s="26"/>
@@ -3658,44 +3703,44 @@
       <c r="A31" s="18"/>
       <c r="B31" s="19" t="str">
         <f aca="false">IF(AND($D31&lt;&gt;"",$F31=""),"E"&amp;ROW(),$B30)</f>
-        <v>E30</v>
-      </c>
-      <c r="C31" s="27" t="n">
+        <v>E31</v>
+      </c>
+      <c r="C31" s="20" t="n">
         <f aca="false">IF(AND($D31&lt;&gt;"",$D31&lt;&gt;"○"),MAX($C$3:$C30)+1,$C30)</f>
         <v>2</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29" t="n">
+      <c r="D31" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="37" t="str">
         <f aca="true">IF(AND($F31&lt;&gt;"",$D30&lt;&gt;""),1,IF($F31&lt;&gt;"",MAX(INDIRECT($B31):$E30)+1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="30" t="str">
+        <v/>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22" t="str">
         <f aca="false">IF($H31="","",IF($G30="",1,$G30+1))</f>
         <v/>
       </c>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="30" t="str">
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="21" t="str">
         <f aca="false">IF($L31&lt;&gt;"",NETWORKDAYS($L31,$M31,休日!$B$4:$B$306),"")</f>
         <v/>
       </c>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="32" t="str">
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21" t="str">
         <f aca="false">IF(OR(AND($N31="",$L31&lt;&gt;"",$L31&lt;=$U$1),AND($M31&lt;&gt;"",Q31&lt;100,$M31&lt;=$U$1)),"遅延","")</f>
         <v/>
       </c>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="34"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="24"/>
       <c r="V31" s="25"/>
       <c r="W31" s="26"/>
       <c r="X31" s="26"/>
@@ -3722,43 +3767,44 @@
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
+      <c r="B32" s="19" t="str">
+        <f aca="false">IF(AND($D32&lt;&gt;"",$F32=""),"E"&amp;ROW(),$B31)</f>
+        <v>E31</v>
+      </c>
       <c r="C32" s="27" t="n">
         <f aca="false">IF(AND($D32&lt;&gt;"",$D32&lt;&gt;"○"),MAX($C$3:$C31)+1,$C31)</f>
         <v>2</v>
       </c>
       <c r="D32" s="28"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30" t="n">
+      <c r="E32" s="29" t="n">
+        <f aca="true">IF(AND($F32&lt;&gt;"",$D31&lt;&gt;""),1,IF($F32&lt;&gt;"",MAX(INDIRECT($B32):$E31)+1,""))</f>
         <v>1</v>
       </c>
-      <c r="H32" s="30" t="s">
-        <v>52</v>
-      </c>
+      <c r="F32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="30" t="str">
+        <f aca="false">IF($H32="","",IF($G31="",1,$G31+1))</f>
+        <v/>
+      </c>
+      <c r="H32" s="30"/>
       <c r="I32" s="30"/>
-      <c r="J32" s="30" t="s">
-        <v>23</v>
-      </c>
+      <c r="J32" s="30"/>
       <c r="K32" s="30"/>
-      <c r="L32" s="31" t="n">
-        <v>45005</v>
-      </c>
-      <c r="M32" s="31" t="n">
-        <v>45007</v>
-      </c>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
       <c r="N32" s="31"/>
       <c r="O32" s="31"/>
-      <c r="P32" s="30" t="n">
+      <c r="P32" s="30" t="str">
         <f aca="false">IF($L32&lt;&gt;"",NETWORKDAYS($L32,$M32,休日!$B$4:$B$306),"")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="Q32" s="30"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="33" t="n">
-        <f aca="false">7*P32</f>
-        <v>14</v>
-      </c>
+      <c r="R32" s="32" t="str">
+        <f aca="false">IF(OR(AND($N32="",$L32&lt;&gt;"",$L32&lt;=$U$1),AND($M32&lt;&gt;"",Q32&lt;100,$M32&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
+      <c r="S32" s="33"/>
       <c r="T32" s="33"/>
       <c r="U32" s="34"/>
       <c r="V32" s="25"/>
@@ -3796,33 +3842,33 @@
       <c r="E33" s="29"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="30" t="s">
         <v>53</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K33" s="30"/>
       <c r="L33" s="31" t="n">
-        <v>45008</v>
+        <v>45005</v>
       </c>
       <c r="M33" s="31" t="n">
-        <v>45008</v>
+        <v>45007</v>
       </c>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
       <c r="P33" s="30" t="n">
         <f aca="false">IF($L33&lt;&gt;"",NETWORKDAYS($L33,$M33,休日!$B$4:$B$306),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="30"/>
       <c r="R33" s="32"/>
       <c r="S33" s="33" t="n">
         <f aca="false">7*P33</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T33" s="33"/>
       <c r="U33" s="34"/>
@@ -3861,14 +3907,14 @@
       <c r="E34" s="29"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H34" s="30" t="s">
         <v>54</v>
       </c>
       <c r="I34" s="30"/>
       <c r="J34" s="30" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K34" s="30"/>
       <c r="L34" s="31" t="n">
@@ -3926,21 +3972,21 @@
       <c r="E35" s="29"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="30" t="s">
         <v>55</v>
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K35" s="30"/>
       <c r="L35" s="31" t="n">
-        <v>45009</v>
+        <v>45008</v>
       </c>
       <c r="M35" s="31" t="n">
-        <v>45009</v>
+        <v>45008</v>
       </c>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
@@ -3991,18 +4037,18 @@
       <c r="E36" s="29"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H36" s="30" t="s">
         <v>56</v>
       </c>
       <c r="I36" s="30"/>
       <c r="J36" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K36" s="30"/>
       <c r="L36" s="31" t="n">
-        <v>45005</v>
+        <v>45009</v>
       </c>
       <c r="M36" s="31" t="n">
         <v>45009</v>
@@ -4011,13 +4057,13 @@
       <c r="O36" s="31"/>
       <c r="P36" s="30" t="n">
         <f aca="false">IF($L36&lt;&gt;"",NETWORKDAYS($L36,$M36,休日!$B$4:$B$306),"")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="30"/>
       <c r="R36" s="32"/>
       <c r="S36" s="33" t="n">
         <f aca="false">7*P36</f>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="T36" s="33"/>
       <c r="U36" s="34"/>
@@ -4047,48 +4093,44 @@
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="18"/>
-      <c r="B37" s="19" t="str">
-        <f aca="false">IF(AND($D37&lt;&gt;"",$F37=""),"E"&amp;ROW(),$B31)</f>
-        <v>E30</v>
-      </c>
+      <c r="B37" s="19"/>
       <c r="C37" s="27" t="n">
         <f aca="false">IF(AND($D37&lt;&gt;"",$D37&lt;&gt;"○"),MAX($C$3:$C36)+1,$C36)</f>
         <v>2</v>
       </c>
       <c r="D37" s="28"/>
-      <c r="E37" s="29" t="n">
-        <f aca="true">IF(AND($F37&lt;&gt;"",$D31&lt;&gt;""),1,IF($F37&lt;&gt;"",MAX(INDIRECT($B37):$E31)+1,""))</f>
-        <v>2</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="30" t="str">
-        <f aca="false">IF($H37="","",IF($G31="",1,$G31+1))</f>
-        <v/>
-      </c>
-      <c r="H37" s="30"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>57</v>
+      </c>
       <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
+      <c r="J37" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="K37" s="30"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
+      <c r="L37" s="31" t="n">
+        <v>45005</v>
+      </c>
+      <c r="M37" s="31" t="n">
+        <v>45009</v>
+      </c>
       <c r="N37" s="31"/>
       <c r="O37" s="31"/>
-      <c r="P37" s="30" t="str">
+      <c r="P37" s="30" t="n">
         <f aca="false">IF($L37&lt;&gt;"",NETWORKDAYS($L37,$M37,休日!$B$4:$B$306),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Q37" s="30"/>
-      <c r="R37" s="32" t="str">
-        <f aca="false">IF(OR(AND($N37="",$L37&lt;&gt;"",$L37&lt;=$U$1),AND($M37&lt;&gt;"",Q37&lt;100,$M37&lt;=$U$1)),"遅延","")</f>
-        <v/>
-      </c>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33" t="n">
-        <f aca="false">SUM($V37:$AR37)</f>
-        <v>0</v>
-      </c>
+      <c r="R37" s="32"/>
+      <c r="S37" s="33" t="n">
+        <f aca="false">7*P37</f>
+        <v>28</v>
+      </c>
+      <c r="T37" s="33"/>
       <c r="U37" s="34"/>
       <c r="V37" s="25"/>
       <c r="W37" s="26"/>
@@ -4116,44 +4158,48 @@
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
+      <c r="B38" s="19" t="str">
+        <f aca="false">IF(AND($D38&lt;&gt;"",$F38=""),"E"&amp;ROW(),$B32)</f>
+        <v>E31</v>
+      </c>
       <c r="C38" s="27" t="n">
         <f aca="false">IF(AND($D38&lt;&gt;"",$D38&lt;&gt;"○"),MAX($C$3:$C37)+1,$C37)</f>
         <v>2</v>
       </c>
       <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>52</v>
-      </c>
+      <c r="E38" s="29" t="n">
+        <f aca="true">IF(AND($F38&lt;&gt;"",$D32&lt;&gt;""),1,IF($F38&lt;&gt;"",MAX(INDIRECT($B38):$E32)+1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="30" t="str">
+        <f aca="false">IF($H38="","",IF($G32="",1,$G32+1))</f>
+        <v/>
+      </c>
+      <c r="H38" s="30"/>
       <c r="I38" s="30"/>
-      <c r="J38" s="30" t="s">
-        <v>27</v>
-      </c>
+      <c r="J38" s="30"/>
       <c r="K38" s="30"/>
-      <c r="L38" s="31" t="n">
-        <v>45005</v>
-      </c>
-      <c r="M38" s="31" t="n">
-        <v>45007</v>
-      </c>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
       <c r="N38" s="31"/>
       <c r="O38" s="31"/>
-      <c r="P38" s="30" t="n">
+      <c r="P38" s="30" t="str">
         <f aca="false">IF($L38&lt;&gt;"",NETWORKDAYS($L38,$M38,休日!$B$4:$B$306),"")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="Q38" s="30"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="33" t="n">
-        <f aca="false">7*P38</f>
-        <v>14</v>
-      </c>
-      <c r="T38" s="33"/>
+      <c r="R38" s="32" t="str">
+        <f aca="false">IF(OR(AND($N38="",$L38&lt;&gt;"",$L38&lt;=$U$1),AND($M38&lt;&gt;"",Q38&lt;100,$M38&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33" t="n">
+        <f aca="false">SUM($V38:$AR38)</f>
+        <v>0</v>
+      </c>
       <c r="U38" s="34"/>
       <c r="V38" s="25"/>
       <c r="W38" s="26"/>
@@ -4190,33 +4236,33 @@
       <c r="E39" s="29"/>
       <c r="F39" s="30"/>
       <c r="G39" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="30" t="s">
         <v>53</v>
       </c>
       <c r="I39" s="30"/>
       <c r="J39" s="30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K39" s="30"/>
       <c r="L39" s="31" t="n">
-        <v>45008</v>
+        <v>45005</v>
       </c>
       <c r="M39" s="31" t="n">
-        <v>45008</v>
+        <v>45007</v>
       </c>
       <c r="N39" s="31"/>
       <c r="O39" s="31"/>
       <c r="P39" s="30" t="n">
         <f aca="false">IF($L39&lt;&gt;"",NETWORKDAYS($L39,$M39,休日!$B$4:$B$306),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="30"/>
       <c r="R39" s="32"/>
       <c r="S39" s="33" t="n">
         <f aca="false">7*P39</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T39" s="33"/>
       <c r="U39" s="34"/>
@@ -4255,14 +4301,14 @@
       <c r="E40" s="29"/>
       <c r="F40" s="30"/>
       <c r="G40" s="30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" s="30" t="s">
         <v>54</v>
       </c>
       <c r="I40" s="30"/>
       <c r="J40" s="30" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K40" s="30"/>
       <c r="L40" s="31" t="n">
@@ -4320,21 +4366,21 @@
       <c r="E41" s="29"/>
       <c r="F41" s="30"/>
       <c r="G41" s="30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" s="30" t="s">
         <v>55</v>
       </c>
       <c r="I41" s="30"/>
       <c r="J41" s="30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K41" s="30"/>
       <c r="L41" s="31" t="n">
-        <v>45009</v>
+        <v>45008</v>
       </c>
       <c r="M41" s="31" t="n">
-        <v>45009</v>
+        <v>45008</v>
       </c>
       <c r="N41" s="31"/>
       <c r="O41" s="31"/>
@@ -4385,18 +4431,18 @@
       <c r="E42" s="29"/>
       <c r="F42" s="30"/>
       <c r="G42" s="30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H42" s="30" t="s">
         <v>56</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K42" s="30"/>
       <c r="L42" s="31" t="n">
-        <v>45005</v>
+        <v>45009</v>
       </c>
       <c r="M42" s="31" t="n">
         <v>45009</v>
@@ -4405,13 +4451,13 @@
       <c r="O42" s="31"/>
       <c r="P42" s="30" t="n">
         <f aca="false">IF($L42&lt;&gt;"",NETWORKDAYS($L42,$M42,休日!$B$4:$B$306),"")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q42" s="30"/>
       <c r="R42" s="32"/>
       <c r="S42" s="33" t="n">
         <f aca="false">7*P42</f>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="T42" s="33"/>
       <c r="U42" s="34"/>
@@ -4441,48 +4487,44 @@
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="18"/>
-      <c r="B43" s="19" t="str">
-        <f aca="false">IF(AND($D43&lt;&gt;"",$F43=""),"E"&amp;ROW(),$B37)</f>
-        <v>E30</v>
-      </c>
+      <c r="B43" s="19"/>
       <c r="C43" s="27" t="n">
         <f aca="false">IF(AND($D43&lt;&gt;"",$D43&lt;&gt;"○"),MAX($C$3:$C42)+1,$C42)</f>
         <v>2</v>
       </c>
       <c r="D43" s="28"/>
-      <c r="E43" s="29" t="n">
-        <f aca="true">IF(AND($F43&lt;&gt;"",$D37&lt;&gt;""),1,IF($F43&lt;&gt;"",MAX(INDIRECT($B43):$E37)+1,""))</f>
-        <v>3</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="30" t="str">
-        <f aca="false">IF($H43="","",IF($G37="",1,$G37+1))</f>
-        <v/>
-      </c>
-      <c r="H43" s="30"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>57</v>
+      </c>
       <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
+      <c r="J43" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="K43" s="30"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
+      <c r="L43" s="31" t="n">
+        <v>45005</v>
+      </c>
+      <c r="M43" s="31" t="n">
+        <v>45009</v>
+      </c>
       <c r="N43" s="31"/>
       <c r="O43" s="31"/>
-      <c r="P43" s="30" t="str">
+      <c r="P43" s="30" t="n">
         <f aca="false">IF($L43&lt;&gt;"",NETWORKDAYS($L43,$M43,休日!$B$4:$B$306),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Q43" s="30"/>
-      <c r="R43" s="32" t="str">
-        <f aca="false">IF(OR(AND($N43="",$L43&lt;&gt;"",$L43&lt;=$U$1),AND($M43&lt;&gt;"",Q43&lt;100,$M43&lt;=$U$1)),"遅延","")</f>
-        <v/>
-      </c>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33" t="n">
-        <f aca="false">SUM($V43:$AR43)</f>
-        <v>0</v>
-      </c>
+      <c r="R43" s="32"/>
+      <c r="S43" s="33" t="n">
+        <f aca="false">7*P43</f>
+        <v>28</v>
+      </c>
+      <c r="T43" s="33"/>
       <c r="U43" s="34"/>
       <c r="V43" s="25"/>
       <c r="W43" s="26"/>
@@ -4511,51 +4553,43 @@
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="18"/>
       <c r="B44" s="19" t="str">
-        <f aca="false">IF(AND($D44&lt;&gt;"",$F44=""),"E"&amp;ROW(),$B43)</f>
-        <v>E30</v>
+        <f aca="false">IF(AND($D44&lt;&gt;"",$F44=""),"E"&amp;ROW(),$B38)</f>
+        <v>E31</v>
       </c>
       <c r="C44" s="27" t="n">
         <f aca="false">IF(AND($D44&lt;&gt;"",$D44&lt;&gt;"○"),MAX($C$3:$C43)+1,$C43)</f>
         <v>2</v>
       </c>
       <c r="D44" s="28"/>
-      <c r="E44" s="29" t="str">
-        <f aca="true">IF(AND($F44&lt;&gt;"",$D43&lt;&gt;""),1,IF($F44&lt;&gt;"",MAX(INDIRECT($B44):$E43)+1,""))</f>
+      <c r="E44" s="29" t="n">
+        <f aca="true">IF(AND($F44&lt;&gt;"",$D38&lt;&gt;""),1,IF($F44&lt;&gt;"",MAX(INDIRECT($B44):$E38)+1,""))</f>
+        <v>3</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="30" t="str">
+        <f aca="false">IF($H44="","",IF($G38="",1,$G38+1))</f>
         <v/>
       </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>52</v>
-      </c>
+      <c r="H44" s="30"/>
       <c r="I44" s="30"/>
-      <c r="J44" s="30" t="s">
-        <v>35</v>
-      </c>
+      <c r="J44" s="30"/>
       <c r="K44" s="30"/>
-      <c r="L44" s="31" t="n">
-        <v>45005</v>
-      </c>
-      <c r="M44" s="31" t="n">
-        <v>45007</v>
-      </c>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
       <c r="N44" s="31"/>
       <c r="O44" s="31"/>
-      <c r="P44" s="30" t="n">
+      <c r="P44" s="30" t="str">
         <f aca="false">IF($L44&lt;&gt;"",NETWORKDAYS($L44,$M44,休日!$B$4:$B$306),"")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="Q44" s="30"/>
       <c r="R44" s="32" t="str">
         <f aca="false">IF(OR(AND($N44="",$L44&lt;&gt;"",$L44&lt;=$U$1),AND($M44&lt;&gt;"",Q44&lt;100,$M44&lt;=$U$1)),"遅延","")</f>
         <v/>
       </c>
-      <c r="S44" s="33" t="n">
-        <f aca="false">7*P44</f>
-        <v>14</v>
-      </c>
+      <c r="S44" s="33"/>
       <c r="T44" s="33" t="n">
         <f aca="false">SUM($V44:$AR44)</f>
         <v>0</v>
@@ -4589,7 +4623,7 @@
       <c r="A45" s="18"/>
       <c r="B45" s="19" t="str">
         <f aca="false">IF(AND($D45&lt;&gt;"",$F45=""),"E"&amp;ROW(),$B44)</f>
-        <v>E30</v>
+        <v>E31</v>
       </c>
       <c r="C45" s="27" t="n">
         <f aca="false">IF(AND($D45&lt;&gt;"",$D45&lt;&gt;"○"),MAX($C$3:$C44)+1,$C44)</f>
@@ -4602,27 +4636,27 @@
       </c>
       <c r="F45" s="30"/>
       <c r="G45" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="30" t="s">
         <v>53</v>
       </c>
       <c r="I45" s="30"/>
       <c r="J45" s="30" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K45" s="30"/>
       <c r="L45" s="31" t="n">
-        <v>45008</v>
+        <v>45005</v>
       </c>
       <c r="M45" s="31" t="n">
-        <v>45008</v>
+        <v>45007</v>
       </c>
       <c r="N45" s="31"/>
       <c r="O45" s="31"/>
       <c r="P45" s="30" t="n">
         <f aca="false">IF($L45&lt;&gt;"",NETWORKDAYS($L45,$M45,休日!$B$4:$B$306),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q45" s="30"/>
       <c r="R45" s="32" t="str">
@@ -4631,7 +4665,7 @@
       </c>
       <c r="S45" s="33" t="n">
         <f aca="false">7*P45</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T45" s="33" t="n">
         <f aca="false">SUM($V45:$AR45)</f>
@@ -4664,23 +4698,29 @@
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="18"/>
-      <c r="B46" s="19"/>
+      <c r="B46" s="19" t="str">
+        <f aca="false">IF(AND($D46&lt;&gt;"",$F46=""),"E"&amp;ROW(),$B45)</f>
+        <v>E31</v>
+      </c>
       <c r="C46" s="27" t="n">
         <f aca="false">IF(AND($D46&lt;&gt;"",$D46&lt;&gt;"○"),MAX($C$3:$C45)+1,$C45)</f>
         <v>2</v>
       </c>
       <c r="D46" s="28"/>
-      <c r="E46" s="29"/>
+      <c r="E46" s="29" t="str">
+        <f aca="true">IF(AND($F46&lt;&gt;"",$D45&lt;&gt;""),1,IF($F46&lt;&gt;"",MAX(INDIRECT($B46):$E45)+1,""))</f>
+        <v/>
+      </c>
       <c r="F46" s="30"/>
       <c r="G46" s="30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" s="30" t="s">
         <v>54</v>
       </c>
       <c r="I46" s="30"/>
       <c r="J46" s="30" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="K46" s="30"/>
       <c r="L46" s="31" t="n">
@@ -4696,12 +4736,18 @@
         <v>1</v>
       </c>
       <c r="Q46" s="30"/>
-      <c r="R46" s="32"/>
+      <c r="R46" s="32" t="str">
+        <f aca="false">IF(OR(AND($N46="",$L46&lt;&gt;"",$L46&lt;=$U$1),AND($M46&lt;&gt;"",Q46&lt;100,$M46&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
       <c r="S46" s="33" t="n">
         <f aca="false">7*P46</f>
         <v>7</v>
       </c>
-      <c r="T46" s="33"/>
+      <c r="T46" s="33" t="n">
+        <f aca="false">SUM($V46:$AR46)</f>
+        <v>0</v>
+      </c>
       <c r="U46" s="34"/>
       <c r="V46" s="25"/>
       <c r="W46" s="26"/>
@@ -4729,36 +4775,30 @@
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="18"/>
-      <c r="B47" s="19" t="str">
-        <f aca="false">IF(AND($D47&lt;&gt;"",$F47=""),"E"&amp;ROW(),$B45)</f>
-        <v>E30</v>
-      </c>
+      <c r="B47" s="19"/>
       <c r="C47" s="27" t="n">
         <f aca="false">IF(AND($D47&lt;&gt;"",$D47&lt;&gt;"○"),MAX($C$3:$C46)+1,$C46)</f>
         <v>2</v>
       </c>
       <c r="D47" s="28"/>
-      <c r="E47" s="29" t="str">
-        <f aca="true">IF(AND($F47&lt;&gt;"",$D45&lt;&gt;""),1,IF($F47&lt;&gt;"",MAX(INDIRECT($B47):$E45)+1,""))</f>
-        <v/>
-      </c>
+      <c r="E47" s="29"/>
       <c r="F47" s="30"/>
       <c r="G47" s="30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H47" s="30" t="s">
         <v>55</v>
       </c>
       <c r="I47" s="30"/>
       <c r="J47" s="30" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K47" s="30"/>
       <c r="L47" s="31" t="n">
-        <v>45009</v>
+        <v>45008</v>
       </c>
       <c r="M47" s="31" t="n">
-        <v>45009</v>
+        <v>45008</v>
       </c>
       <c r="N47" s="31"/>
       <c r="O47" s="31"/>
@@ -4767,18 +4807,12 @@
         <v>1</v>
       </c>
       <c r="Q47" s="30"/>
-      <c r="R47" s="32" t="str">
-        <f aca="false">IF(OR(AND($N47="",$L47&lt;&gt;"",$L47&lt;=$U$1),AND($M47&lt;&gt;"",Q47&lt;100,$M47&lt;=$U$1)),"遅延","")</f>
-        <v/>
-      </c>
+      <c r="R47" s="32"/>
       <c r="S47" s="33" t="n">
         <f aca="false">7*P47</f>
         <v>7</v>
       </c>
-      <c r="T47" s="33" t="n">
-        <f aca="false">SUM($V47:$AR47)</f>
-        <v>0</v>
-      </c>
+      <c r="T47" s="33"/>
       <c r="U47" s="34"/>
       <c r="V47" s="25"/>
       <c r="W47" s="26"/>
@@ -4806,27 +4840,33 @@
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
+      <c r="B48" s="19" t="str">
+        <f aca="false">IF(AND($D48&lt;&gt;"",$F48=""),"E"&amp;ROW(),$B46)</f>
+        <v>E31</v>
+      </c>
       <c r="C48" s="27" t="n">
         <f aca="false">IF(AND($D48&lt;&gt;"",$D48&lt;&gt;"○"),MAX($C$3:$C47)+1,$C47)</f>
         <v>2</v>
       </c>
       <c r="D48" s="28"/>
-      <c r="E48" s="29"/>
+      <c r="E48" s="29" t="str">
+        <f aca="true">IF(AND($F48&lt;&gt;"",$D46&lt;&gt;""),1,IF($F48&lt;&gt;"",MAX(INDIRECT($B48):$E46)+1,""))</f>
+        <v/>
+      </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48" s="30" t="s">
         <v>56</v>
       </c>
       <c r="I48" s="30"/>
       <c r="J48" s="30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K48" s="30"/>
       <c r="L48" s="31" t="n">
-        <v>45005</v>
+        <v>45009</v>
       </c>
       <c r="M48" s="31" t="n">
         <v>45009</v>
@@ -4835,15 +4875,21 @@
       <c r="O48" s="31"/>
       <c r="P48" s="30" t="n">
         <f aca="false">IF($L48&lt;&gt;"",NETWORKDAYS($L48,$M48,休日!$B$4:$B$306),"")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="30"/>
-      <c r="R48" s="32"/>
+      <c r="R48" s="32" t="str">
+        <f aca="false">IF(OR(AND($N48="",$L48&lt;&gt;"",$L48&lt;=$U$1),AND($M48&lt;&gt;"",Q48&lt;100,$M48&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
       <c r="S48" s="33" t="n">
         <f aca="false">7*P48</f>
-        <v>28</v>
-      </c>
-      <c r="T48" s="33"/>
+        <v>7</v>
+      </c>
+      <c r="T48" s="33" t="n">
+        <f aca="false">SUM($V48:$AR48)</f>
+        <v>0</v>
+      </c>
       <c r="U48" s="34"/>
       <c r="V48" s="25"/>
       <c r="W48" s="26"/>
@@ -4871,44 +4917,44 @@
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="18"/>
-      <c r="B49" s="19" t="str">
-        <f aca="false">IF(AND($D49&lt;&gt;"",$F49=""),"E"&amp;ROW(),$B47)</f>
-        <v>E30</v>
-      </c>
+      <c r="B49" s="19"/>
       <c r="C49" s="27" t="n">
         <f aca="false">IF(AND($D49&lt;&gt;"",$D49&lt;&gt;"○"),MAX($C$3:$C48)+1,$C48)</f>
         <v>2</v>
       </c>
       <c r="D49" s="28"/>
-      <c r="E49" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="F49" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>57</v>
+      </c>
       <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
+      <c r="J49" s="30" t="s">
+        <v>43</v>
+      </c>
       <c r="K49" s="30"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
+      <c r="L49" s="31" t="n">
+        <v>45005</v>
+      </c>
+      <c r="M49" s="31" t="n">
+        <v>45009</v>
+      </c>
       <c r="N49" s="31"/>
       <c r="O49" s="31"/>
-      <c r="P49" s="30" t="str">
+      <c r="P49" s="30" t="n">
         <f aca="false">IF($L49&lt;&gt;"",NETWORKDAYS($L49,$M49,休日!$B$4:$B$306),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Q49" s="30"/>
-      <c r="R49" s="32" t="str">
-        <f aca="false">IF(OR(AND($N49="",$L49&lt;&gt;"",$L49&lt;=$U$1),AND($M49&lt;&gt;"",Q49&lt;100,$M49&lt;=$U$1)),"遅延","")</f>
-        <v/>
-      </c>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33" t="n">
-        <f aca="false">SUM($V49:$AR49)</f>
-        <v>0</v>
-      </c>
+      <c r="R49" s="32"/>
+      <c r="S49" s="33" t="n">
+        <f aca="false">7*P49</f>
+        <v>28</v>
+      </c>
+      <c r="T49" s="33"/>
       <c r="U49" s="34"/>
       <c r="V49" s="25"/>
       <c r="W49" s="26"/>
@@ -4937,48 +4983,39 @@
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="18"/>
       <c r="B50" s="19" t="str">
-        <f aca="false">IF(AND($D50&lt;&gt;"",$F50=""),"E"&amp;ROW(),$B49)</f>
-        <v>E30</v>
+        <f aca="false">IF(AND($D50&lt;&gt;"",$F50=""),"E"&amp;ROW(),$B48)</f>
+        <v>E31</v>
       </c>
       <c r="C50" s="27" t="n">
         <f aca="false">IF(AND($D50&lt;&gt;"",$D50&lt;&gt;"○"),MAX($C$3:$C49)+1,$C49)</f>
         <v>2</v>
       </c>
       <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" s="30" t="s">
-        <v>52</v>
-      </c>
+      <c r="E50" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
       <c r="I50" s="30"/>
-      <c r="J50" s="30" t="s">
-        <v>42</v>
-      </c>
+      <c r="J50" s="30"/>
       <c r="K50" s="30"/>
-      <c r="L50" s="31" t="n">
-        <v>45005</v>
-      </c>
-      <c r="M50" s="31" t="n">
-        <v>45007</v>
-      </c>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
       <c r="N50" s="31"/>
       <c r="O50" s="31"/>
-      <c r="P50" s="30" t="n">
+      <c r="P50" s="30" t="str">
         <f aca="false">IF($L50&lt;&gt;"",NETWORKDAYS($L50,$M50,休日!$B$4:$B$306),"")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="Q50" s="30"/>
       <c r="R50" s="32" t="str">
         <f aca="false">IF(OR(AND($N50="",$L50&lt;&gt;"",$L50&lt;=$U$1),AND($M50&lt;&gt;"",Q50&lt;100,$M50&lt;=$U$1)),"遅延","")</f>
         <v/>
       </c>
-      <c r="S50" s="33" t="n">
-        <f aca="false">7*P50</f>
-        <v>14</v>
-      </c>
+      <c r="S50" s="33"/>
       <c r="T50" s="33" t="n">
         <f aca="false">SUM($V50:$AR50)</f>
         <v>0</v>
@@ -5012,7 +5049,7 @@
       <c r="A51" s="18"/>
       <c r="B51" s="19" t="str">
         <f aca="false">IF(AND($D51&lt;&gt;"",$F51=""),"E"&amp;ROW(),$B50)</f>
-        <v>E30</v>
+        <v>E31</v>
       </c>
       <c r="C51" s="27" t="n">
         <f aca="false">IF(AND($D51&lt;&gt;"",$D51&lt;&gt;"○"),MAX($C$3:$C50)+1,$C50)</f>
@@ -5022,27 +5059,27 @@
       <c r="E51" s="29"/>
       <c r="F51" s="30"/>
       <c r="G51" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="30" t="s">
         <v>53</v>
       </c>
       <c r="I51" s="30"/>
       <c r="J51" s="30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K51" s="30"/>
       <c r="L51" s="31" t="n">
-        <v>45008</v>
+        <v>45005</v>
       </c>
       <c r="M51" s="31" t="n">
-        <v>45008</v>
+        <v>45007</v>
       </c>
       <c r="N51" s="31"/>
       <c r="O51" s="31"/>
       <c r="P51" s="30" t="n">
         <f aca="false">IF($L51&lt;&gt;"",NETWORKDAYS($L51,$M51,休日!$B$4:$B$306),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q51" s="30"/>
       <c r="R51" s="32" t="str">
@@ -5051,7 +5088,7 @@
       </c>
       <c r="S51" s="33" t="n">
         <f aca="false">7*P51</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T51" s="33" t="n">
         <f aca="false">SUM($V51:$AR51)</f>
@@ -5084,7 +5121,10 @@
     </row>
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
+      <c r="B52" s="19" t="str">
+        <f aca="false">IF(AND($D52&lt;&gt;"",$F52=""),"E"&amp;ROW(),$B51)</f>
+        <v>E31</v>
+      </c>
       <c r="C52" s="27" t="n">
         <f aca="false">IF(AND($D52&lt;&gt;"",$D52&lt;&gt;"○"),MAX($C$3:$C51)+1,$C51)</f>
         <v>2</v>
@@ -5093,14 +5133,14 @@
       <c r="E52" s="29"/>
       <c r="F52" s="30"/>
       <c r="G52" s="30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H52" s="30" t="s">
         <v>54</v>
       </c>
       <c r="I52" s="30"/>
       <c r="J52" s="30" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K52" s="30"/>
       <c r="L52" s="31" t="n">
@@ -5116,12 +5156,18 @@
         <v>1</v>
       </c>
       <c r="Q52" s="30"/>
-      <c r="R52" s="32"/>
+      <c r="R52" s="32" t="str">
+        <f aca="false">IF(OR(AND($N52="",$L52&lt;&gt;"",$L52&lt;=$U$1),AND($M52&lt;&gt;"",Q52&lt;100,$M52&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
       <c r="S52" s="33" t="n">
         <f aca="false">7*P52</f>
         <v>7</v>
       </c>
-      <c r="T52" s="33"/>
+      <c r="T52" s="33" t="n">
+        <f aca="false">SUM($V52:$AR52)</f>
+        <v>0</v>
+      </c>
       <c r="U52" s="34"/>
       <c r="V52" s="25"/>
       <c r="W52" s="26"/>
@@ -5149,10 +5195,7 @@
     </row>
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="18"/>
-      <c r="B53" s="19" t="str">
-        <f aca="false">IF(AND($D53&lt;&gt;"",$F53=""),"E"&amp;ROW(),$B51)</f>
-        <v>E30</v>
-      </c>
+      <c r="B53" s="19"/>
       <c r="C53" s="27" t="n">
         <f aca="false">IF(AND($D53&lt;&gt;"",$D53&lt;&gt;"○"),MAX($C$3:$C52)+1,$C52)</f>
         <v>2</v>
@@ -5161,21 +5204,21 @@
       <c r="E53" s="29"/>
       <c r="F53" s="30"/>
       <c r="G53" s="30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H53" s="30" t="s">
         <v>55</v>
       </c>
       <c r="I53" s="30"/>
       <c r="J53" s="30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K53" s="30"/>
       <c r="L53" s="31" t="n">
-        <v>45009</v>
+        <v>45008</v>
       </c>
       <c r="M53" s="31" t="n">
-        <v>45009</v>
+        <v>45008</v>
       </c>
       <c r="N53" s="31"/>
       <c r="O53" s="31"/>
@@ -5184,18 +5227,12 @@
         <v>1</v>
       </c>
       <c r="Q53" s="30"/>
-      <c r="R53" s="32" t="str">
-        <f aca="false">IF(OR(AND($N53="",$L53&lt;&gt;"",$L53&lt;=$U$1),AND($M53&lt;&gt;"",Q53&lt;100,$M53&lt;=$U$1)),"遅延","")</f>
-        <v/>
-      </c>
+      <c r="R53" s="32"/>
       <c r="S53" s="33" t="n">
         <f aca="false">7*P53</f>
         <v>7</v>
       </c>
-      <c r="T53" s="33" t="n">
-        <f aca="false">SUM($V53:$AR53)</f>
-        <v>0</v>
-      </c>
+      <c r="T53" s="33"/>
       <c r="U53" s="34"/>
       <c r="V53" s="25"/>
       <c r="W53" s="26"/>
@@ -5223,7 +5260,10 @@
     </row>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
+      <c r="B54" s="19" t="str">
+        <f aca="false">IF(AND($D54&lt;&gt;"",$F54=""),"E"&amp;ROW(),$B52)</f>
+        <v>E31</v>
+      </c>
       <c r="C54" s="27" t="n">
         <f aca="false">IF(AND($D54&lt;&gt;"",$D54&lt;&gt;"○"),MAX($C$3:$C53)+1,$C53)</f>
         <v>2</v>
@@ -5232,18 +5272,18 @@
       <c r="E54" s="29"/>
       <c r="F54" s="30"/>
       <c r="G54" s="30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H54" s="30" t="s">
         <v>56</v>
       </c>
       <c r="I54" s="30"/>
       <c r="J54" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54" s="30"/>
       <c r="L54" s="31" t="n">
-        <v>45005</v>
+        <v>45009</v>
       </c>
       <c r="M54" s="31" t="n">
         <v>45009</v>
@@ -5252,15 +5292,21 @@
       <c r="O54" s="31"/>
       <c r="P54" s="30" t="n">
         <f aca="false">IF($L54&lt;&gt;"",NETWORKDAYS($L54,$M54,休日!$B$4:$B$306),"")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q54" s="30"/>
-      <c r="R54" s="32"/>
+      <c r="R54" s="32" t="str">
+        <f aca="false">IF(OR(AND($N54="",$L54&lt;&gt;"",$L54&lt;=$U$1),AND($M54&lt;&gt;"",Q54&lt;100,$M54&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
       <c r="S54" s="33" t="n">
         <f aca="false">7*P54</f>
-        <v>28</v>
-      </c>
-      <c r="T54" s="33"/>
+        <v>7</v>
+      </c>
+      <c r="T54" s="33" t="n">
+        <f aca="false">SUM($V54:$AR54)</f>
+        <v>0</v>
+      </c>
       <c r="U54" s="34"/>
       <c r="V54" s="25"/>
       <c r="W54" s="26"/>
@@ -5288,44 +5334,44 @@
     </row>
     <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="18"/>
-      <c r="B55" s="19" t="str">
-        <f aca="false">IF(AND($D55&lt;&gt;"",$F55=""),"E"&amp;ROW(),$B53)</f>
-        <v>E30</v>
-      </c>
+      <c r="B55" s="19"/>
       <c r="C55" s="27" t="n">
         <f aca="false">IF(AND($D55&lt;&gt;"",$D55&lt;&gt;"○"),MAX($C$3:$C54)+1,$C54)</f>
         <v>2</v>
       </c>
       <c r="D55" s="28"/>
-      <c r="E55" s="29" t="n">
+      <c r="E55" s="29"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="F55" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
+      <c r="H55" s="30" t="s">
+        <v>57</v>
+      </c>
       <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
+      <c r="J55" s="30" t="s">
+        <v>48</v>
+      </c>
       <c r="K55" s="30"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
+      <c r="L55" s="31" t="n">
+        <v>45005</v>
+      </c>
+      <c r="M55" s="31" t="n">
+        <v>45009</v>
+      </c>
       <c r="N55" s="31"/>
       <c r="O55" s="31"/>
-      <c r="P55" s="30" t="str">
+      <c r="P55" s="30" t="n">
         <f aca="false">IF($L55&lt;&gt;"",NETWORKDAYS($L55,$M55,休日!$B$4:$B$306),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Q55" s="30"/>
-      <c r="R55" s="32" t="str">
-        <f aca="false">IF(OR(AND($N55="",$L55&lt;&gt;"",$L55&lt;=$U$1),AND($M55&lt;&gt;"",Q55&lt;100,$M55&lt;=$U$1)),"遅延","")</f>
-        <v/>
-      </c>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33" t="n">
-        <f aca="false">SUM($V55:$AR55)</f>
-        <v>0</v>
-      </c>
+      <c r="R55" s="32"/>
+      <c r="S55" s="33" t="n">
+        <f aca="false">7*P55</f>
+        <v>28</v>
+      </c>
+      <c r="T55" s="33"/>
       <c r="U55" s="34"/>
       <c r="V55" s="25"/>
       <c r="W55" s="26"/>
@@ -5354,51 +5400,39 @@
     <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="18"/>
       <c r="B56" s="19" t="str">
-        <f aca="false">IF(AND($D56&lt;&gt;"",$F56=""),"E"&amp;ROW(),$B55)</f>
-        <v>E30</v>
+        <f aca="false">IF(AND($D56&lt;&gt;"",$F56=""),"E"&amp;ROW(),$B54)</f>
+        <v>E31</v>
       </c>
       <c r="C56" s="27" t="n">
         <f aca="false">IF(AND($D56&lt;&gt;"",$D56&lt;&gt;"○"),MAX($C$3:$C55)+1,$C55)</f>
         <v>2</v>
       </c>
       <c r="D56" s="28"/>
-      <c r="E56" s="29" t="str">
-        <f aca="true">IF(AND($F56&lt;&gt;"",$D55&lt;&gt;""),1,IF($F56&lt;&gt;"",MAX(INDIRECT($B56):$E55)+1,""))</f>
-        <v/>
-      </c>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="30" t="s">
-        <v>52</v>
-      </c>
+      <c r="E56" s="29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
       <c r="I56" s="30"/>
-      <c r="J56" s="30" t="s">
-        <v>47</v>
-      </c>
+      <c r="J56" s="30"/>
       <c r="K56" s="30"/>
-      <c r="L56" s="31" t="n">
-        <v>45005</v>
-      </c>
-      <c r="M56" s="31" t="n">
-        <v>45007</v>
-      </c>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
       <c r="N56" s="31"/>
       <c r="O56" s="31"/>
-      <c r="P56" s="30" t="n">
+      <c r="P56" s="30" t="str">
         <f aca="false">IF($L56&lt;&gt;"",NETWORKDAYS($L56,$M56,休日!$B$4:$B$306),"")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="Q56" s="30"/>
       <c r="R56" s="32" t="str">
         <f aca="false">IF(OR(AND($N56="",$L56&lt;&gt;"",$L56&lt;=$U$1),AND($M56&lt;&gt;"",Q56&lt;100,$M56&lt;=$U$1)),"遅延","")</f>
         <v/>
       </c>
-      <c r="S56" s="33" t="n">
-        <f aca="false">7*P56</f>
-        <v>14</v>
-      </c>
+      <c r="S56" s="33"/>
       <c r="T56" s="33" t="n">
         <f aca="false">SUM($V56:$AR56)</f>
         <v>0</v>
@@ -5432,7 +5466,7 @@
       <c r="A57" s="18"/>
       <c r="B57" s="19" t="str">
         <f aca="false">IF(AND($D57&lt;&gt;"",$F57=""),"E"&amp;ROW(),$B56)</f>
-        <v>E30</v>
+        <v>E31</v>
       </c>
       <c r="C57" s="27" t="n">
         <f aca="false">IF(AND($D57&lt;&gt;"",$D57&lt;&gt;"○"),MAX($C$3:$C56)+1,$C56)</f>
@@ -5445,27 +5479,27 @@
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="30" t="s">
         <v>53</v>
       </c>
       <c r="I57" s="30"/>
       <c r="J57" s="30" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K57" s="30"/>
       <c r="L57" s="31" t="n">
-        <v>45008</v>
+        <v>45005</v>
       </c>
       <c r="M57" s="31" t="n">
-        <v>45008</v>
+        <v>45007</v>
       </c>
       <c r="N57" s="31"/>
       <c r="O57" s="31"/>
       <c r="P57" s="30" t="n">
         <f aca="false">IF($L57&lt;&gt;"",NETWORKDAYS($L57,$M57,休日!$B$4:$B$306),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q57" s="30"/>
       <c r="R57" s="32" t="str">
@@ -5474,7 +5508,7 @@
       </c>
       <c r="S57" s="33" t="n">
         <f aca="false">7*P57</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T57" s="33" t="n">
         <f aca="false">SUM($V57:$AR57)</f>
@@ -5507,23 +5541,29 @@
     </row>
     <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="18"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="19" t="str">
+        <f aca="false">IF(AND($D58&lt;&gt;"",$F58=""),"E"&amp;ROW(),$B57)</f>
+        <v>E31</v>
+      </c>
       <c r="C58" s="27" t="n">
         <f aca="false">IF(AND($D58&lt;&gt;"",$D58&lt;&gt;"○"),MAX($C$3:$C57)+1,$C57)</f>
         <v>2</v>
       </c>
       <c r="D58" s="28"/>
-      <c r="E58" s="29"/>
+      <c r="E58" s="29" t="str">
+        <f aca="true">IF(AND($F58&lt;&gt;"",$D57&lt;&gt;""),1,IF($F58&lt;&gt;"",MAX(INDIRECT($B58):$E57)+1,""))</f>
+        <v/>
+      </c>
       <c r="F58" s="30"/>
       <c r="G58" s="30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58" s="30" t="s">
         <v>54</v>
       </c>
       <c r="I58" s="30"/>
       <c r="J58" s="30" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K58" s="30"/>
       <c r="L58" s="31" t="n">
@@ -5539,12 +5579,18 @@
         <v>1</v>
       </c>
       <c r="Q58" s="30"/>
-      <c r="R58" s="32"/>
+      <c r="R58" s="32" t="str">
+        <f aca="false">IF(OR(AND($N58="",$L58&lt;&gt;"",$L58&lt;=$U$1),AND($M58&lt;&gt;"",Q58&lt;100,$M58&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
       <c r="S58" s="33" t="n">
         <f aca="false">7*P58</f>
         <v>7</v>
       </c>
-      <c r="T58" s="33"/>
+      <c r="T58" s="33" t="n">
+        <f aca="false">SUM($V58:$AR58)</f>
+        <v>0</v>
+      </c>
       <c r="U58" s="34"/>
       <c r="V58" s="25"/>
       <c r="W58" s="26"/>
@@ -5572,36 +5618,30 @@
     </row>
     <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="18"/>
-      <c r="B59" s="19" t="str">
-        <f aca="false">IF(AND($D59&lt;&gt;"",$F59=""),"E"&amp;ROW(),$B57)</f>
-        <v>E30</v>
-      </c>
+      <c r="B59" s="19"/>
       <c r="C59" s="27" t="n">
         <f aca="false">IF(AND($D59&lt;&gt;"",$D59&lt;&gt;"○"),MAX($C$3:$C58)+1,$C58)</f>
         <v>2</v>
       </c>
       <c r="D59" s="28"/>
-      <c r="E59" s="29" t="str">
-        <f aca="true">IF(AND($F59&lt;&gt;"",$D57&lt;&gt;""),1,IF($F59&lt;&gt;"",MAX(INDIRECT($B59):$E57)+1,""))</f>
-        <v/>
-      </c>
+      <c r="E59" s="29"/>
       <c r="F59" s="30"/>
       <c r="G59" s="30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59" s="30" t="s">
         <v>55</v>
       </c>
       <c r="I59" s="30"/>
       <c r="J59" s="30" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K59" s="30"/>
       <c r="L59" s="31" t="n">
-        <v>45009</v>
+        <v>45008</v>
       </c>
       <c r="M59" s="31" t="n">
-        <v>45009</v>
+        <v>45008</v>
       </c>
       <c r="N59" s="31"/>
       <c r="O59" s="31"/>
@@ -5610,18 +5650,12 @@
         <v>1</v>
       </c>
       <c r="Q59" s="30"/>
-      <c r="R59" s="32" t="str">
-        <f aca="false">IF(OR(AND($N59="",$L59&lt;&gt;"",$L59&lt;=$U$1),AND($M59&lt;&gt;"",Q59&lt;100,$M59&lt;=$U$1)),"遅延","")</f>
-        <v/>
-      </c>
+      <c r="R59" s="32"/>
       <c r="S59" s="33" t="n">
         <f aca="false">7*P59</f>
         <v>7</v>
       </c>
-      <c r="T59" s="33" t="n">
-        <f aca="false">SUM($V59:$AR59)</f>
-        <v>0</v>
-      </c>
+      <c r="T59" s="33"/>
       <c r="U59" s="34"/>
       <c r="V59" s="25"/>
       <c r="W59" s="26"/>
@@ -5649,16 +5683,22 @@
     </row>
     <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
+      <c r="B60" s="19" t="str">
+        <f aca="false">IF(AND($D60&lt;&gt;"",$F60=""),"E"&amp;ROW(),$B58)</f>
+        <v>E31</v>
+      </c>
       <c r="C60" s="27" t="n">
         <f aca="false">IF(AND($D60&lt;&gt;"",$D60&lt;&gt;"○"),MAX($C$3:$C59)+1,$C59)</f>
         <v>2</v>
       </c>
       <c r="D60" s="28"/>
-      <c r="E60" s="29"/>
+      <c r="E60" s="29" t="str">
+        <f aca="true">IF(AND($F60&lt;&gt;"",$D58&lt;&gt;""),1,IF($F60&lt;&gt;"",MAX(INDIRECT($B60):$E58)+1,""))</f>
+        <v/>
+      </c>
       <c r="F60" s="30"/>
       <c r="G60" s="30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H60" s="30" t="s">
         <v>56</v>
@@ -5669,7 +5709,7 @@
       </c>
       <c r="K60" s="30"/>
       <c r="L60" s="31" t="n">
-        <v>45005</v>
+        <v>45009</v>
       </c>
       <c r="M60" s="31" t="n">
         <v>45009</v>
@@ -5678,15 +5718,21 @@
       <c r="O60" s="31"/>
       <c r="P60" s="30" t="n">
         <f aca="false">IF($L60&lt;&gt;"",NETWORKDAYS($L60,$M60,休日!$B$4:$B$306),"")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="30"/>
-      <c r="R60" s="32"/>
+      <c r="R60" s="32" t="str">
+        <f aca="false">IF(OR(AND($N60="",$L60&lt;&gt;"",$L60&lt;=$U$1),AND($M60&lt;&gt;"",Q60&lt;100,$M60&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
       <c r="S60" s="33" t="n">
         <f aca="false">7*P60</f>
-        <v>28</v>
-      </c>
-      <c r="T60" s="33"/>
+        <v>7</v>
+      </c>
+      <c r="T60" s="33" t="n">
+        <f aca="false">SUM($V60:$AR60)</f>
+        <v>0</v>
+      </c>
       <c r="U60" s="34"/>
       <c r="V60" s="25"/>
       <c r="W60" s="26"/>
@@ -5714,10 +5760,7 @@
     </row>
     <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="18"/>
-      <c r="B61" s="19" t="str">
-        <f aca="false">IF(AND($D61&lt;&gt;"",$F61=""),"E"&amp;ROW(),$B59)</f>
-        <v>E30</v>
-      </c>
+      <c r="B61" s="19"/>
       <c r="C61" s="27" t="n">
         <f aca="false">IF(AND($D61&lt;&gt;"",$D61&lt;&gt;"○"),MAX($C$3:$C60)+1,$C60)</f>
         <v>2</v>
@@ -5725,32 +5768,36 @@
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
       <c r="F61" s="30"/>
-      <c r="G61" s="30" t="str">
-        <f aca="false">IF($H61="","",IF($G59="",1,$G59+1))</f>
-        <v/>
-      </c>
-      <c r="H61" s="30"/>
+      <c r="G61" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>57</v>
+      </c>
       <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
+      <c r="J61" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="K61" s="30"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
+      <c r="L61" s="31" t="n">
+        <v>45005</v>
+      </c>
+      <c r="M61" s="31" t="n">
+        <v>45009</v>
+      </c>
       <c r="N61" s="31"/>
       <c r="O61" s="31"/>
-      <c r="P61" s="30" t="str">
+      <c r="P61" s="30" t="n">
         <f aca="false">IF($L61&lt;&gt;"",NETWORKDAYS($L61,$M61,休日!$B$4:$B$306),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="Q61" s="30"/>
-      <c r="R61" s="32" t="str">
-        <f aca="false">IF(OR(AND($N61="",$L61&lt;&gt;"",$L61&lt;=$U$1),AND($M61&lt;&gt;"",Q61&lt;100,$M61&lt;=$U$1)),"遅延","")</f>
-        <v/>
-      </c>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33" t="n">
-        <f aca="false">SUM($V61:$AR61)</f>
-        <v>0</v>
-      </c>
+      <c r="R61" s="32"/>
+      <c r="S61" s="33" t="n">
+        <f aca="false">7*P61</f>
+        <v>28</v>
+      </c>
+      <c r="T61" s="33"/>
       <c r="U61" s="34"/>
       <c r="V61" s="25"/>
       <c r="W61" s="26"/>
@@ -5779,48 +5826,43 @@
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="18"/>
       <c r="B62" s="19" t="str">
-        <f aca="false">IF(AND($D62&lt;&gt;"",$F62=""),"E"&amp;ROW(),$B61)</f>
-        <v>E62</v>
-      </c>
-      <c r="C62" s="20" t="n">
+        <f aca="false">IF(AND($D62&lt;&gt;"",$F62=""),"E"&amp;ROW(),$B60)</f>
+        <v>E31</v>
+      </c>
+      <c r="C62" s="27" t="n">
         <f aca="false">IF(AND($D62&lt;&gt;"",$D62&lt;&gt;"○"),MAX($C$3:$C61)+1,$C61)</f>
-        <v>3</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E62" s="22" t="str">
-        <f aca="true">IF(AND($F62&lt;&gt;"",$D61&lt;&gt;""),1,IF($F62&lt;&gt;"",MAX(INDIRECT($B62):$E61)+1,""))</f>
+        <v>2</v>
+      </c>
+      <c r="D62" s="28"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30" t="str">
+        <f aca="false">IF($H62="","",IF($G60="",1,$G60+1))</f>
         <v/>
       </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22" t="str">
-        <f aca="false">IF($H62="","",IF($G61="",1,$G61+1))</f>
-        <v/>
-      </c>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="21" t="str">
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="30" t="str">
         <f aca="false">IF($L62&lt;&gt;"",NETWORKDAYS($L62,$M62,休日!$B$4:$B$306),"")</f>
         <v/>
       </c>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21" t="str">
+      <c r="Q62" s="30"/>
+      <c r="R62" s="32" t="str">
         <f aca="false">IF(OR(AND($N62="",$L62&lt;&gt;"",$L62&lt;=$U$1),AND($M62&lt;&gt;"",Q62&lt;100,$M62&lt;=$U$1)),"遅延","")</f>
         <v/>
       </c>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21" t="n">
+      <c r="S62" s="33"/>
+      <c r="T62" s="33" t="n">
         <f aca="false">SUM($V62:$AR62)</f>
         <v>0</v>
       </c>
-      <c r="U62" s="24"/>
+      <c r="U62" s="34"/>
       <c r="V62" s="25"/>
       <c r="W62" s="26"/>
       <c r="X62" s="26"/>
@@ -5849,47 +5891,47 @@
       <c r="A63" s="18"/>
       <c r="B63" s="19" t="str">
         <f aca="false">IF(AND($D63&lt;&gt;"",$F63=""),"E"&amp;ROW(),$B62)</f>
-        <v>E62</v>
-      </c>
-      <c r="C63" s="27" t="n">
+        <v>E63</v>
+      </c>
+      <c r="C63" s="20" t="n">
         <f aca="false">IF(AND($D63&lt;&gt;"",$D63&lt;&gt;"○"),MAX($C$3:$C62)+1,$C62)</f>
         <v>3</v>
       </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="29" t="n">
+      <c r="D63" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="22" t="str">
         <f aca="true">IF(AND($F63&lt;&gt;"",$D62&lt;&gt;""),1,IF($F63&lt;&gt;"",MAX(INDIRECT($B63):$E62)+1,""))</f>
-        <v>1</v>
-      </c>
-      <c r="F63" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G63" s="30" t="str">
+        <v/>
+      </c>
+      <c r="F63" s="21"/>
+      <c r="G63" s="22" t="str">
         <f aca="false">IF($H63="","",IF($G62="",1,$G62+1))</f>
         <v/>
       </c>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="30" t="str">
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="21" t="str">
         <f aca="false">IF($L63&lt;&gt;"",NETWORKDAYS($L63,$M63,休日!$B$4:$B$306),"")</f>
         <v/>
       </c>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="32" t="str">
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21" t="str">
         <f aca="false">IF(OR(AND($N63="",$L63&lt;&gt;"",$L63&lt;=$U$1),AND($M63&lt;&gt;"",Q63&lt;100,$M63&lt;=$U$1)),"遅延","")</f>
         <v/>
       </c>
-      <c r="S63" s="33"/>
-      <c r="T63" s="33" t="n">
+      <c r="S63" s="21"/>
+      <c r="T63" s="21" t="n">
         <f aca="false">SUM($V63:$AR63)</f>
         <v>0</v>
       </c>
-      <c r="U63" s="34"/>
+      <c r="U63" s="24"/>
       <c r="V63" s="25"/>
       <c r="W63" s="26"/>
       <c r="X63" s="26"/>
@@ -5916,44 +5958,48 @@
     </row>
     <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="19" t="str">
+        <f aca="false">IF(AND($D64&lt;&gt;"",$F64=""),"E"&amp;ROW(),$B63)</f>
+        <v>E63</v>
+      </c>
       <c r="C64" s="27" t="n">
         <f aca="false">IF(AND($D64&lt;&gt;"",$D64&lt;&gt;"○"),MAX($C$3:$C63)+1,$C63)</f>
         <v>3</v>
       </c>
       <c r="D64" s="28"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30" t="n">
+      <c r="E64" s="29" t="n">
+        <f aca="true">IF(AND($F64&lt;&gt;"",$D63&lt;&gt;""),1,IF($F64&lt;&gt;"",MAX(INDIRECT($B64):$E63)+1,""))</f>
         <v>1</v>
       </c>
-      <c r="H64" s="30" t="s">
+      <c r="F64" s="30" t="s">
         <v>59</v>
       </c>
+      <c r="G64" s="30" t="str">
+        <f aca="false">IF($H64="","",IF($G63="",1,$G63+1))</f>
+        <v/>
+      </c>
+      <c r="H64" s="30"/>
       <c r="I64" s="30"/>
-      <c r="J64" s="30" t="s">
-        <v>60</v>
-      </c>
+      <c r="J64" s="30"/>
       <c r="K64" s="30"/>
-      <c r="L64" s="31" t="n">
-        <v>45012</v>
-      </c>
-      <c r="M64" s="31" t="n">
-        <v>45013</v>
-      </c>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
       <c r="N64" s="31"/>
       <c r="O64" s="31"/>
-      <c r="P64" s="30" t="n">
+      <c r="P64" s="30" t="str">
         <f aca="false">IF($L64&lt;&gt;"",NETWORKDAYS($L64,$M64,休日!$B$4:$B$306),"")</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="Q64" s="30"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="33" t="n">
-        <f aca="false">7*P64</f>
-        <v>14</v>
-      </c>
-      <c r="T64" s="33"/>
+      <c r="R64" s="32" t="str">
+        <f aca="false">IF(OR(AND($N64="",$L64&lt;&gt;"",$L64&lt;=$U$1),AND($M64&lt;&gt;"",Q64&lt;100,$M64&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
+      <c r="S64" s="33"/>
+      <c r="T64" s="33" t="n">
+        <f aca="false">SUM($V64:$AR64)</f>
+        <v>0</v>
+      </c>
       <c r="U64" s="34"/>
       <c r="V64" s="25"/>
       <c r="W64" s="26"/>
@@ -5981,47 +6027,44 @@
     </row>
     <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="18"/>
-      <c r="B65" s="19" t="str">
-        <f aca="false">IF(AND($D65&lt;&gt;"",$F65=""),"E"&amp;ROW(),$B63)</f>
-        <v>E62</v>
-      </c>
+      <c r="B65" s="19"/>
       <c r="C65" s="27" t="n">
         <f aca="false">IF(AND($D65&lt;&gt;"",$D65&lt;&gt;"○"),MAX($C$3:$C64)+1,$C64)</f>
         <v>3</v>
       </c>
       <c r="D65" s="28"/>
-      <c r="E65" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F65" s="30" t="s">
+      <c r="E65" s="29"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G65" s="30" t="str">
-        <f aca="false">IF($H65="","",IF($G63="",1,$G63+1))</f>
-        <v/>
-      </c>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
       <c r="K65" s="30"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
+      <c r="L65" s="31" t="n">
+        <v>45012</v>
+      </c>
+      <c r="M65" s="31" t="n">
+        <v>45013</v>
+      </c>
       <c r="N65" s="31"/>
       <c r="O65" s="31"/>
-      <c r="P65" s="30" t="str">
+      <c r="P65" s="30" t="n">
         <f aca="false">IF($L65&lt;&gt;"",NETWORKDAYS($L65,$M65,休日!$B$4:$B$306),"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="Q65" s="30"/>
-      <c r="R65" s="32" t="str">
-        <f aca="false">IF(OR(AND($N65="",$L65&lt;&gt;"",$L65&lt;=$U$1),AND($M65&lt;&gt;"",Q65&lt;100,$M65&lt;=$U$1)),"遅延","")</f>
-        <v/>
-      </c>
-      <c r="S65" s="33"/>
-      <c r="T65" s="33" t="n">
-        <f aca="false">SUM($V65:$AR65)</f>
-        <v>0</v>
-      </c>
+      <c r="R65" s="32"/>
+      <c r="S65" s="33" t="n">
+        <f aca="false">7*P65</f>
+        <v>14</v>
+      </c>
+      <c r="T65" s="33"/>
       <c r="U65" s="34"/>
       <c r="V65" s="25"/>
       <c r="W65" s="26"/>
@@ -6049,44 +6092,47 @@
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="18"/>
-      <c r="B66" s="19"/>
+      <c r="B66" s="19" t="str">
+        <f aca="false">IF(AND($D66&lt;&gt;"",$F66=""),"E"&amp;ROW(),$B64)</f>
+        <v>E63</v>
+      </c>
       <c r="C66" s="27" t="n">
         <f aca="false">IF(AND($D66&lt;&gt;"",$D66&lt;&gt;"○"),MAX($C$3:$C65)+1,$C65)</f>
         <v>3</v>
       </c>
       <c r="D66" s="28"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" s="30" t="s">
+      <c r="E66" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" s="30" t="s">
         <v>62</v>
       </c>
+      <c r="G66" s="30" t="str">
+        <f aca="false">IF($H66="","",IF($G64="",1,$G64+1))</f>
+        <v/>
+      </c>
+      <c r="H66" s="30"/>
       <c r="I66" s="30"/>
-      <c r="J66" s="30" t="s">
-        <v>35</v>
-      </c>
+      <c r="J66" s="30"/>
       <c r="K66" s="30"/>
-      <c r="L66" s="31" t="n">
-        <v>45012</v>
-      </c>
-      <c r="M66" s="31" t="n">
-        <v>45012</v>
-      </c>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
       <c r="N66" s="31"/>
       <c r="O66" s="31"/>
-      <c r="P66" s="30" t="n">
+      <c r="P66" s="30" t="str">
         <f aca="false">IF($L66&lt;&gt;"",NETWORKDAYS($L66,$M66,休日!$B$4:$B$306),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="Q66" s="30"/>
-      <c r="R66" s="32"/>
-      <c r="S66" s="33" t="n">
-        <f aca="false">7*P66</f>
-        <v>7</v>
-      </c>
-      <c r="T66" s="33"/>
+      <c r="R66" s="32" t="str">
+        <f aca="false">IF(OR(AND($N66="",$L66&lt;&gt;"",$L66&lt;=$U$1),AND($M66&lt;&gt;"",Q66&lt;100,$M66&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33" t="n">
+        <f aca="false">SUM($V66:$AR66)</f>
+        <v>0</v>
+      </c>
       <c r="U66" s="34"/>
       <c r="V66" s="25"/>
       <c r="W66" s="26"/>
@@ -6123,14 +6169,14 @@
       <c r="E67" s="29"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="30" t="s">
         <v>63</v>
       </c>
       <c r="I67" s="30"/>
       <c r="J67" s="30" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K67" s="30"/>
       <c r="L67" s="31" t="n">
@@ -6185,25 +6231,37 @@
         <v>3</v>
       </c>
       <c r="D68" s="28"/>
-      <c r="E68" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="F68" s="30" t="s">
+      <c r="E68" s="29"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
       <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
+      <c r="J68" s="30" t="s">
+        <v>48</v>
+      </c>
       <c r="K68" s="30"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
+      <c r="L68" s="31" t="n">
+        <v>45012</v>
+      </c>
+      <c r="M68" s="31" t="n">
+        <v>45012</v>
+      </c>
       <c r="N68" s="31"/>
       <c r="O68" s="31"/>
-      <c r="P68" s="30"/>
+      <c r="P68" s="30" t="n">
+        <f aca="false">IF($L68&lt;&gt;"",NETWORKDAYS($L68,$M68,休日!$B$4:$B$306),"")</f>
+        <v>1</v>
+      </c>
       <c r="Q68" s="30"/>
       <c r="R68" s="32"/>
-      <c r="S68" s="33"/>
+      <c r="S68" s="33" t="n">
+        <f aca="false">7*P68</f>
+        <v>7</v>
+      </c>
       <c r="T68" s="33"/>
       <c r="U68" s="34"/>
       <c r="V68" s="25"/>
@@ -6238,37 +6296,25 @@
         <v>3</v>
       </c>
       <c r="D69" s="28"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" s="30" t="s">
+      <c r="E69" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" s="30" t="s">
         <v>65</v>
       </c>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
       <c r="I69" s="30"/>
-      <c r="J69" s="30" t="s">
-        <v>66</v>
-      </c>
+      <c r="J69" s="30"/>
       <c r="K69" s="30"/>
-      <c r="L69" s="31" t="n">
-        <v>45013</v>
-      </c>
-      <c r="M69" s="31" t="n">
-        <v>45013</v>
-      </c>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
       <c r="N69" s="31"/>
       <c r="O69" s="31"/>
-      <c r="P69" s="30" t="n">
-        <f aca="false">IF($L69&lt;&gt;"",NETWORKDAYS($L69,$M69,休日!$B$4:$B$306),"")</f>
-        <v>1</v>
-      </c>
+      <c r="P69" s="30"/>
       <c r="Q69" s="30"/>
       <c r="R69" s="32"/>
-      <c r="S69" s="33" t="n">
-        <f aca="false">7*P69</f>
-        <v>7</v>
-      </c>
+      <c r="S69" s="33"/>
       <c r="T69" s="33"/>
       <c r="U69" s="34"/>
       <c r="V69" s="25"/>
@@ -6306,21 +6352,21 @@
       <c r="E70" s="29"/>
       <c r="F70" s="30"/>
       <c r="G70" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I70" s="30"/>
       <c r="J70" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K70" s="30"/>
       <c r="L70" s="31" t="n">
-        <v>45014</v>
+        <v>45013</v>
       </c>
       <c r="M70" s="31" t="n">
-        <v>45014</v>
+        <v>45013</v>
       </c>
       <c r="N70" s="31"/>
       <c r="O70" s="31"/>
@@ -6368,25 +6414,37 @@
         <v>3</v>
       </c>
       <c r="D71" s="28"/>
-      <c r="E71" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="F71" s="30" t="s">
+      <c r="E71" s="29"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
       <c r="K71" s="30"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
+      <c r="L71" s="31" t="n">
+        <v>45014</v>
+      </c>
+      <c r="M71" s="31" t="n">
+        <v>45014</v>
+      </c>
       <c r="N71" s="31"/>
       <c r="O71" s="31"/>
-      <c r="P71" s="30"/>
+      <c r="P71" s="30" t="n">
+        <f aca="false">IF($L71&lt;&gt;"",NETWORKDAYS($L71,$M71,休日!$B$4:$B$306),"")</f>
+        <v>1</v>
+      </c>
       <c r="Q71" s="30"/>
       <c r="R71" s="32"/>
-      <c r="S71" s="33"/>
+      <c r="S71" s="33" t="n">
+        <f aca="false">7*P71</f>
+        <v>7</v>
+      </c>
       <c r="T71" s="33"/>
       <c r="U71" s="34"/>
       <c r="V71" s="25"/>
@@ -6421,37 +6479,25 @@
         <v>3</v>
       </c>
       <c r="D72" s="28"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" s="30" t="s">
+      <c r="E72" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F72" s="30" t="s">
         <v>68</v>
       </c>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
       <c r="I72" s="30"/>
-      <c r="J72" s="30" t="s">
-        <v>23</v>
-      </c>
+      <c r="J72" s="30"/>
       <c r="K72" s="30"/>
-      <c r="L72" s="31" t="n">
-        <v>45014</v>
-      </c>
-      <c r="M72" s="31" t="n">
-        <v>45014</v>
-      </c>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
       <c r="N72" s="31"/>
       <c r="O72" s="31"/>
-      <c r="P72" s="30" t="n">
-        <f aca="false">IF($L72&lt;&gt;"",NETWORKDAYS($L72,$M72,休日!$B$4:$B$306),"")</f>
-        <v>1</v>
-      </c>
+      <c r="P72" s="30"/>
       <c r="Q72" s="30"/>
       <c r="R72" s="32"/>
-      <c r="S72" s="33" t="n">
-        <f aca="false">7*P72</f>
-        <v>7</v>
-      </c>
+      <c r="S72" s="33"/>
       <c r="T72" s="33"/>
       <c r="U72" s="34"/>
       <c r="V72" s="25"/>
@@ -6489,7 +6535,7 @@
       <c r="E73" s="29"/>
       <c r="F73" s="30"/>
       <c r="G73" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="30" t="s">
         <v>69</v>
@@ -6545,10 +6591,7 @@
     </row>
     <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="18"/>
-      <c r="B74" s="19" t="n">
-        <f aca="false">IF(AND($D74&lt;&gt;"",$F74=""),"E"&amp;ROW(),$B71)</f>
-        <v>0</v>
-      </c>
+      <c r="B74" s="19"/>
       <c r="C74" s="27" t="n">
         <f aca="false">IF(AND($D74&lt;&gt;"",$D74&lt;&gt;"○"),MAX($C$3:$C73)+1,$C73)</f>
         <v>3</v>
@@ -6556,32 +6599,36 @@
       <c r="D74" s="28"/>
       <c r="E74" s="29"/>
       <c r="F74" s="30"/>
-      <c r="G74" s="30" t="str">
-        <f aca="false">IF($H74="","",IF($G71="",1,$G71+1))</f>
-        <v/>
-      </c>
-      <c r="H74" s="30"/>
+      <c r="G74" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" s="30" t="s">
+        <v>70</v>
+      </c>
       <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
+      <c r="J74" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="K74" s="30"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
+      <c r="L74" s="31" t="n">
+        <v>45014</v>
+      </c>
+      <c r="M74" s="31" t="n">
+        <v>45014</v>
+      </c>
       <c r="N74" s="31"/>
       <c r="O74" s="31"/>
-      <c r="P74" s="30" t="str">
+      <c r="P74" s="30" t="n">
         <f aca="false">IF($L74&lt;&gt;"",NETWORKDAYS($L74,$M74,休日!$B$4:$B$306),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Q74" s="30"/>
-      <c r="R74" s="32" t="str">
-        <f aca="false">IF(OR(AND($N74="",$L74&lt;&gt;"",$L74&lt;=$U$1),AND($M74&lt;&gt;"",Q74&lt;100,$M74&lt;=$U$1)),"遅延","")</f>
-        <v/>
-      </c>
-      <c r="S74" s="33"/>
-      <c r="T74" s="33" t="n">
-        <f aca="false">SUM($V74:$AR74)</f>
-        <v>0</v>
-      </c>
+      <c r="R74" s="32"/>
+      <c r="S74" s="33" t="n">
+        <f aca="false">7*P74</f>
+        <v>7</v>
+      </c>
+      <c r="T74" s="33"/>
       <c r="U74" s="34"/>
       <c r="V74" s="25"/>
       <c r="W74" s="26"/>
@@ -6608,174 +6655,118 @@
       <c r="AR74" s="26"/>
     </row>
     <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="19"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="41"/>
-      <c r="O75" s="41"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40" t="str">
+      <c r="A75" s="18"/>
+      <c r="B75" s="19" t="n">
+        <f aca="false">IF(AND($D75&lt;&gt;"",$F75=""),"E"&amp;ROW(),$B72)</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="27" t="n">
+        <f aca="false">IF(AND($D75&lt;&gt;"",$D75&lt;&gt;"○"),MAX($C$3:$C74)+1,$C74)</f>
+        <v>3</v>
+      </c>
+      <c r="D75" s="28"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30" t="str">
+        <f aca="false">IF($H75="","",IF($G72="",1,$G72+1))</f>
+        <v/>
+      </c>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="31"/>
+      <c r="P75" s="30" t="str">
+        <f aca="false">IF($L75&lt;&gt;"",NETWORKDAYS($L75,$M75,休日!$B$4:$B$306),"")</f>
+        <v/>
+      </c>
+      <c r="Q75" s="30"/>
+      <c r="R75" s="32" t="str">
         <f aca="false">IF(OR(AND($N75="",$L75&lt;&gt;"",$L75&lt;=$U$1),AND($M75&lt;&gt;"",Q75&lt;100,$M75&lt;=$U$1)),"遅延","")</f>
         <v/>
       </c>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="42"/>
-      <c r="V75" s="43"/>
-      <c r="W75" s="43"/>
-      <c r="X75" s="43"/>
-      <c r="Y75" s="43"/>
-      <c r="Z75" s="43"/>
-      <c r="AA75" s="43"/>
-      <c r="AB75" s="43"/>
-      <c r="AC75" s="43"/>
-      <c r="AD75" s="43"/>
-      <c r="AE75" s="43"/>
-      <c r="AF75" s="43"/>
-      <c r="AG75" s="43"/>
-      <c r="AH75" s="43"/>
-      <c r="AI75" s="43"/>
-      <c r="AJ75" s="43"/>
-      <c r="AK75" s="43"/>
-      <c r="AL75" s="43"/>
-      <c r="AM75" s="43"/>
-      <c r="AN75" s="43"/>
-      <c r="AO75" s="43"/>
-      <c r="AP75" s="43"/>
-      <c r="AQ75" s="43"/>
-      <c r="AR75" s="43"/>
+      <c r="S75" s="33"/>
+      <c r="T75" s="33" t="n">
+        <f aca="false">SUM($V75:$AR75)</f>
+        <v>0</v>
+      </c>
+      <c r="U75" s="34"/>
+      <c r="V75" s="25"/>
+      <c r="W75" s="26"/>
+      <c r="X75" s="26"/>
+      <c r="Y75" s="26"/>
+      <c r="Z75" s="26"/>
+      <c r="AA75" s="26"/>
+      <c r="AB75" s="26"/>
+      <c r="AC75" s="26"/>
+      <c r="AD75" s="26"/>
+      <c r="AE75" s="26"/>
+      <c r="AF75" s="26"/>
+      <c r="AG75" s="26"/>
+      <c r="AH75" s="26"/>
+      <c r="AI75" s="26"/>
+      <c r="AJ75" s="26"/>
+      <c r="AK75" s="26"/>
+      <c r="AL75" s="26"/>
+      <c r="AM75" s="26"/>
+      <c r="AN75" s="26"/>
+      <c r="AO75" s="26"/>
+      <c r="AP75" s="26"/>
+      <c r="AQ75" s="26"/>
+      <c r="AR75" s="26"/>
     </row>
     <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="19"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="45"/>
-      <c r="P76" s="30" t="str">
-        <f aca="false">IF($L76&lt;&gt;"",NETWORKDAYS($L76,$M76,休日!$B$4:$B$306),"")</f>
-        <v/>
-      </c>
-      <c r="Q76" s="46"/>
-      <c r="R76" s="32" t="str">
+      <c r="C76" s="38"/>
+      <c r="D76" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40" t="str">
         <f aca="false">IF(OR(AND($N76="",$L76&lt;&gt;"",$L76&lt;=$U$1),AND($M76&lt;&gt;"",Q76&lt;100,$M76&lt;=$U$1)),"遅延","")</f>
         <v/>
       </c>
-      <c r="S76" s="32"/>
-      <c r="T76" s="32"/>
-      <c r="U76" s="47"/>
-      <c r="V76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,V$5:V$74)</f>
-        <v>0</v>
-      </c>
-      <c r="W76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,W$5:W$74)</f>
-        <v>0</v>
-      </c>
-      <c r="X76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,X$5:X$74)</f>
-        <v>0</v>
-      </c>
-      <c r="Y76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,Y$5:Y$74)</f>
-        <v>0</v>
-      </c>
-      <c r="Z76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,Z$5:Z$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AA76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AA$5:AA$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AB76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AB$5:AB$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AC76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AC$5:AC$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AD76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AD$5:AD$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AE76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AE$5:AE$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AF76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AF$5:AF$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AG76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AG$5:AG$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AH76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AH$5:AH$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AI76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AI$5:AI$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AJ$5:AJ$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AK76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AK$5:AK$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AL76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AL$5:AL$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AM76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AM$5:AM$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AN76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AN$5:AN$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AO76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AO$5:AO$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AP76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AP$5:AP$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AQ$5:AQ$74)</f>
-        <v>0</v>
-      </c>
-      <c r="AR76" s="48" t="n">
-        <f aca="false">SUMIF($J5:$J74,$J76,AR$5:AR$74)</f>
-        <v>0</v>
-      </c>
+      <c r="S76" s="40"/>
+      <c r="T76" s="40"/>
+      <c r="U76" s="42"/>
+      <c r="V76" s="43"/>
+      <c r="W76" s="43"/>
+      <c r="X76" s="43"/>
+      <c r="Y76" s="43"/>
+      <c r="Z76" s="43"/>
+      <c r="AA76" s="43"/>
+      <c r="AB76" s="43"/>
+      <c r="AC76" s="43"/>
+      <c r="AD76" s="43"/>
+      <c r="AE76" s="43"/>
+      <c r="AF76" s="43"/>
+      <c r="AG76" s="43"/>
+      <c r="AH76" s="43"/>
+      <c r="AI76" s="43"/>
+      <c r="AJ76" s="43"/>
+      <c r="AK76" s="43"/>
+      <c r="AL76" s="43"/>
+      <c r="AM76" s="43"/>
+      <c r="AN76" s="43"/>
+      <c r="AO76" s="43"/>
+      <c r="AP76" s="43"/>
+      <c r="AQ76" s="43"/>
+      <c r="AR76" s="43"/>
     </row>
     <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="19"/>
@@ -6805,95 +6796,95 @@
       <c r="T77" s="32"/>
       <c r="U77" s="47"/>
       <c r="V77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,V$5:V$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,V$5:V$75)</f>
         <v>0</v>
       </c>
       <c r="W77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,W$5:W$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,W$5:W$75)</f>
         <v>0</v>
       </c>
       <c r="X77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,X$5:X$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,X$5:X$75)</f>
         <v>0</v>
       </c>
       <c r="Y77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,Y$5:Y$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,Y$5:Y$75)</f>
         <v>0</v>
       </c>
       <c r="Z77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,Z$5:Z$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,Z$5:Z$75)</f>
         <v>0</v>
       </c>
       <c r="AA77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AA$5:AA$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AA$5:AA$75)</f>
         <v>0</v>
       </c>
       <c r="AB77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AB$5:AB$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AB$5:AB$75)</f>
         <v>0</v>
       </c>
       <c r="AC77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AC$5:AC$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AC$5:AC$75)</f>
         <v>0</v>
       </c>
       <c r="AD77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AD$5:AD$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AD$5:AD$75)</f>
         <v>0</v>
       </c>
       <c r="AE77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AE$5:AE$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AE$5:AE$75)</f>
         <v>0</v>
       </c>
       <c r="AF77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AF$5:AF$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AF$5:AF$75)</f>
         <v>0</v>
       </c>
       <c r="AG77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AG$5:AG$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AG$5:AG$75)</f>
         <v>0</v>
       </c>
       <c r="AH77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AH$5:AH$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AH$5:AH$75)</f>
         <v>0</v>
       </c>
       <c r="AI77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AI$5:AI$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AI$5:AI$75)</f>
         <v>0</v>
       </c>
       <c r="AJ77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AJ$5:AJ$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AJ$5:AJ$75)</f>
         <v>0</v>
       </c>
       <c r="AK77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AK$5:AK$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AK$5:AK$75)</f>
         <v>0</v>
       </c>
       <c r="AL77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AL$5:AL$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AL$5:AL$75)</f>
         <v>0</v>
       </c>
       <c r="AM77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AM$5:AM$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AM$5:AM$75)</f>
         <v>0</v>
       </c>
       <c r="AN77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AN$5:AN$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AN$5:AN$75)</f>
         <v>0</v>
       </c>
       <c r="AO77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AO$5:AO$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AO$5:AO$75)</f>
         <v>0</v>
       </c>
       <c r="AP77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AP$5:AP$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AP$5:AP$75)</f>
         <v>0</v>
       </c>
       <c r="AQ77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AQ$5:AQ$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AQ$5:AQ$75)</f>
         <v>0</v>
       </c>
       <c r="AR77" s="48" t="n">
-        <f aca="false">SUMIF($J6:$J75,$J77,AR$5:AR$74)</f>
+        <f aca="false">SUMIF($J5:$J75,$J77,AR$5:AR$75)</f>
         <v>0</v>
       </c>
     </row>
@@ -6925,95 +6916,95 @@
       <c r="T78" s="32"/>
       <c r="U78" s="47"/>
       <c r="V78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,V$5:V$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,V$5:V$75)</f>
         <v>0</v>
       </c>
       <c r="W78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,W$5:W$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,W$5:W$75)</f>
         <v>0</v>
       </c>
       <c r="X78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,X$5:X$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,X$5:X$75)</f>
         <v>0</v>
       </c>
       <c r="Y78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,Y$5:Y$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,Y$5:Y$75)</f>
         <v>0</v>
       </c>
       <c r="Z78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,Z$5:Z$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,Z$5:Z$75)</f>
         <v>0</v>
       </c>
       <c r="AA78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AA$5:AA$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AA$5:AA$75)</f>
         <v>0</v>
       </c>
       <c r="AB78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AB$5:AB$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AB$5:AB$75)</f>
         <v>0</v>
       </c>
       <c r="AC78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AC$5:AC$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AC$5:AC$75)</f>
         <v>0</v>
       </c>
       <c r="AD78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AD$5:AD$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AD$5:AD$75)</f>
         <v>0</v>
       </c>
       <c r="AE78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AE$5:AE$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AE$5:AE$75)</f>
         <v>0</v>
       </c>
       <c r="AF78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AF$5:AF$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AF$5:AF$75)</f>
         <v>0</v>
       </c>
       <c r="AG78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AG$5:AG$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AG$5:AG$75)</f>
         <v>0</v>
       </c>
       <c r="AH78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AH$5:AH$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AH$5:AH$75)</f>
         <v>0</v>
       </c>
       <c r="AI78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AI$5:AI$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AI$5:AI$75)</f>
         <v>0</v>
       </c>
       <c r="AJ78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AJ$5:AJ$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AJ$5:AJ$75)</f>
         <v>0</v>
       </c>
       <c r="AK78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AK$5:AK$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AK$5:AK$75)</f>
         <v>0</v>
       </c>
       <c r="AL78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AL$5:AL$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AL$5:AL$75)</f>
         <v>0</v>
       </c>
       <c r="AM78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AM$5:AM$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AM$5:AM$75)</f>
         <v>0</v>
       </c>
       <c r="AN78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AN$5:AN$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AN$5:AN$75)</f>
         <v>0</v>
       </c>
       <c r="AO78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AO$5:AO$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AO$5:AO$75)</f>
         <v>0</v>
       </c>
       <c r="AP78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AP$5:AP$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AP$5:AP$75)</f>
         <v>0</v>
       </c>
       <c r="AQ78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AQ$5:AQ$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AQ$5:AQ$75)</f>
         <v>0</v>
       </c>
       <c r="AR78" s="48" t="n">
-        <f aca="false">SUMIF($J7:$J76,$J78,AR$5:AR$74)</f>
+        <f aca="false">SUMIF($J6:$J76,$J78,AR$5:AR$75)</f>
         <v>0</v>
       </c>
     </row>
@@ -7045,95 +7036,95 @@
       <c r="T79" s="32"/>
       <c r="U79" s="47"/>
       <c r="V79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,V$5:V$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,V$5:V$75)</f>
         <v>0</v>
       </c>
       <c r="W79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,W$5:W$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,W$5:W$75)</f>
         <v>0</v>
       </c>
       <c r="X79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,X$5:X$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,X$5:X$75)</f>
         <v>0</v>
       </c>
       <c r="Y79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,Y$5:Y$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,Y$5:Y$75)</f>
         <v>0</v>
       </c>
       <c r="Z79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,Z$5:Z$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,Z$5:Z$75)</f>
         <v>0</v>
       </c>
       <c r="AA79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AA$5:AA$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AA$5:AA$75)</f>
         <v>0</v>
       </c>
       <c r="AB79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AB$5:AB$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AB$5:AB$75)</f>
         <v>0</v>
       </c>
       <c r="AC79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AC$5:AC$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AC$5:AC$75)</f>
         <v>0</v>
       </c>
       <c r="AD79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AD$5:AD$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AD$5:AD$75)</f>
         <v>0</v>
       </c>
       <c r="AE79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AE$5:AE$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AE$5:AE$75)</f>
         <v>0</v>
       </c>
       <c r="AF79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AF$5:AF$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AF$5:AF$75)</f>
         <v>0</v>
       </c>
       <c r="AG79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AG$5:AG$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AG$5:AG$75)</f>
         <v>0</v>
       </c>
       <c r="AH79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AH$5:AH$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AH$5:AH$75)</f>
         <v>0</v>
       </c>
       <c r="AI79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AI$5:AI$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AI$5:AI$75)</f>
         <v>0</v>
       </c>
       <c r="AJ79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AJ$5:AJ$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AJ$5:AJ$75)</f>
         <v>0</v>
       </c>
       <c r="AK79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AK$5:AK$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AK$5:AK$75)</f>
         <v>0</v>
       </c>
       <c r="AL79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AL$5:AL$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AL$5:AL$75)</f>
         <v>0</v>
       </c>
       <c r="AM79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AM$5:AM$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AM$5:AM$75)</f>
         <v>0</v>
       </c>
       <c r="AN79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AN$5:AN$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AN$5:AN$75)</f>
         <v>0</v>
       </c>
       <c r="AO79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AO$5:AO$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AO$5:AO$75)</f>
         <v>0</v>
       </c>
       <c r="AP79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AP$5:AP$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AP$5:AP$75)</f>
         <v>0</v>
       </c>
       <c r="AQ79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AQ$5:AQ$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AQ$5:AQ$75)</f>
         <v>0</v>
       </c>
       <c r="AR79" s="48" t="n">
-        <f aca="false">SUMIF($J8:$J77,$J79,AR$5:AR$74)</f>
+        <f aca="false">SUMIF($J7:$J77,$J79,AR$5:AR$75)</f>
         <v>0</v>
       </c>
     </row>
@@ -7165,95 +7156,95 @@
       <c r="T80" s="32"/>
       <c r="U80" s="47"/>
       <c r="V80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,V$5:V$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,V$5:V$75)</f>
         <v>0</v>
       </c>
       <c r="W80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,W$5:W$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,W$5:W$75)</f>
         <v>0</v>
       </c>
       <c r="X80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,X$5:X$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,X$5:X$75)</f>
         <v>0</v>
       </c>
       <c r="Y80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,Y$5:Y$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,Y$5:Y$75)</f>
         <v>0</v>
       </c>
       <c r="Z80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,Z$5:Z$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,Z$5:Z$75)</f>
         <v>0</v>
       </c>
       <c r="AA80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AA$5:AA$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AA$5:AA$75)</f>
         <v>0</v>
       </c>
       <c r="AB80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AB$5:AB$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AB$5:AB$75)</f>
         <v>0</v>
       </c>
       <c r="AC80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AC$5:AC$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AC$5:AC$75)</f>
         <v>0</v>
       </c>
       <c r="AD80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AD$5:AD$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AD$5:AD$75)</f>
         <v>0</v>
       </c>
       <c r="AE80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AE$5:AE$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AE$5:AE$75)</f>
         <v>0</v>
       </c>
       <c r="AF80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AF$5:AF$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AF$5:AF$75)</f>
         <v>0</v>
       </c>
       <c r="AG80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AG$5:AG$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AG$5:AG$75)</f>
         <v>0</v>
       </c>
       <c r="AH80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AH$5:AH$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AH$5:AH$75)</f>
         <v>0</v>
       </c>
       <c r="AI80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AI$5:AI$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AI$5:AI$75)</f>
         <v>0</v>
       </c>
       <c r="AJ80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AJ$5:AJ$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AJ$5:AJ$75)</f>
         <v>0</v>
       </c>
       <c r="AK80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AK$5:AK$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AK$5:AK$75)</f>
         <v>0</v>
       </c>
       <c r="AL80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AL$5:AL$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AL$5:AL$75)</f>
         <v>0</v>
       </c>
       <c r="AM80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AM$5:AM$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AM$5:AM$75)</f>
         <v>0</v>
       </c>
       <c r="AN80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AN$5:AN$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AN$5:AN$75)</f>
         <v>0</v>
       </c>
       <c r="AO80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AO$5:AO$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AO$5:AO$75)</f>
         <v>0</v>
       </c>
       <c r="AP80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AP$5:AP$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AP$5:AP$75)</f>
         <v>0</v>
       </c>
       <c r="AQ80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AQ$5:AQ$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AQ$5:AQ$75)</f>
         <v>0</v>
       </c>
       <c r="AR80" s="48" t="n">
-        <f aca="false">SUMIF($J9:$J78,$J80,AR$5:AR$74)</f>
+        <f aca="false">SUMIF($J8:$J78,$J80,AR$5:AR$75)</f>
         <v>0</v>
       </c>
     </row>
@@ -7285,124 +7276,217 @@
       <c r="T81" s="32"/>
       <c r="U81" s="47"/>
       <c r="V81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,V$5:V$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,V$5:V$75)</f>
         <v>0</v>
       </c>
       <c r="W81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,W$5:W$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,W$5:W$75)</f>
         <v>0</v>
       </c>
       <c r="X81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,X$5:X$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,X$5:X$75)</f>
         <v>0</v>
       </c>
       <c r="Y81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,Y$5:Y$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,Y$5:Y$75)</f>
         <v>0</v>
       </c>
       <c r="Z81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,Z$5:Z$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,Z$5:Z$75)</f>
         <v>0</v>
       </c>
       <c r="AA81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AA$5:AA$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AA$5:AA$75)</f>
         <v>0</v>
       </c>
       <c r="AB81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AB$5:AB$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AB$5:AB$75)</f>
         <v>0</v>
       </c>
       <c r="AC81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AC$5:AC$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AC$5:AC$75)</f>
         <v>0</v>
       </c>
       <c r="AD81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AD$5:AD$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AD$5:AD$75)</f>
         <v>0</v>
       </c>
       <c r="AE81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AE$5:AE$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AE$5:AE$75)</f>
         <v>0</v>
       </c>
       <c r="AF81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AF$5:AF$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AF$5:AF$75)</f>
         <v>0</v>
       </c>
       <c r="AG81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AG$5:AG$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AG$5:AG$75)</f>
         <v>0</v>
       </c>
       <c r="AH81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AH$5:AH$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AH$5:AH$75)</f>
         <v>0</v>
       </c>
       <c r="AI81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AI$5:AI$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AI$5:AI$75)</f>
         <v>0</v>
       </c>
       <c r="AJ81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AJ$5:AJ$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AJ$5:AJ$75)</f>
         <v>0</v>
       </c>
       <c r="AK81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AK$5:AK$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AK$5:AK$75)</f>
         <v>0</v>
       </c>
       <c r="AL81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AL$5:AL$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AL$5:AL$75)</f>
         <v>0</v>
       </c>
       <c r="AM81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AM$5:AM$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AM$5:AM$75)</f>
         <v>0</v>
       </c>
       <c r="AN81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AN$5:AN$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AN$5:AN$75)</f>
         <v>0</v>
       </c>
       <c r="AO81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AO$5:AO$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AO$5:AO$75)</f>
         <v>0</v>
       </c>
       <c r="AP81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AP$5:AP$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AP$5:AP$75)</f>
         <v>0</v>
       </c>
       <c r="AQ81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AQ$5:AQ$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AQ$5:AQ$75)</f>
         <v>0</v>
       </c>
       <c r="AR81" s="48" t="n">
-        <f aca="false">SUMIF($J10:$J79,$J81,AR$5:AR$74)</f>
+        <f aca="false">SUMIF($J10:$J79,$J81,AR$5:AR$75)</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C82" s="3"/>
-      <c r="U82" s="49"/>
-      <c r="V82" s="50"/>
-      <c r="W82" s="50"/>
-      <c r="X82" s="50"/>
-      <c r="Y82" s="50"/>
-      <c r="Z82" s="50"/>
-      <c r="AA82" s="50"/>
-      <c r="AB82" s="50"/>
-      <c r="AC82" s="50"/>
-      <c r="AD82" s="50"/>
-      <c r="AE82" s="50"/>
-      <c r="AF82" s="50"/>
-      <c r="AG82" s="50"/>
-      <c r="AH82" s="50"/>
-      <c r="AI82" s="50"/>
-      <c r="AJ82" s="50"/>
-      <c r="AK82" s="50"/>
-      <c r="AL82" s="50"/>
-      <c r="AM82" s="50"/>
-      <c r="AN82" s="50"/>
-      <c r="AO82" s="50"/>
-      <c r="AP82" s="50"/>
-      <c r="AQ82" s="50"/>
-      <c r="AR82" s="50"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="45"/>
+      <c r="O82" s="45"/>
+      <c r="P82" s="30" t="str">
+        <f aca="false">IF($L82&lt;&gt;"",NETWORKDAYS($L82,$M82,休日!$B$4:$B$306),"")</f>
+        <v/>
+      </c>
+      <c r="Q82" s="46"/>
+      <c r="R82" s="32" t="str">
+        <f aca="false">IF(OR(AND($N82="",$L82&lt;&gt;"",$L82&lt;=$U$1),AND($M82&lt;&gt;"",Q82&lt;100,$M82&lt;=$U$1)),"遅延","")</f>
+        <v/>
+      </c>
+      <c r="S82" s="32"/>
+      <c r="T82" s="32"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,V$5:V$75)</f>
+        <v>0</v>
+      </c>
+      <c r="W82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,W$5:W$75)</f>
+        <v>0</v>
+      </c>
+      <c r="X82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,X$5:X$75)</f>
+        <v>0</v>
+      </c>
+      <c r="Y82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,Y$5:Y$75)</f>
+        <v>0</v>
+      </c>
+      <c r="Z82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,Z$5:Z$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AA82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AA$5:AA$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AB82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AB$5:AB$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AC82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AC$5:AC$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AD82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AD$5:AD$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AE82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AE$5:AE$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AF82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AF$5:AF$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AG82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AG$5:AG$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AH82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AH$5:AH$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AI82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AI$5:AI$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AJ$5:AJ$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AK82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AK$5:AK$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AL82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AL$5:AL$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AM82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AM$5:AM$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AN82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AN$5:AN$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AO82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AO$5:AO$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AP82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AP$5:AP$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AQ$5:AQ$75)</f>
+        <v>0</v>
+      </c>
+      <c r="AR82" s="48" t="n">
+        <f aca="false">SUMIF($J11:$J80,$J82,AR$5:AR$75)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C83" s="3"/>
@@ -31488,7 +31572,33 @@
       <c r="AQ974" s="50"/>
       <c r="AR974" s="50"/>
     </row>
-    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="975" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C975" s="3"/>
+      <c r="U975" s="49"/>
+      <c r="V975" s="50"/>
+      <c r="W975" s="50"/>
+      <c r="X975" s="50"/>
+      <c r="Y975" s="50"/>
+      <c r="Z975" s="50"/>
+      <c r="AA975" s="50"/>
+      <c r="AB975" s="50"/>
+      <c r="AC975" s="50"/>
+      <c r="AD975" s="50"/>
+      <c r="AE975" s="50"/>
+      <c r="AF975" s="50"/>
+      <c r="AG975" s="50"/>
+      <c r="AH975" s="50"/>
+      <c r="AI975" s="50"/>
+      <c r="AJ975" s="50"/>
+      <c r="AK975" s="50"/>
+      <c r="AL975" s="50"/>
+      <c r="AM975" s="50"/>
+      <c r="AN975" s="50"/>
+      <c r="AO975" s="50"/>
+      <c r="AP975" s="50"/>
+      <c r="AQ975" s="50"/>
+      <c r="AR975" s="50"/>
+    </row>
     <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -31713,21 +31823,21 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="C4:U81"/>
+  <autoFilter ref="C4:U82"/>
   <conditionalFormatting sqref="W2:AR4">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>ROUNDDOWN($U$1,0)=W$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V76:AR81">
-    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+  <conditionalFormatting sqref="V77:AR82">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
-      <formula>AND(V76&lt;&gt;0,V76&lt;8)</formula>
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+      <formula>AND(V77&lt;&gt;0,V77&lt;8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Q28 Q31:Q60 Q63:Q81">
+  <conditionalFormatting sqref="Q6:Q29 Q32:Q61 Q64:Q82">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -31737,13 +31847,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5:AR74">
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+  <conditionalFormatting sqref="V5:AR75">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>AND(#ref!="○",#ref!&lt;=V$1,V$1&lt;=#ref!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5:AR74">
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+  <conditionalFormatting sqref="V5:AR75">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>AND(#ref!&lt;&gt;"○",#ref!&lt;=V$1,V$1&lt;=#ref!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31757,7 +31867,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
+  <conditionalFormatting sqref="Q31">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -31767,7 +31877,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q62">
+  <conditionalFormatting sqref="Q63">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -31777,7 +31887,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q29">
+  <conditionalFormatting sqref="Q30">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -31787,7 +31897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q61">
+  <conditionalFormatting sqref="Q62">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -31810,7 +31920,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{A9B8C5EA-A058-425E-8B18-EA54E078F600}">
+          <x14:cfRule type="expression" priority="7" id="{9CBD919D-C6EA-45FB-96C3-EE32C2C0C197}">
             <xm:f>COUNTIF(休日!$B:$B,V$1)&gt;0</xm:f>
             <x14:dxf>
               <font>
@@ -31823,7 +31933,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V5:AR74</xm:sqref>
+          <xm:sqref>V5:AR75</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -31842,7 +31952,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
@@ -31854,26 +31964,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31881,10 +31991,10 @@
         <v>43831</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4" s="51" t="n">
         <v>43831</v>
@@ -31898,7 +32008,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="51" t="n">
         <v>43843</v>
@@ -31909,10 +32019,10 @@
         <v>43872</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" s="51" t="n">
         <v>43872</v>
@@ -31926,7 +32036,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="51" t="n">
         <v>43884</v>
@@ -31940,7 +32050,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="51" t="n">
         <v>43885</v>
@@ -31951,10 +32061,10 @@
         <v>43910</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" s="51" t="n">
         <v>43910</v>
@@ -31965,10 +32075,10 @@
         <v>43950</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E10" s="51" t="n">
         <v>43950</v>
@@ -31982,7 +32092,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" s="51" t="n">
         <v>43954</v>
@@ -31996,7 +32106,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12" s="51" t="n">
         <v>43955</v>
@@ -32007,10 +32117,10 @@
         <v>43956</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" s="51" t="n">
         <v>43956</v>
@@ -32021,10 +32131,10 @@
         <v>43957</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E14" s="51" t="n">
         <v>43957</v>
@@ -32035,10 +32145,10 @@
         <v>44035</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E15" s="51" t="n">
         <v>44035</v>
@@ -32049,10 +32159,10 @@
         <v>44036</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E16" s="51" t="n">
         <v>44036</v>
@@ -32066,7 +32176,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E17" s="51" t="n">
         <v>44053</v>
@@ -32080,7 +32190,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E18" s="51" t="n">
         <v>44095</v>
@@ -32091,10 +32201,10 @@
         <v>44096</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E19" s="51" t="n">
         <v>44096</v>
@@ -32105,10 +32215,10 @@
         <v>44138</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E20" s="51" t="n">
         <v>44138</v>
@@ -32122,7 +32232,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E21" s="51" t="n">
         <v>44158</v>
@@ -32133,10 +32243,10 @@
         <v>44197</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="51" t="n">
         <v>44197</v>
@@ -32150,7 +32260,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" s="51" t="n">
         <v>44207</v>
@@ -32161,10 +32271,10 @@
         <v>44238</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="51" t="n">
         <v>44238</v>
@@ -32175,10 +32285,10 @@
         <v>44250</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25" s="51" t="n">
         <v>44250</v>
@@ -32189,10 +32299,10 @@
         <v>44275</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E26" s="51" t="n">
         <v>44275</v>
@@ -32203,10 +32313,10 @@
         <v>44315</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" s="51" t="n">
         <v>44315</v>
@@ -32220,7 +32330,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E28" s="51" t="n">
         <v>44319</v>
@@ -32231,10 +32341,10 @@
         <v>44320</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E29" s="51" t="n">
         <v>44320</v>
@@ -32245,10 +32355,10 @@
         <v>44321</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E30" s="51" t="n">
         <v>44321</v>
@@ -32262,7 +32372,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="51" t="n">
         <v>44396</v>
@@ -32273,10 +32383,10 @@
         <v>44419</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" s="51" t="n">
         <v>44419</v>
@@ -32290,7 +32400,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E33" s="51" t="n">
         <v>44459</v>
@@ -32301,10 +32411,10 @@
         <v>44462</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E34" s="51" t="n">
         <v>44462</v>
@@ -32318,7 +32428,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E35" s="51" t="n">
         <v>44480</v>
@@ -32329,10 +32439,10 @@
         <v>44503</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E36" s="51" t="n">
         <v>44503</v>
@@ -32343,10 +32453,10 @@
         <v>44523</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D37" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E37" s="51" t="n">
         <v>44523</v>
@@ -32357,10 +32467,10 @@
         <v>44562</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E38" s="51" t="n">
         <v>44562</v>
@@ -32374,7 +32484,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E39" s="51" t="n">
         <v>44571</v>
@@ -32385,10 +32495,10 @@
         <v>44603</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D40" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" s="51" t="n">
         <v>44603</v>
@@ -32399,10 +32509,10 @@
         <v>44615</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D41" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E41" s="51" t="n">
         <v>44615</v>
@@ -32416,7 +32526,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="51" t="n">
         <v>44641</v>
@@ -32427,10 +32537,10 @@
         <v>44680</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D43" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E43" s="51" t="n">
         <v>44680</v>
@@ -32441,10 +32551,10 @@
         <v>44684</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D44" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E44" s="51" t="n">
         <v>44684</v>
@@ -32455,10 +32565,10 @@
         <v>44685</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D45" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" s="51" t="n">
         <v>44685</v>
@@ -32469,10 +32579,10 @@
         <v>44686</v>
       </c>
       <c r="C46" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="53" t="s">
         <v>90</v>
-      </c>
-      <c r="D46" s="53" t="s">
-        <v>89</v>
       </c>
       <c r="E46" s="51" t="n">
         <v>44686</v>
@@ -32486,7 +32596,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="51" t="n">
         <v>44760</v>
@@ -32497,10 +32607,10 @@
         <v>44784</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D48" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E48" s="51" t="n">
         <v>44784</v>
@@ -32514,7 +32624,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E49" s="51" t="n">
         <v>44823</v>
@@ -32525,10 +32635,10 @@
         <v>44827</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E50" s="51" t="n">
         <v>44827</v>
@@ -32542,7 +32652,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E51" s="51" t="n">
         <v>44844</v>
@@ -32553,10 +32663,10 @@
         <v>44868</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E52" s="51" t="n">
         <v>44868</v>
@@ -32567,10 +32677,10 @@
         <v>44888</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D53" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E53" s="51" t="n">
         <v>44888</v>
@@ -32584,7 +32694,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E54" s="51" t="n">
         <v>44927</v>
@@ -32598,7 +32708,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E55" s="51" t="n">
         <v>44928</v>
@@ -32612,7 +32722,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E56" s="51" t="n">
         <v>44935</v>
@@ -32623,10 +32733,10 @@
         <v>44968</v>
       </c>
       <c r="C57" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D57" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E57" s="51" t="n">
         <v>44968</v>
@@ -32637,10 +32747,10 @@
         <v>44980</v>
       </c>
       <c r="C58" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D58" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E58" s="51" t="n">
         <v>44980</v>
@@ -32651,10 +32761,10 @@
         <v>45006</v>
       </c>
       <c r="C59" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D59" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E59" s="51" t="n">
         <v>45006</v>
@@ -32665,10 +32775,10 @@
         <v>45045</v>
       </c>
       <c r="C60" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D60" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E60" s="51" t="n">
         <v>45045</v>
@@ -32679,10 +32789,10 @@
         <v>45049</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E61" s="51" t="n">
         <v>45049</v>
@@ -32693,10 +32803,10 @@
         <v>45050</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E62" s="51" t="n">
         <v>45050</v>
@@ -32707,10 +32817,10 @@
         <v>45051</v>
       </c>
       <c r="C63" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D63" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63" s="51" t="n">
         <v>45051</v>
@@ -32724,7 +32834,7 @@
         <v>0</v>
       </c>
       <c r="D64" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="51" t="n">
         <v>45124</v>
@@ -32735,10 +32845,10 @@
         <v>45149</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65" s="51" t="n">
         <v>45149</v>
@@ -32752,7 +32862,7 @@
         <v>0</v>
       </c>
       <c r="D66" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="51" t="n">
         <v>45187</v>
@@ -32763,10 +32873,10 @@
         <v>45192</v>
       </c>
       <c r="C67" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D67" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E67" s="51" t="n">
         <v>45192</v>
@@ -32780,7 +32890,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E68" s="51" t="n">
         <v>45208</v>
@@ -32791,10 +32901,10 @@
         <v>45233</v>
       </c>
       <c r="C69" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D69" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E69" s="51" t="n">
         <v>45233</v>
@@ -32805,10 +32915,10 @@
         <v>45253</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E70" s="51" t="n">
         <v>45253</v>
@@ -32822,7 +32932,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E71" s="51" t="n">
         <v>45292</v>
@@ -32836,7 +32946,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E72" s="51" t="n">
         <v>45299</v>
@@ -32850,7 +32960,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E73" s="51" t="n">
         <v>45333</v>
@@ -32864,7 +32974,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E74" s="51" t="n">
         <v>45334</v>
@@ -32875,10 +32985,10 @@
         <v>45345</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D75" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E75" s="51" t="n">
         <v>45345</v>
@@ -32889,10 +32999,10 @@
         <v>45371</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D76" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E76" s="51" t="n">
         <v>45371</v>
@@ -32906,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E77" s="51" t="n">
         <v>45411</v>
@@ -32917,10 +33027,10 @@
         <v>45415</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D78" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E78" s="51" t="n">
         <v>45415</v>
@@ -32931,10 +33041,10 @@
         <v>45416</v>
       </c>
       <c r="C79" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D79" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E79" s="51" t="n">
         <v>45416</v>
@@ -32948,7 +33058,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E80" s="51" t="n">
         <v>45417</v>
@@ -32962,7 +33072,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E81" s="51" t="n">
         <v>45418</v>
@@ -32976,7 +33086,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E82" s="51" t="n">
         <v>45488</v>
@@ -32990,7 +33100,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E83" s="51" t="n">
         <v>45515</v>
@@ -33004,7 +33114,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E84" s="51" t="n">
         <v>45516</v>
@@ -33018,7 +33128,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E85" s="51" t="n">
         <v>45551</v>
@@ -33032,7 +33142,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E86" s="51" t="n">
         <v>45557</v>
@@ -33046,7 +33156,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E87" s="51" t="n">
         <v>45558</v>
@@ -33060,7 +33170,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E88" s="51" t="n">
         <v>45579</v>
@@ -33074,7 +33184,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" s="51" t="n">
         <v>45599</v>
@@ -33088,7 +33198,7 @@
         <v>0</v>
       </c>
       <c r="D90" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E90" s="51" t="n">
         <v>45600</v>
@@ -33099,10 +33209,10 @@
         <v>45619</v>
       </c>
       <c r="C91" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" s="53" t="s">
         <v>98</v>
-      </c>
-      <c r="D91" s="53" t="s">
-        <v>97</v>
       </c>
       <c r="E91" s="51" t="n">
         <v>45619</v>
@@ -33113,10 +33223,10 @@
         <v>45658</v>
       </c>
       <c r="C92" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D92" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E92" s="51" t="n">
         <v>45658</v>
@@ -33130,7 +33240,7 @@
         <v>0</v>
       </c>
       <c r="D93" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E93" s="51" t="n">
         <v>45670</v>
@@ -33141,10 +33251,10 @@
         <v>45699</v>
       </c>
       <c r="C94" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D94" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E94" s="51" t="n">
         <v>45699</v>
@@ -33158,7 +33268,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E95" s="51" t="n">
         <v>45711</v>
@@ -33172,7 +33282,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E96" s="51" t="n">
         <v>45712</v>
@@ -33183,10 +33293,10 @@
         <v>45736</v>
       </c>
       <c r="C97" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D97" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E97" s="51" t="n">
         <v>45736</v>
@@ -33197,10 +33307,10 @@
         <v>45776</v>
       </c>
       <c r="C98" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D98" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E98" s="51" t="n">
         <v>45776</v>
@@ -33211,10 +33321,10 @@
         <v>45780</v>
       </c>
       <c r="C99" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D99" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E99" s="51" t="n">
         <v>45780</v>
@@ -33228,7 +33338,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E100" s="51" t="n">
         <v>45781</v>
@@ -33242,7 +33352,7 @@
         <v>0</v>
       </c>
       <c r="D101" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E101" s="51" t="n">
         <v>45782</v>
@@ -33253,10 +33363,10 @@
         <v>45783</v>
       </c>
       <c r="C102" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D102" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E102" s="51" t="n">
         <v>45783</v>
@@ -33270,7 +33380,7 @@
         <v>0</v>
       </c>
       <c r="D103" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E103" s="51" t="n">
         <v>45859</v>
@@ -33284,7 +33394,7 @@
         <v>0</v>
       </c>
       <c r="D104" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E104" s="51" t="n">
         <v>45880</v>
@@ -33298,7 +33408,7 @@
         <v>0</v>
       </c>
       <c r="D105" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E105" s="51" t="n">
         <v>45915</v>
@@ -33309,10 +33419,10 @@
         <v>45923</v>
       </c>
       <c r="C106" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D106" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E106" s="51" t="n">
         <v>45923</v>
@@ -33326,7 +33436,7 @@
         <v>0</v>
       </c>
       <c r="D107" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E107" s="51" t="n">
         <v>45943</v>
@@ -33340,7 +33450,7 @@
         <v>0</v>
       </c>
       <c r="D108" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E108" s="51" t="n">
         <v>45964</v>
@@ -33354,7 +33464,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E109" s="51" t="n">
         <v>45984</v>
@@ -33368,7 +33478,7 @@
         <v>0</v>
       </c>
       <c r="D110" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E110" s="51" t="n">
         <v>45985</v>
@@ -33379,10 +33489,10 @@
         <v>46023</v>
       </c>
       <c r="C111" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D111" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E111" s="51" t="n">
         <v>46023</v>
@@ -33396,7 +33506,7 @@
         <v>0</v>
       </c>
       <c r="D112" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E112" s="51" t="n">
         <v>46034</v>
@@ -33407,10 +33517,10 @@
         <v>46064</v>
       </c>
       <c r="C113" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D113" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E113" s="51" t="n">
         <v>46064</v>
@@ -33424,7 +33534,7 @@
         <v>0</v>
       </c>
       <c r="D114" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E114" s="51" t="n">
         <v>46076</v>
@@ -33435,10 +33545,10 @@
         <v>46101</v>
       </c>
       <c r="C115" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D115" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E115" s="51" t="n">
         <v>46101</v>
@@ -33449,10 +33559,10 @@
         <v>46141</v>
       </c>
       <c r="C116" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D116" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E116" s="51" t="n">
         <v>46141</v>
@@ -33466,7 +33576,7 @@
         <v>1</v>
       </c>
       <c r="D117" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E117" s="51" t="n">
         <v>46145</v>
@@ -33480,7 +33590,7 @@
         <v>0</v>
       </c>
       <c r="D118" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E118" s="51" t="n">
         <v>46146</v>
@@ -33491,10 +33601,10 @@
         <v>46147</v>
       </c>
       <c r="C119" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D119" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E119" s="51" t="n">
         <v>46147</v>
@@ -33505,10 +33615,10 @@
         <v>46148</v>
       </c>
       <c r="C120" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D120" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E120" s="51" t="n">
         <v>46148</v>
@@ -33522,7 +33632,7 @@
         <v>0</v>
       </c>
       <c r="D121" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E121" s="51" t="n">
         <v>46223</v>
@@ -33533,10 +33643,10 @@
         <v>46245</v>
       </c>
       <c r="C122" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D122" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E122" s="51" t="n">
         <v>46245</v>
@@ -33550,7 +33660,7 @@
         <v>0</v>
       </c>
       <c r="D123" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E123" s="51" t="n">
         <v>46286</v>
@@ -33561,10 +33671,10 @@
         <v>46287</v>
       </c>
       <c r="C124" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D124" s="53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E124" s="51" t="n">
         <v>46287</v>
@@ -33575,10 +33685,10 @@
         <v>46288</v>
       </c>
       <c r="C125" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D125" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E125" s="51" t="n">
         <v>46288</v>
@@ -33592,7 +33702,7 @@
         <v>0</v>
       </c>
       <c r="D126" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E126" s="51" t="n">
         <v>46307</v>
@@ -33603,10 +33713,10 @@
         <v>46329</v>
       </c>
       <c r="C127" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D127" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E127" s="51" t="n">
         <v>46329</v>
@@ -33620,7 +33730,7 @@
         <v>0</v>
       </c>
       <c r="D128" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E128" s="51" t="n">
         <v>46349</v>
@@ -33631,10 +33741,10 @@
         <v>46388</v>
       </c>
       <c r="C129" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D129" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E129" s="51" t="n">
         <v>46388</v>
@@ -33648,7 +33758,7 @@
         <v>0</v>
       </c>
       <c r="D130" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E130" s="51" t="n">
         <v>46398</v>
@@ -33659,10 +33769,10 @@
         <v>46429</v>
       </c>
       <c r="C131" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D131" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E131" s="51" t="n">
         <v>46429</v>
@@ -33673,10 +33783,10 @@
         <v>46441</v>
       </c>
       <c r="C132" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D132" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E132" s="51" t="n">
         <v>46441</v>
@@ -33690,7 +33800,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E133" s="51" t="n">
         <v>46467</v>
@@ -33704,7 +33814,7 @@
         <v>0</v>
       </c>
       <c r="D134" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E134" s="51" t="n">
         <v>46468</v>
@@ -33715,10 +33825,10 @@
         <v>46506</v>
       </c>
       <c r="C135" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D135" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E135" s="51" t="n">
         <v>46506</v>
@@ -33732,7 +33842,7 @@
         <v>0</v>
       </c>
       <c r="D136" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E136" s="51" t="n">
         <v>46510</v>
@@ -33743,10 +33853,10 @@
         <v>46511</v>
       </c>
       <c r="C137" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D137" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E137" s="51" t="n">
         <v>46511</v>
@@ -33757,10 +33867,10 @@
         <v>46512</v>
       </c>
       <c r="C138" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D138" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E138" s="51" t="n">
         <v>46512</v>
@@ -33774,7 +33884,7 @@
         <v>0</v>
       </c>
       <c r="D139" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E139" s="51" t="n">
         <v>46587</v>
@@ -33785,10 +33895,10 @@
         <v>46610</v>
       </c>
       <c r="C140" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D140" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E140" s="51" t="n">
         <v>46610</v>
@@ -33802,7 +33912,7 @@
         <v>0</v>
       </c>
       <c r="D141" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E141" s="51" t="n">
         <v>46650</v>
@@ -33813,10 +33923,10 @@
         <v>46653</v>
       </c>
       <c r="C142" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D142" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E142" s="51" t="n">
         <v>46653</v>
@@ -33830,7 +33940,7 @@
         <v>0</v>
       </c>
       <c r="D143" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E143" s="51" t="n">
         <v>46671</v>
@@ -33841,10 +33951,10 @@
         <v>46694</v>
       </c>
       <c r="C144" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D144" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E144" s="51" t="n">
         <v>46694</v>
@@ -33855,10 +33965,10 @@
         <v>46714</v>
       </c>
       <c r="C145" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D145" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E145" s="51" t="n">
         <v>46714</v>
@@ -33869,10 +33979,10 @@
         <v>46753</v>
       </c>
       <c r="C146" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D146" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E146" s="51" t="n">
         <v>46753</v>
@@ -33886,7 +33996,7 @@
         <v>0</v>
       </c>
       <c r="D147" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E147" s="51" t="n">
         <v>46762</v>
@@ -33897,10 +34007,10 @@
         <v>46794</v>
       </c>
       <c r="C148" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D148" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E148" s="51" t="n">
         <v>46794</v>
@@ -33911,10 +34021,10 @@
         <v>46806</v>
       </c>
       <c r="C149" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D149" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E149" s="51" t="n">
         <v>46806</v>
@@ -33928,7 +34038,7 @@
         <v>0</v>
       </c>
       <c r="D150" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E150" s="51" t="n">
         <v>46832</v>
@@ -33939,10 +34049,10 @@
         <v>46872</v>
       </c>
       <c r="C151" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D151" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E151" s="51" t="n">
         <v>46872</v>
@@ -33953,10 +34063,10 @@
         <v>46876</v>
       </c>
       <c r="C152" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D152" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E152" s="51" t="n">
         <v>46876</v>
@@ -33967,10 +34077,10 @@
         <v>46877</v>
       </c>
       <c r="C153" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D153" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E153" s="51" t="n">
         <v>46877</v>
@@ -33981,10 +34091,10 @@
         <v>46878</v>
       </c>
       <c r="C154" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D154" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E154" s="51" t="n">
         <v>46878</v>
@@ -33998,7 +34108,7 @@
         <v>0</v>
       </c>
       <c r="D155" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E155" s="51" t="n">
         <v>46951</v>
@@ -34009,10 +34119,10 @@
         <v>46976</v>
       </c>
       <c r="C156" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D156" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E156" s="51" t="n">
         <v>46976</v>
@@ -34026,7 +34136,7 @@
         <v>0</v>
       </c>
       <c r="D157" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E157" s="51" t="n">
         <v>47014</v>
@@ -34037,10 +34147,10 @@
         <v>47018</v>
       </c>
       <c r="C158" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D158" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E158" s="51" t="n">
         <v>47018</v>
@@ -34054,7 +34164,7 @@
         <v>0</v>
       </c>
       <c r="D159" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E159" s="51" t="n">
         <v>47035</v>
@@ -34065,10 +34175,10 @@
         <v>47060</v>
       </c>
       <c r="C160" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D160" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E160" s="51" t="n">
         <v>47060</v>
@@ -34079,10 +34189,10 @@
         <v>47080</v>
       </c>
       <c r="C161" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D161" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E161" s="51" t="n">
         <v>47080</v>
@@ -34096,7 +34206,7 @@
         <v>0</v>
       </c>
       <c r="D162" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E162" s="51" t="n">
         <v>47119</v>
@@ -34110,7 +34220,7 @@
         <v>0</v>
       </c>
       <c r="D163" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E163" s="51" t="n">
         <v>47126</v>
@@ -34124,7 +34234,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E164" s="51" t="n">
         <v>47160</v>
@@ -34138,7 +34248,7 @@
         <v>0</v>
       </c>
       <c r="D165" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E165" s="51" t="n">
         <v>47161</v>
@@ -34149,10 +34259,10 @@
         <v>47172</v>
       </c>
       <c r="C166" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D166" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E166" s="51" t="n">
         <v>47172</v>
@@ -34163,10 +34273,10 @@
         <v>47197</v>
       </c>
       <c r="C167" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D167" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E167" s="51" t="n">
         <v>47197</v>
@@ -34180,7 +34290,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E168" s="51" t="n">
         <v>47237</v>
@@ -34194,7 +34304,7 @@
         <v>0</v>
       </c>
       <c r="D169" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E169" s="51" t="n">
         <v>47238</v>
@@ -34205,10 +34315,10 @@
         <v>47241</v>
       </c>
       <c r="C170" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D170" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E170" s="51" t="n">
         <v>47241</v>
@@ -34219,10 +34329,10 @@
         <v>47242</v>
       </c>
       <c r="C171" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D171" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E171" s="51" t="n">
         <v>47242</v>
@@ -34233,10 +34343,10 @@
         <v>47243</v>
       </c>
       <c r="C172" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D172" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E172" s="51" t="n">
         <v>47243</v>
@@ -34250,7 +34360,7 @@
         <v>0</v>
       </c>
       <c r="D173" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E173" s="51" t="n">
         <v>47315</v>
@@ -34261,10 +34371,10 @@
         <v>47341</v>
       </c>
       <c r="C174" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D174" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E174" s="51" t="n">
         <v>47341</v>
@@ -34278,7 +34388,7 @@
         <v>0</v>
       </c>
       <c r="D175" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E175" s="51" t="n">
         <v>47378</v>
@@ -34292,7 +34402,7 @@
         <v>1</v>
       </c>
       <c r="D176" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E176" s="51" t="n">
         <v>47384</v>
@@ -34306,7 +34416,7 @@
         <v>0</v>
       </c>
       <c r="D177" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E177" s="51" t="n">
         <v>47385</v>
@@ -34320,7 +34430,7 @@
         <v>0</v>
       </c>
       <c r="D178" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E178" s="51" t="n">
         <v>47399</v>
@@ -34331,10 +34441,10 @@
         <v>47425</v>
       </c>
       <c r="C179" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D179" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E179" s="51" t="n">
         <v>47425</v>
@@ -34345,10 +34455,10 @@
         <v>47445</v>
       </c>
       <c r="C180" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D180" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E180" s="51" t="n">
         <v>47445</v>
@@ -34359,10 +34469,10 @@
         <v>47484</v>
       </c>
       <c r="C181" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D181" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E181" s="51" t="n">
         <v>47484</v>
@@ -34376,7 +34486,7 @@
         <v>0</v>
       </c>
       <c r="D182" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E182" s="51" t="n">
         <v>47497</v>
@@ -34390,7 +34500,7 @@
         <v>0</v>
       </c>
       <c r="D183" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E183" s="51" t="n">
         <v>47525</v>
@@ -34401,10 +34511,10 @@
         <v>47537</v>
       </c>
       <c r="C184" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D184" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E184" s="51" t="n">
         <v>47537</v>
@@ -34415,10 +34525,10 @@
         <v>47562</v>
       </c>
       <c r="C185" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D185" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E185" s="51" t="n">
         <v>47562</v>
@@ -34432,7 +34542,7 @@
         <v>0</v>
       </c>
       <c r="D186" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E186" s="51" t="n">
         <v>47602</v>
@@ -34443,10 +34553,10 @@
         <v>47606</v>
       </c>
       <c r="C187" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D187" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E187" s="51" t="n">
         <v>47606</v>
@@ -34457,10 +34567,10 @@
         <v>47607</v>
       </c>
       <c r="C188" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D188" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E188" s="51" t="n">
         <v>47607</v>
@@ -34474,7 +34584,7 @@
         <v>1</v>
       </c>
       <c r="D189" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E189" s="51" t="n">
         <v>47608</v>
@@ -34488,7 +34598,7 @@
         <v>0</v>
       </c>
       <c r="D190" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E190" s="51" t="n">
         <v>47609</v>
@@ -34502,7 +34612,7 @@
         <v>0</v>
       </c>
       <c r="D191" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E191" s="51" t="n">
         <v>47679</v>
@@ -34516,7 +34626,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E192" s="51" t="n">
         <v>47706</v>
@@ -34530,7 +34640,7 @@
         <v>0</v>
       </c>
       <c r="D193" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E193" s="51" t="n">
         <v>47707</v>
@@ -34544,7 +34654,7 @@
         <v>0</v>
       </c>
       <c r="D194" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E194" s="51" t="n">
         <v>47742</v>
@@ -34558,7 +34668,7 @@
         <v>0</v>
       </c>
       <c r="D195" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E195" s="51" t="n">
         <v>47749</v>
@@ -34572,7 +34682,7 @@
         <v>0</v>
       </c>
       <c r="D196" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E196" s="51" t="n">
         <v>47770</v>
@@ -34586,7 +34696,7 @@
         <v>1</v>
       </c>
       <c r="D197" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E197" s="51" t="n">
         <v>47790</v>
@@ -34600,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="D198" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E198" s="51" t="n">
         <v>47791</v>
@@ -34611,10 +34721,10 @@
         <v>47810</v>
       </c>
       <c r="C199" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D199" s="53" t="s">
         <v>98</v>
-      </c>
-      <c r="D199" s="53" t="s">
-        <v>97</v>
       </c>
       <c r="E199" s="51" t="n">
         <v>47810</v>
@@ -34625,10 +34735,10 @@
         <v>47849</v>
       </c>
       <c r="C200" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D200" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E200" s="51" t="n">
         <v>47849</v>
@@ -34642,7 +34752,7 @@
         <v>0</v>
       </c>
       <c r="D201" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E201" s="51" t="n">
         <v>47861</v>
@@ -34653,10 +34763,10 @@
         <v>47890</v>
       </c>
       <c r="C202" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D202" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E202" s="51" t="n">
         <v>47890</v>
@@ -34670,7 +34780,7 @@
         <v>1</v>
       </c>
       <c r="D203" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E203" s="51" t="n">
         <v>47902</v>
@@ -34684,7 +34794,7 @@
         <v>0</v>
       </c>
       <c r="D204" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E204" s="51" t="n">
         <v>47903</v>
@@ -34695,10 +34805,10 @@
         <v>47928</v>
       </c>
       <c r="C205" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D205" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E205" s="51" t="n">
         <v>47928</v>
@@ -34709,10 +34819,10 @@
         <v>47967</v>
       </c>
       <c r="C206" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D206" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E206" s="51" t="n">
         <v>47967</v>
@@ -34723,10 +34833,10 @@
         <v>47971</v>
       </c>
       <c r="C207" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D207" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E207" s="51" t="n">
         <v>47971</v>
@@ -34740,7 +34850,7 @@
         <v>1</v>
       </c>
       <c r="D208" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E208" s="51" t="n">
         <v>47972</v>
@@ -34754,7 +34864,7 @@
         <v>0</v>
       </c>
       <c r="D209" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E209" s="51" t="n">
         <v>47973</v>
@@ -34765,10 +34875,10 @@
         <v>47974</v>
       </c>
       <c r="C210" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D210" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E210" s="51" t="n">
         <v>47974</v>
@@ -34782,7 +34892,7 @@
         <v>0</v>
       </c>
       <c r="D211" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E211" s="51" t="n">
         <v>48050</v>
@@ -34796,7 +34906,7 @@
         <v>0</v>
       </c>
       <c r="D212" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E212" s="51" t="n">
         <v>48071</v>
@@ -34810,7 +34920,7 @@
         <v>0</v>
       </c>
       <c r="D213" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E213" s="51" t="n">
         <v>48106</v>
@@ -34821,10 +34931,10 @@
         <v>48114</v>
       </c>
       <c r="C214" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D214" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E214" s="51" t="n">
         <v>48114</v>
@@ -34838,7 +34948,7 @@
         <v>0</v>
       </c>
       <c r="D215" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E215" s="51" t="n">
         <v>48134</v>
@@ -34852,7 +34962,7 @@
         <v>0</v>
       </c>
       <c r="D216" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E216" s="51" t="n">
         <v>48155</v>
@@ -34866,7 +34976,7 @@
         <v>1</v>
       </c>
       <c r="D217" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E217" s="51" t="n">
         <v>48175</v>
@@ -34880,7 +34990,7 @@
         <v>0</v>
       </c>
       <c r="D218" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E218" s="51" t="n">
         <v>48176</v>
@@ -34891,10 +35001,10 @@
         <v>48214</v>
       </c>
       <c r="C219" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D219" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E219" s="51" t="n">
         <v>48214</v>
@@ -34908,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="D220" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E220" s="51" t="n">
         <v>48225</v>
@@ -34919,10 +35029,10 @@
         <v>48255</v>
       </c>
       <c r="C221" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D221" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E221" s="51" t="n">
         <v>48255</v>
@@ -34936,7 +35046,7 @@
         <v>0</v>
       </c>
       <c r="D222" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E222" s="51" t="n">
         <v>48267</v>
@@ -34947,10 +35057,10 @@
         <v>48293</v>
       </c>
       <c r="C223" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D223" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E223" s="51" t="n">
         <v>48293</v>
@@ -34961,10 +35071,10 @@
         <v>48333</v>
       </c>
       <c r="C224" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D224" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E224" s="51" t="n">
         <v>48333</v>
@@ -34978,7 +35088,7 @@
         <v>0</v>
       </c>
       <c r="D225" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E225" s="51" t="n">
         <v>48337</v>
@@ -34989,10 +35099,10 @@
         <v>48338</v>
       </c>
       <c r="C226" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D226" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E226" s="51" t="n">
         <v>48338</v>
@@ -35003,10 +35113,10 @@
         <v>48339</v>
       </c>
       <c r="C227" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D227" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E227" s="51" t="n">
         <v>48339</v>
@@ -35020,7 +35130,7 @@
         <v>0</v>
       </c>
       <c r="D228" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E228" s="51" t="n">
         <v>48414</v>
@@ -35031,10 +35141,10 @@
         <v>48437</v>
       </c>
       <c r="C229" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D229" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E229" s="51" t="n">
         <v>48437</v>
@@ -35048,7 +35158,7 @@
         <v>0</v>
       </c>
       <c r="D230" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E230" s="51" t="n">
         <v>48477</v>
@@ -35059,10 +35169,10 @@
         <v>48478</v>
       </c>
       <c r="C231" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D231" s="53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E231" s="51" t="n">
         <v>48478</v>
@@ -35073,10 +35183,10 @@
         <v>48479</v>
       </c>
       <c r="C232" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D232" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E232" s="51" t="n">
         <v>48479</v>
@@ -35090,7 +35200,7 @@
         <v>0</v>
       </c>
       <c r="D233" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E233" s="51" t="n">
         <v>48498</v>
@@ -35101,10 +35211,10 @@
         <v>48521</v>
       </c>
       <c r="C234" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D234" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E234" s="51" t="n">
         <v>48521</v>
@@ -35115,10 +35225,10 @@
         <v>48541</v>
       </c>
       <c r="C235" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D235" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E235" s="51" t="n">
         <v>48541</v>
@@ -35129,10 +35239,10 @@
         <v>48580</v>
       </c>
       <c r="C236" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D236" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E236" s="51" t="n">
         <v>48580</v>
@@ -35146,7 +35256,7 @@
         <v>0</v>
       </c>
       <c r="D237" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E237" s="51" t="n">
         <v>48589</v>
@@ -35157,10 +35267,10 @@
         <v>48621</v>
       </c>
       <c r="C238" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D238" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E238" s="51" t="n">
         <v>48621</v>
@@ -35171,10 +35281,10 @@
         <v>48633</v>
       </c>
       <c r="C239" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D239" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E239" s="51" t="n">
         <v>48633</v>
@@ -35188,7 +35298,7 @@
         <v>1</v>
       </c>
       <c r="D240" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E240" s="51" t="n">
         <v>48658</v>
@@ -35202,7 +35312,7 @@
         <v>0</v>
       </c>
       <c r="D241" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E241" s="51" t="n">
         <v>48659</v>
@@ -35213,10 +35323,10 @@
         <v>48698</v>
       </c>
       <c r="C242" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D242" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E242" s="51" t="n">
         <v>48698</v>
@@ -35227,10 +35337,10 @@
         <v>48702</v>
       </c>
       <c r="C243" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D243" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E243" s="51" t="n">
         <v>48702</v>
@@ -35241,10 +35351,10 @@
         <v>48703</v>
       </c>
       <c r="C244" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D244" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E244" s="51" t="n">
         <v>48703</v>
@@ -35255,10 +35365,10 @@
         <v>48704</v>
       </c>
       <c r="C245" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D245" s="53" t="s">
         <v>90</v>
-      </c>
-      <c r="D245" s="53" t="s">
-        <v>89</v>
       </c>
       <c r="E245" s="51" t="n">
         <v>48704</v>
@@ -35272,7 +35382,7 @@
         <v>0</v>
       </c>
       <c r="D246" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E246" s="51" t="n">
         <v>48778</v>
@@ -35283,10 +35393,10 @@
         <v>48802</v>
       </c>
       <c r="C247" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D247" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E247" s="51" t="n">
         <v>48802</v>
@@ -35300,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="D248" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E248" s="51" t="n">
         <v>48841</v>
@@ -35311,10 +35421,10 @@
         <v>48845</v>
       </c>
       <c r="C249" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D249" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E249" s="51" t="n">
         <v>48845</v>
@@ -35328,7 +35438,7 @@
         <v>0</v>
       </c>
       <c r="D250" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E250" s="51" t="n">
         <v>48862</v>
@@ -35339,10 +35449,10 @@
         <v>48886</v>
       </c>
       <c r="C251" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D251" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E251" s="51" t="n">
         <v>48886</v>
@@ -35353,10 +35463,10 @@
         <v>48906</v>
       </c>
       <c r="C252" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D252" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E252" s="51" t="n">
         <v>48906</v>
@@ -35370,7 +35480,7 @@
         <v>1</v>
       </c>
       <c r="D253" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E253" s="51" t="n">
         <v>48945</v>
@@ -35384,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="D254" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E254" s="51" t="n">
         <v>48946</v>
@@ -35398,7 +35508,7 @@
         <v>0</v>
       </c>
       <c r="D255" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E255" s="51" t="n">
         <v>48953</v>
@@ -35409,10 +35519,10 @@
         <v>48986</v>
       </c>
       <c r="C256" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D256" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E256" s="51" t="n">
         <v>48986</v>
@@ -35423,10 +35533,10 @@
         <v>48998</v>
       </c>
       <c r="C257" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D257" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E257" s="51" t="n">
         <v>48998</v>
@@ -35440,7 +35550,7 @@
         <v>0</v>
       </c>
       <c r="D258" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E258" s="51" t="n">
         <v>49023</v>
@@ -35451,10 +35561,10 @@
         <v>49063</v>
       </c>
       <c r="C259" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D259" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E259" s="51" t="n">
         <v>49063</v>
@@ -35465,10 +35575,10 @@
         <v>49067</v>
       </c>
       <c r="C260" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D260" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E260" s="51" t="n">
         <v>49067</v>
@@ -35479,10 +35589,10 @@
         <v>49068</v>
       </c>
       <c r="C261" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D261" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E261" s="51" t="n">
         <v>49068</v>
@@ -35493,10 +35603,10 @@
         <v>49069</v>
       </c>
       <c r="C262" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D262" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E262" s="51" t="n">
         <v>49069</v>
@@ -35510,7 +35620,7 @@
         <v>0</v>
       </c>
       <c r="D263" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E263" s="51" t="n">
         <v>49142</v>
@@ -35521,10 +35631,10 @@
         <v>49167</v>
       </c>
       <c r="C264" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D264" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E264" s="51" t="n">
         <v>49167</v>
@@ -35538,7 +35648,7 @@
         <v>0</v>
       </c>
       <c r="D265" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E265" s="51" t="n">
         <v>49205</v>
@@ -35549,10 +35659,10 @@
         <v>49210</v>
       </c>
       <c r="C266" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D266" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E266" s="51" t="n">
         <v>49210</v>
@@ -35566,7 +35676,7 @@
         <v>0</v>
       </c>
       <c r="D267" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E267" s="51" t="n">
         <v>49226</v>
@@ -35577,10 +35687,10 @@
         <v>49251</v>
       </c>
       <c r="C268" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D268" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E268" s="51" t="n">
         <v>49251</v>
@@ -35591,10 +35701,10 @@
         <v>49271</v>
       </c>
       <c r="C269" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D269" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E269" s="51" t="n">
         <v>49271</v>
@@ -35608,7 +35718,7 @@
         <v>0</v>
       </c>
       <c r="D270" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E270" s="51" t="n">
         <v>49310</v>
@@ -35622,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="D271" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E271" s="51" t="n">
         <v>49317</v>
@@ -35636,7 +35746,7 @@
         <v>1</v>
       </c>
       <c r="D272" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E272" s="51" t="n">
         <v>49351</v>
@@ -35650,7 +35760,7 @@
         <v>0</v>
       </c>
       <c r="D273" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E273" s="51" t="n">
         <v>49352</v>
@@ -35661,10 +35771,10 @@
         <v>49363</v>
       </c>
       <c r="C274" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D274" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E274" s="51" t="n">
         <v>49363</v>
@@ -35675,10 +35785,10 @@
         <v>49389</v>
       </c>
       <c r="C275" s="53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D275" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E275" s="51" t="n">
         <v>49389</v>
@@ -35692,7 +35802,7 @@
         <v>1</v>
       </c>
       <c r="D276" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E276" s="51" t="n">
         <v>49428</v>
@@ -35706,7 +35816,7 @@
         <v>0</v>
       </c>
       <c r="D277" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E277" s="51" t="n">
         <v>49429</v>
@@ -35717,10 +35827,10 @@
         <v>49432</v>
       </c>
       <c r="C278" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D278" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E278" s="51" t="n">
         <v>49432</v>
@@ -35731,10 +35841,10 @@
         <v>49433</v>
       </c>
       <c r="C279" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D279" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E279" s="51" t="n">
         <v>49433</v>
@@ -35745,10 +35855,10 @@
         <v>49434</v>
       </c>
       <c r="C280" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D280" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E280" s="51" t="n">
         <v>49434</v>
@@ -35762,7 +35872,7 @@
         <v>0</v>
       </c>
       <c r="D281" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E281" s="51" t="n">
         <v>49506</v>
@@ -35773,10 +35883,10 @@
         <v>49532</v>
       </c>
       <c r="C282" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D282" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E282" s="51" t="n">
         <v>49532</v>
@@ -35790,7 +35900,7 @@
         <v>0</v>
       </c>
       <c r="D283" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E283" s="51" t="n">
         <v>49569</v>
@@ -35804,7 +35914,7 @@
         <v>1</v>
       </c>
       <c r="D284" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E284" s="51" t="n">
         <v>49575</v>
@@ -35818,7 +35928,7 @@
         <v>0</v>
       </c>
       <c r="D285" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E285" s="51" t="n">
         <v>49576</v>
@@ -35832,7 +35942,7 @@
         <v>0</v>
       </c>
       <c r="D286" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E286" s="51" t="n">
         <v>49590</v>
@@ -35843,10 +35953,10 @@
         <v>49616</v>
       </c>
       <c r="C287" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D287" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E287" s="51" t="n">
         <v>49616</v>
@@ -35857,10 +35967,10 @@
         <v>49636</v>
       </c>
       <c r="C288" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D288" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E288" s="51" t="n">
         <v>49636</v>
@@ -35871,10 +35981,10 @@
         <v>49675</v>
       </c>
       <c r="C289" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D289" s="53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E289" s="51" t="n">
         <v>49675</v>
@@ -35888,7 +35998,7 @@
         <v>0</v>
       </c>
       <c r="D290" s="53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E290" s="51" t="n">
         <v>49688</v>
@@ -35902,7 +36012,7 @@
         <v>0</v>
       </c>
       <c r="D291" s="53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E291" s="51" t="n">
         <v>49716</v>
@@ -35913,10 +36023,10 @@
         <v>49728</v>
       </c>
       <c r="C292" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D292" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E292" s="51" t="n">
         <v>49728</v>
@@ -35927,10 +36037,10 @@
         <v>49754</v>
       </c>
       <c r="C293" s="53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D293" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E293" s="51" t="n">
         <v>49754</v>
@@ -35941,10 +36051,10 @@
         <v>49794</v>
       </c>
       <c r="C294" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D294" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E294" s="51" t="n">
         <v>49794</v>
@@ -35955,10 +36065,10 @@
         <v>49798</v>
       </c>
       <c r="C295" s="53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D295" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E295" s="51" t="n">
         <v>49798</v>
@@ -35972,7 +36082,7 @@
         <v>1</v>
       </c>
       <c r="D296" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E296" s="51" t="n">
         <v>49799</v>
@@ -35986,7 +36096,7 @@
         <v>0</v>
       </c>
       <c r="D297" s="53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E297" s="51" t="n">
         <v>49800</v>
@@ -35997,10 +36107,10 @@
         <v>49801</v>
       </c>
       <c r="C298" s="53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D298" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E298" s="51" t="n">
         <v>49801</v>
@@ -36014,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="D299" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E299" s="51" t="n">
         <v>49877</v>
@@ -36028,7 +36138,7 @@
         <v>0</v>
       </c>
       <c r="D300" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E300" s="51" t="n">
         <v>49898</v>
@@ -36042,7 +36152,7 @@
         <v>0</v>
       </c>
       <c r="D301" s="53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E301" s="51" t="n">
         <v>49933</v>
@@ -36056,7 +36166,7 @@
         <v>0</v>
       </c>
       <c r="D302" s="53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E302" s="51" t="n">
         <v>49940</v>
@@ -36070,7 +36180,7 @@
         <v>0</v>
       </c>
       <c r="D303" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E303" s="51" t="n">
         <v>49961</v>
@@ -36084,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="D304" s="53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E304" s="51" t="n">
         <v>49982</v>
@@ -36098,7 +36208,7 @@
         <v>1</v>
       </c>
       <c r="D305" s="53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E305" s="51" t="n">
         <v>50002</v>
@@ -36112,7 +36222,7 @@
         <v>0</v>
       </c>
       <c r="D306" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E306" s="51" t="n">
         <v>50003</v>
@@ -36121,10 +36231,10 @@
     <row r="307" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="308" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B308" s="53" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E308" s="51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/[SLDE004]11_作業工程表_LibreOffice用.xlsx
+++ b/[SLDE004]11_作業工程表_LibreOffice用.xlsx
@@ -1272,10 +1272,10 @@
   </sheetPr>
   <dimension ref="A1:AR1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="V5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="Q25" activeCellId="0" sqref="Q25"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="S10" activeCellId="0" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -2044,7 +2044,9 @@
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
       <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="30" t="n">
+        <v>3</v>
+      </c>
       <c r="H9" s="30" t="s">
         <v>25</v>
       </c>
@@ -2070,7 +2072,9 @@
         <v>50</v>
       </c>
       <c r="R9" s="32"/>
-      <c r="S9" s="33"/>
+      <c r="S9" s="33" t="n">
+        <v>14</v>
+      </c>
       <c r="T9" s="33"/>
       <c r="U9" s="34"/>
       <c r="V9" s="25"/>
@@ -31920,7 +31924,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{9CBD919D-C6EA-45FB-96C3-EE32C2C0C197}">
+          <x14:cfRule type="expression" priority="7" id="{CD44C66A-12B4-4A13-91F4-CEBCE2D04135}">
             <xm:f>COUNTIF(休日!$B:$B,V$1)&gt;0</xm:f>
             <x14:dxf>
               <font>
@@ -31952,7 +31956,7 @@
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
